--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygen maintenance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A122303-59A3-48DD-A89C-4E8C46986269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B9C896-1215-4B3E-B20C-16EC4BF41873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="229">
   <si>
     <t xml:space="preserve">S.no </t>
   </si>
@@ -782,6 +782,18 @@
   </si>
   <si>
     <t>Transffered to Prabu</t>
+  </si>
+  <si>
+    <t>by Ratna</t>
+  </si>
+  <si>
+    <t>amit</t>
+  </si>
+  <si>
+    <t>ratna</t>
+  </si>
+  <si>
+    <t>vishal</t>
   </si>
 </sst>
 </file>
@@ -1464,9 +1476,9 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1598,7 @@
         <v>3487</v>
       </c>
       <c r="J3" s="26">
-        <f t="shared" ref="J3:K66" si="0">(H3+I3)</f>
+        <f t="shared" ref="J3:J66" si="0">(H3+I3)</f>
         <v>6687</v>
       </c>
       <c r="K3" s="21"/>
@@ -2706,7 +2718,9 @@
         <f t="shared" si="0"/>
         <v>21982</v>
       </c>
-      <c r="K34" s="21"/>
+      <c r="K34" s="21">
+        <v>21982</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -4118,7 +4132,7 @@
       </c>
       <c r="K74">
         <f>SUM(K2:K73)</f>
-        <v>223288</v>
+        <v>245270</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4160,9 +4174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0520B335-6D30-4762-9C4F-D400EB1F105F}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4255,19 +4269,19 @@
         <v>298.60000000000002</v>
       </c>
       <c r="G2" s="21">
-        <f>+E2-C2</f>
+        <f t="shared" ref="G2:G15" si="0">+E2-C2</f>
         <v>85</v>
       </c>
       <c r="H2" s="21">
         <v>10</v>
       </c>
       <c r="I2" s="21">
-        <f>B2+G2*H2</f>
+        <f t="shared" ref="I2:I33" si="1">B2+G2*H2</f>
         <v>1752</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21">
-        <f>F2-E2</f>
+        <f t="shared" ref="K2:K15" si="2">F2-E2</f>
         <v>98.600000000000023</v>
       </c>
       <c r="L2" s="21">
@@ -4275,33 +4289,33 @@
         <v>1888.0000000000002</v>
       </c>
       <c r="M2" s="21">
-        <f>I2+L2</f>
+        <f t="shared" ref="M2:M33" si="3">I2+L2</f>
         <v>3640</v>
       </c>
       <c r="N2" s="20">
         <v>3640</v>
       </c>
       <c r="O2" s="21">
-        <f>M2-N2</f>
+        <f t="shared" ref="O2:O33" si="4">M2-N2</f>
         <v>0</v>
       </c>
       <c r="P2" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" ref="P2:P33" si="5">(49275+3731)/71</f>
         <v>746.56338028169012</v>
       </c>
       <c r="Q2" s="21">
         <v>437.5</v>
       </c>
       <c r="R2" s="21">
-        <f>Q2-F2</f>
+        <f t="shared" ref="R2:R33" si="6">Q2-F2</f>
         <v>138.89999999999998</v>
       </c>
       <c r="S2" s="21">
-        <f>P2+(R2*10)</f>
+        <f t="shared" ref="S2:S33" si="7">P2+(R2*10)</f>
         <v>2135.5633802816901</v>
       </c>
       <c r="T2" s="21">
-        <f>ROUND(O2+S2,0)</f>
+        <f t="shared" ref="T2:T33" si="8">ROUND(O2+S2,0)</f>
         <v>2136</v>
       </c>
       <c r="U2" s="21">
@@ -4328,19 +4342,19 @@
         <v>1453</v>
       </c>
       <c r="G3" s="21">
-        <f>+E3-C3</f>
+        <f t="shared" si="0"/>
         <v>592</v>
       </c>
       <c r="H3" s="21">
         <v>10</v>
       </c>
       <c r="I3" s="21">
-        <f>B3+G3*H3</f>
+        <f t="shared" si="1"/>
         <v>6822</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21">
-        <f>F3-E3</f>
+        <f t="shared" si="2"/>
         <v>463</v>
       </c>
       <c r="L3" s="21">
@@ -4348,31 +4362,31 @@
         <v>5532</v>
       </c>
       <c r="M3" s="21">
-        <f>I3+L3</f>
+        <f t="shared" si="3"/>
         <v>12354</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="21">
-        <f>M3-N3</f>
+        <f t="shared" si="4"/>
         <v>12354</v>
       </c>
       <c r="P3" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q3" s="21">
         <v>2106.5</v>
       </c>
       <c r="R3" s="21">
-        <f>Q3-F3</f>
+        <f t="shared" si="6"/>
         <v>653.5</v>
       </c>
       <c r="S3" s="21">
-        <f>P3+(R3*10)</f>
+        <f t="shared" si="7"/>
         <v>7281.5633802816901</v>
       </c>
       <c r="T3" s="21">
-        <f>ROUND(O3+S3,0)</f>
+        <f t="shared" si="8"/>
         <v>19636</v>
       </c>
       <c r="U3" s="21"/>
@@ -4397,50 +4411,50 @@
         <v>97.7</v>
       </c>
       <c r="G4" s="21">
-        <f>+E4-C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="21">
         <v>10</v>
       </c>
       <c r="I4" s="21">
-        <f>B4+G4*H4</f>
+        <f t="shared" si="1"/>
         <v>902</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21">
-        <f>F4-E4</f>
+        <f t="shared" si="2"/>
         <v>33.700000000000003</v>
       </c>
       <c r="L4" s="21">
         <v>902</v>
       </c>
       <c r="M4" s="21">
-        <f>I4+L4</f>
+        <f t="shared" si="3"/>
         <v>1804</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21">
-        <f>M4-N4</f>
+        <f t="shared" si="4"/>
         <v>1804</v>
       </c>
       <c r="P4" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q4" s="21">
         <v>97.7</v>
       </c>
       <c r="R4" s="21">
-        <f>Q4-F4</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S4" s="21">
-        <f>P4+(R4*10)</f>
+        <f t="shared" si="7"/>
         <v>746.56338028169012</v>
       </c>
       <c r="T4" s="21">
-        <f>ROUND(O4+S4,0)</f>
+        <f t="shared" si="8"/>
         <v>2551</v>
       </c>
       <c r="U4" s="21">
@@ -4467,53 +4481,53 @@
         <v>2596.2600000000002</v>
       </c>
       <c r="G5" s="21">
-        <f>+E5-C5</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="H5" s="21">
         <v>10</v>
       </c>
       <c r="I5" s="21">
-        <f>B5+G5*H5</f>
+        <f t="shared" si="1"/>
         <v>7902</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21">
-        <f>F5-E5</f>
+        <f t="shared" si="2"/>
         <v>656.26000000000022</v>
       </c>
       <c r="L5" s="21">
-        <f>902+K5*10</f>
+        <f t="shared" ref="L5:L36" si="9">902+K5*10</f>
         <v>7464.6000000000022</v>
       </c>
       <c r="M5" s="21">
-        <f>I5+L5</f>
+        <f t="shared" si="3"/>
         <v>15366.600000000002</v>
       </c>
       <c r="N5" s="21">
         <v>15367</v>
       </c>
       <c r="O5" s="21">
-        <f>M5-N5</f>
+        <f t="shared" si="4"/>
         <v>-0.39999999999781721</v>
       </c>
       <c r="P5" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q5" s="21">
         <v>3357</v>
       </c>
       <c r="R5" s="21">
-        <f>Q5-F5</f>
+        <f t="shared" si="6"/>
         <v>760.73999999999978</v>
       </c>
       <c r="S5" s="21">
-        <f>P5+(R5*10)</f>
+        <f t="shared" si="7"/>
         <v>8353.9633802816879</v>
       </c>
       <c r="T5" s="21">
-        <f>ROUND(O5+S5,0)</f>
+        <f t="shared" si="8"/>
         <v>8354</v>
       </c>
       <c r="U5" s="21">
@@ -4540,53 +4554,53 @@
         <v>5649.3</v>
       </c>
       <c r="G6" s="21">
-        <f>+E6-C6</f>
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
       <c r="H6" s="21">
         <v>10</v>
       </c>
       <c r="I6" s="21">
-        <f>B6+G6*H6</f>
+        <f t="shared" si="1"/>
         <v>6502</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21">
-        <f>F6-E6</f>
+        <f t="shared" si="2"/>
         <v>509.30000000000018</v>
       </c>
       <c r="L6" s="21">
-        <f>902+K6*10</f>
+        <f t="shared" si="9"/>
         <v>5995.0000000000018</v>
       </c>
       <c r="M6" s="21">
-        <f>I6+L6</f>
+        <f t="shared" si="3"/>
         <v>12497.000000000002</v>
       </c>
       <c r="N6" s="21">
         <v>12497</v>
       </c>
       <c r="O6" s="21">
-        <f>M6-N6</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P6" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q6" s="21">
         <v>6594.9</v>
       </c>
       <c r="R6" s="21">
-        <f>Q6-F6</f>
+        <f t="shared" si="6"/>
         <v>945.59999999999945</v>
       </c>
       <c r="S6" s="21">
-        <f>P6+(R6*10)</f>
+        <f t="shared" si="7"/>
         <v>10202.563380281685</v>
       </c>
       <c r="T6" s="21">
-        <f>ROUND(O6+S6,0)</f>
+        <f t="shared" si="8"/>
         <v>10203</v>
       </c>
       <c r="U6" s="21"/>
@@ -4611,51 +4625,51 @@
         <v>106.1</v>
       </c>
       <c r="G7" s="21">
-        <f>+E7-C7</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="H7" s="21">
         <v>10</v>
       </c>
       <c r="I7" s="21">
-        <f>B7+G7*H7</f>
+        <f t="shared" si="1"/>
         <v>1332</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21">
-        <f>F7-E7</f>
+        <f t="shared" si="2"/>
         <v>18.099999999999994</v>
       </c>
       <c r="L7" s="21">
-        <f>902+K7*10</f>
+        <f t="shared" si="9"/>
         <v>1083</v>
       </c>
       <c r="M7" s="21">
-        <f>I7+L7</f>
+        <f t="shared" si="3"/>
         <v>2415</v>
       </c>
       <c r="N7" s="21"/>
       <c r="O7" s="21">
-        <f>M7-N7</f>
+        <f t="shared" si="4"/>
         <v>2415</v>
       </c>
       <c r="P7" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q7" s="21">
         <v>178.2</v>
       </c>
       <c r="R7" s="21">
-        <f>Q7-F7</f>
+        <f t="shared" si="6"/>
         <v>72.099999999999994</v>
       </c>
       <c r="S7" s="21">
-        <f>P7+(R7*10)</f>
+        <f t="shared" si="7"/>
         <v>1467.5633802816901</v>
       </c>
       <c r="T7" s="21">
-        <f>ROUND(O7+S7,0)</f>
+        <f t="shared" si="8"/>
         <v>3883</v>
       </c>
       <c r="U7" s="21"/>
@@ -4680,51 +4694,51 @@
         <v>912.8</v>
       </c>
       <c r="G8" s="21">
-        <f>+E8-C8</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="H8" s="21">
         <v>10</v>
       </c>
       <c r="I8" s="21">
-        <f>B8+G8*H8</f>
+        <f t="shared" si="1"/>
         <v>1552</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21">
-        <f>F8-E8</f>
+        <f t="shared" si="2"/>
         <v>72.799999999999955</v>
       </c>
       <c r="L8" s="21">
-        <f>902+K8*10</f>
+        <f t="shared" si="9"/>
         <v>1629.9999999999995</v>
       </c>
       <c r="M8" s="21">
-        <f>I8+L8</f>
+        <f t="shared" si="3"/>
         <v>3181.9999999999995</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="21">
-        <f>M8-N8</f>
+        <f t="shared" si="4"/>
         <v>3181.9999999999995</v>
       </c>
       <c r="P8" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q8" s="21">
         <v>917.2</v>
       </c>
       <c r="R8" s="21">
-        <f>Q8-F8</f>
+        <f t="shared" si="6"/>
         <v>4.4000000000000909</v>
       </c>
       <c r="S8" s="21">
-        <f>P8+(R8*10)</f>
+        <f t="shared" si="7"/>
         <v>790.56338028169102</v>
       </c>
       <c r="T8" s="21">
-        <f>ROUND(O8+S8,0)</f>
+        <f t="shared" si="8"/>
         <v>3973</v>
       </c>
       <c r="U8" s="21"/>
@@ -4749,51 +4763,51 @@
         <v>76.599999999999994</v>
       </c>
       <c r="G9" s="21">
-        <f>+E9-C9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="21">
         <v>10</v>
       </c>
       <c r="I9" s="21">
-        <f>B9+G9*H9</f>
+        <f t="shared" si="1"/>
         <v>902</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21">
-        <f>F9-E9</f>
+        <f t="shared" si="2"/>
         <v>20.599999999999994</v>
       </c>
       <c r="L9" s="21">
-        <f>902+K9*10</f>
+        <f t="shared" si="9"/>
         <v>1108</v>
       </c>
       <c r="M9" s="21">
-        <f>I9+L9</f>
+        <f t="shared" si="3"/>
         <v>2010</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="21">
-        <f>M9-N9</f>
+        <f t="shared" si="4"/>
         <v>2010</v>
       </c>
       <c r="P9" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q9" s="21">
         <v>80.900000000000006</v>
       </c>
       <c r="R9" s="21">
-        <f>Q9-F9</f>
+        <f t="shared" si="6"/>
         <v>4.3000000000000114</v>
       </c>
       <c r="S9" s="21">
-        <f>P9+(R9*10)</f>
+        <f t="shared" si="7"/>
         <v>789.56338028169023</v>
       </c>
       <c r="T9" s="21">
-        <f>ROUND(O9+S9,0)</f>
+        <f t="shared" si="8"/>
         <v>2800</v>
       </c>
       <c r="U9" s="21"/>
@@ -4818,51 +4832,51 @@
         <v>45</v>
       </c>
       <c r="G10" s="21">
-        <f>+E10-C10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="21">
         <v>10</v>
       </c>
       <c r="I10" s="21">
-        <f>B10+G10*H10</f>
+        <f t="shared" si="1"/>
         <v>902</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21">
-        <f>F10-E10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="21">
-        <f>902+K10*10</f>
+        <f t="shared" si="9"/>
         <v>902</v>
       </c>
       <c r="M10" s="21">
-        <f>I10+L10</f>
+        <f t="shared" si="3"/>
         <v>1804</v>
       </c>
       <c r="N10" s="20"/>
       <c r="O10" s="21">
-        <f>M10-N10</f>
+        <f t="shared" si="4"/>
         <v>1804</v>
       </c>
       <c r="P10" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q10" s="21">
         <v>917.6</v>
       </c>
       <c r="R10" s="21">
-        <f>Q10-F10</f>
+        <f t="shared" si="6"/>
         <v>872.6</v>
       </c>
       <c r="S10" s="21">
-        <f>P10+(R10*10)</f>
+        <f t="shared" si="7"/>
         <v>9472.5633802816901</v>
       </c>
       <c r="T10" s="21">
-        <f>ROUND(O10+S10,0)</f>
+        <f t="shared" si="8"/>
         <v>11277</v>
       </c>
       <c r="U10" s="21"/>
@@ -4887,53 +4901,53 @@
         <v>11538.3</v>
       </c>
       <c r="G11" s="21">
-        <f>+E11-C11</f>
+        <f t="shared" si="0"/>
         <v>730</v>
       </c>
       <c r="H11" s="21">
         <v>10</v>
       </c>
       <c r="I11" s="21">
-        <f>B11+G11*H11</f>
+        <f t="shared" si="1"/>
         <v>8202</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21">
-        <f>F11-E11</f>
+        <f t="shared" si="2"/>
         <v>798.29999999999927</v>
       </c>
       <c r="L11" s="21">
-        <f>902+K11*10</f>
+        <f t="shared" si="9"/>
         <v>8884.9999999999927</v>
       </c>
       <c r="M11" s="21">
-        <f>I11+L11</f>
+        <f t="shared" si="3"/>
         <v>17086.999999999993</v>
       </c>
       <c r="N11" s="21">
         <v>17087</v>
       </c>
       <c r="O11" s="21">
-        <f>M11-N11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q11" s="21">
         <v>12695.7</v>
       </c>
       <c r="R11" s="21">
-        <f>Q11-F11</f>
+        <f t="shared" si="6"/>
         <v>1157.4000000000015</v>
       </c>
       <c r="S11" s="21">
-        <f>P11+(R11*10)</f>
+        <f t="shared" si="7"/>
         <v>12320.563380281705</v>
       </c>
       <c r="T11" s="21">
-        <f>ROUND(O11+S11,0)</f>
+        <f t="shared" si="8"/>
         <v>12321</v>
       </c>
       <c r="U11" s="21">
@@ -4960,53 +4974,53 @@
         <v>10796.94</v>
       </c>
       <c r="G12" s="21">
-        <f>+E12-C12</f>
+        <f t="shared" si="0"/>
         <v>1210</v>
       </c>
       <c r="H12" s="21">
         <v>10</v>
       </c>
       <c r="I12" s="21">
-        <f>B12+G12*H12</f>
+        <f t="shared" si="1"/>
         <v>13002</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21">
-        <f>F12-E12</f>
+        <f t="shared" si="2"/>
         <v>756.94000000000051</v>
       </c>
       <c r="L12" s="21">
-        <f>902+K12*10</f>
+        <f t="shared" si="9"/>
         <v>8471.4000000000051</v>
       </c>
       <c r="M12" s="21">
-        <f>I12+L12</f>
+        <f t="shared" si="3"/>
         <v>21473.400000000005</v>
       </c>
       <c r="N12" s="21">
         <v>21474</v>
       </c>
       <c r="O12" s="21">
-        <f>M12-N12</f>
+        <f t="shared" si="4"/>
         <v>-0.59999999999490683</v>
       </c>
       <c r="P12" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q12" s="64">
         <v>12400</v>
       </c>
       <c r="R12" s="21">
-        <f>Q12-F12</f>
+        <f t="shared" si="6"/>
         <v>1603.0599999999995</v>
       </c>
       <c r="S12" s="21">
-        <f>P12+(R12*10)</f>
+        <f t="shared" si="7"/>
         <v>16777.163380281687</v>
       </c>
       <c r="T12" s="21">
-        <f>ROUND(O12+S12,0)</f>
+        <f t="shared" si="8"/>
         <v>16777</v>
       </c>
       <c r="U12" s="21">
@@ -5033,53 +5047,53 @@
         <v>8923.1990000000005</v>
       </c>
       <c r="G13" s="21">
-        <f>+E13-C13</f>
+        <f t="shared" si="0"/>
         <v>989</v>
       </c>
       <c r="H13" s="21">
         <v>10</v>
       </c>
       <c r="I13" s="21">
-        <f>B13+G13*H13</f>
+        <f t="shared" si="1"/>
         <v>10792</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21">
-        <f>F13-E13</f>
+        <f t="shared" si="2"/>
         <v>883.19900000000052</v>
       </c>
       <c r="L13" s="21">
-        <f>902+K13*10</f>
+        <f t="shared" si="9"/>
         <v>9733.9900000000052</v>
       </c>
       <c r="M13" s="21">
-        <f>I13+L13</f>
+        <f t="shared" si="3"/>
         <v>20525.990000000005</v>
       </c>
       <c r="N13" s="21">
         <v>20526</v>
       </c>
       <c r="O13" s="21">
-        <f>M13-N13</f>
+        <f t="shared" si="4"/>
         <v>-9.9999999947613105E-3</v>
       </c>
       <c r="P13" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q13" s="21">
         <v>10662</v>
       </c>
       <c r="R13" s="21">
-        <f>Q13-F13</f>
+        <f t="shared" si="6"/>
         <v>1738.8009999999995</v>
       </c>
       <c r="S13" s="21">
-        <f>P13+(R13*10)</f>
+        <f t="shared" si="7"/>
         <v>18134.573380281683</v>
       </c>
       <c r="T13" s="21">
-        <f>ROUND(O13+S13,0)</f>
+        <f t="shared" si="8"/>
         <v>18135</v>
       </c>
       <c r="U13" s="21">
@@ -5106,53 +5120,53 @@
         <v>3132</v>
       </c>
       <c r="G14" s="21">
-        <f>+E14-C14</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="H14" s="21">
         <v>10</v>
       </c>
       <c r="I14" s="21">
-        <f>B14+G14*H14</f>
+        <f t="shared" si="1"/>
         <v>4152</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21">
-        <f>F14-E14</f>
+        <f t="shared" si="2"/>
         <v>492</v>
       </c>
       <c r="L14" s="21">
-        <f>902+K14*10</f>
+        <f t="shared" si="9"/>
         <v>5822</v>
       </c>
       <c r="M14" s="21">
-        <f>I14+L14</f>
+        <f t="shared" si="3"/>
         <v>9974</v>
       </c>
       <c r="N14" s="21">
         <v>9974</v>
       </c>
       <c r="O14" s="21">
-        <f>M14-N14</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P14" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q14" s="21">
         <v>3837.2</v>
       </c>
       <c r="R14" s="21">
-        <f>Q14-F14</f>
+        <f t="shared" si="6"/>
         <v>705.19999999999982</v>
       </c>
       <c r="S14" s="21">
-        <f>P14+(R14*10)</f>
+        <f t="shared" si="7"/>
         <v>7798.5633802816883</v>
       </c>
       <c r="T14" s="21">
-        <f>ROUND(O14+S14,0)</f>
+        <f t="shared" si="8"/>
         <v>7799</v>
       </c>
       <c r="U14" s="21"/>
@@ -5177,53 +5191,53 @@
         <v>1457.5</v>
       </c>
       <c r="G15" s="21">
-        <f>+E15-C15</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="H15" s="21">
         <v>10</v>
       </c>
       <c r="I15" s="21">
-        <f>B15+G15*H15</f>
+        <f t="shared" si="1"/>
         <v>3902</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21">
-        <f>F15-E15</f>
+        <f t="shared" si="2"/>
         <v>237.5</v>
       </c>
       <c r="L15" s="21">
-        <f>902+K15*10</f>
+        <f t="shared" si="9"/>
         <v>3277</v>
       </c>
       <c r="M15" s="21">
-        <f>I15+L15</f>
+        <f t="shared" si="3"/>
         <v>7179</v>
       </c>
       <c r="N15" s="21">
         <v>7179</v>
       </c>
       <c r="O15" s="21">
-        <f>M15-N15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q15" s="21">
         <v>1695.2</v>
       </c>
       <c r="R15" s="21">
-        <f>Q15-F15</f>
+        <f t="shared" si="6"/>
         <v>237.70000000000005</v>
       </c>
       <c r="S15" s="21">
-        <f>P15+(R15*10)</f>
+        <f t="shared" si="7"/>
         <v>3123.5633802816906</v>
       </c>
       <c r="T15" s="21">
-        <f>ROUND(O15+S15,0)</f>
+        <f t="shared" si="8"/>
         <v>3124</v>
       </c>
       <c r="U15" s="21">
@@ -5256,7 +5270,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="21">
-        <f>B16+G16*H16</f>
+        <f t="shared" si="1"/>
         <v>902</v>
       </c>
       <c r="J16" s="21"/>
@@ -5264,37 +5278,37 @@
         <v>0</v>
       </c>
       <c r="L16" s="21">
-        <f>902+K16*10</f>
+        <f t="shared" si="9"/>
         <v>902</v>
       </c>
       <c r="M16" s="21">
-        <f>I16+L16</f>
+        <f t="shared" si="3"/>
         <v>1804</v>
       </c>
       <c r="N16" s="21">
         <v>1804</v>
       </c>
       <c r="O16" s="21">
-        <f>M16-N16</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q16" s="21">
         <v>60.3</v>
       </c>
       <c r="R16" s="21">
-        <f>Q16-F16</f>
+        <f t="shared" si="6"/>
         <v>3.0999999999999943</v>
       </c>
       <c r="S16" s="21">
-        <f>P16+(R16*10)</f>
+        <f t="shared" si="7"/>
         <v>777.56338028169012</v>
       </c>
       <c r="T16" s="21">
-        <f>ROUND(O16+S16,0)</f>
+        <f t="shared" si="8"/>
         <v>778</v>
       </c>
       <c r="U16" s="21">
@@ -5321,14 +5335,14 @@
         <v>520.6</v>
       </c>
       <c r="G17" s="21">
-        <f>+E17-C17</f>
+        <f t="shared" ref="G17:G31" si="10">+E17-C17</f>
         <v>35</v>
       </c>
       <c r="H17" s="21">
         <v>10</v>
       </c>
       <c r="I17" s="21">
-        <f>B17+G17*H17</f>
+        <f t="shared" si="1"/>
         <v>1252</v>
       </c>
       <c r="J17" s="21"/>
@@ -5337,37 +5351,37 @@
         <v>60.600000000000023</v>
       </c>
       <c r="L17" s="21">
-        <f>902+K17*10</f>
+        <f t="shared" si="9"/>
         <v>1508.0000000000002</v>
       </c>
       <c r="M17" s="21">
-        <f>I17+L17</f>
+        <f t="shared" si="3"/>
         <v>2760</v>
       </c>
       <c r="N17" s="21">
         <v>2760</v>
       </c>
       <c r="O17" s="21">
-        <f>M17-N17</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q17" s="21">
         <v>578</v>
       </c>
       <c r="R17" s="21">
-        <f>Q17-F17</f>
+        <f t="shared" si="6"/>
         <v>57.399999999999977</v>
       </c>
       <c r="S17" s="21">
-        <f>P17+(R17*10)</f>
+        <f t="shared" si="7"/>
         <v>1320.5633802816899</v>
       </c>
       <c r="T17" s="21">
-        <f>ROUND(O17+S17,0)</f>
+        <f t="shared" si="8"/>
         <v>1321</v>
       </c>
       <c r="U17" s="21">
@@ -5394,14 +5408,14 @@
         <v>17.2</v>
       </c>
       <c r="G18" s="21">
-        <f>+E18-C18</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H18" s="21">
         <v>10</v>
       </c>
       <c r="I18" s="21">
-        <f>B18+G18*H18</f>
+        <f t="shared" si="1"/>
         <v>902</v>
       </c>
       <c r="J18" s="21"/>
@@ -5410,37 +5424,37 @@
         <v>12.7</v>
       </c>
       <c r="L18" s="21">
-        <f>902+K18*10</f>
+        <f t="shared" si="9"/>
         <v>1029</v>
       </c>
       <c r="M18" s="21">
-        <f>I18+L18</f>
+        <f t="shared" si="3"/>
         <v>1931</v>
       </c>
       <c r="N18" s="21">
         <v>1931</v>
       </c>
       <c r="O18" s="21">
-        <f>M18-N18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P18" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q18" s="21">
         <v>94.8</v>
       </c>
       <c r="R18" s="21">
-        <f>Q18-F18</f>
+        <f t="shared" si="6"/>
         <v>77.599999999999994</v>
       </c>
       <c r="S18" s="21">
-        <f>P18+(R18*10)</f>
+        <f t="shared" si="7"/>
         <v>1522.5633802816901</v>
       </c>
       <c r="T18" s="21">
-        <f>ROUND(O18+S18,0)</f>
+        <f t="shared" si="8"/>
         <v>1523</v>
       </c>
       <c r="U18" s="21"/>
@@ -5465,14 +5479,14 @@
         <v>55.8</v>
       </c>
       <c r="G19" s="21">
-        <f>+E19-C19</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="H19" s="21">
         <v>10</v>
       </c>
       <c r="I19" s="21">
-        <f>B19+G19*H19</f>
+        <f t="shared" si="1"/>
         <v>1042</v>
       </c>
       <c r="J19" s="21"/>
@@ -5481,35 +5495,35 @@
         <v>10.799999999999997</v>
       </c>
       <c r="L19" s="21">
-        <f>902+K19*10</f>
+        <f t="shared" si="9"/>
         <v>1010</v>
       </c>
       <c r="M19" s="21">
-        <f>I19+L19</f>
+        <f t="shared" si="3"/>
         <v>2052</v>
       </c>
       <c r="N19" s="21"/>
       <c r="O19" s="21">
-        <f>M19-N19</f>
+        <f t="shared" si="4"/>
         <v>2052</v>
       </c>
       <c r="P19" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q19" s="21">
         <v>59.5</v>
       </c>
       <c r="R19" s="21">
-        <f>Q19-F19</f>
+        <f t="shared" si="6"/>
         <v>3.7000000000000028</v>
       </c>
       <c r="S19" s="21">
-        <f>P19+(R19*10)</f>
+        <f t="shared" si="7"/>
         <v>783.56338028169012</v>
       </c>
       <c r="T19" s="21">
-        <f>ROUND(O19+S19,0)</f>
+        <f t="shared" si="8"/>
         <v>2836</v>
       </c>
       <c r="U19" s="21">
@@ -5536,14 +5550,14 @@
         <v>52</v>
       </c>
       <c r="G20" s="21">
-        <f>+E20-C20</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H20" s="21">
         <v>10</v>
       </c>
       <c r="I20" s="21">
-        <f>B20+G20*H20</f>
+        <f t="shared" si="1"/>
         <v>902</v>
       </c>
       <c r="J20" s="21"/>
@@ -5551,37 +5565,37 @@
         <v>0</v>
       </c>
       <c r="L20" s="21">
-        <f>902+K20*10</f>
+        <f t="shared" si="9"/>
         <v>902</v>
       </c>
       <c r="M20" s="21">
-        <f>I20+L20</f>
+        <f t="shared" si="3"/>
         <v>1804</v>
       </c>
       <c r="N20" s="21">
         <v>1804</v>
       </c>
       <c r="O20" s="21">
-        <f>M20-N20</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q20" s="21">
         <v>55.7</v>
       </c>
       <c r="R20" s="21">
-        <f>Q20-F20</f>
+        <f t="shared" si="6"/>
         <v>3.7000000000000028</v>
       </c>
       <c r="S20" s="21">
-        <f>P20+(R20*10)</f>
+        <f t="shared" si="7"/>
         <v>783.56338028169012</v>
       </c>
       <c r="T20" s="21">
-        <f>ROUND(O20+S20,0)</f>
+        <f t="shared" si="8"/>
         <v>784</v>
       </c>
       <c r="U20" s="21">
@@ -5608,14 +5622,14 @@
         <v>3243.2</v>
       </c>
       <c r="G21" s="21">
-        <f>+E21-C21</f>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="H21" s="21">
         <v>10</v>
       </c>
       <c r="I21" s="21">
-        <f>B21+G21*H21</f>
+        <f t="shared" si="1"/>
         <v>2102</v>
       </c>
       <c r="J21" s="21"/>
@@ -5624,37 +5638,37 @@
         <v>193.19999999999982</v>
       </c>
       <c r="L21" s="21">
-        <f>902+K21*10</f>
+        <f t="shared" si="9"/>
         <v>2833.9999999999982</v>
       </c>
       <c r="M21" s="21">
-        <f>I21+L21</f>
+        <f t="shared" si="3"/>
         <v>4935.9999999999982</v>
       </c>
       <c r="N21" s="21">
         <v>2102</v>
       </c>
       <c r="O21" s="21">
-        <f>M21-N21</f>
+        <f t="shared" si="4"/>
         <v>2833.9999999999982</v>
       </c>
       <c r="P21" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q21" s="21">
         <v>3508.9</v>
       </c>
       <c r="R21" s="21">
-        <f>Q21-F21</f>
+        <f t="shared" si="6"/>
         <v>265.70000000000027</v>
       </c>
       <c r="S21" s="21">
-        <f>P21+(R21*10)</f>
+        <f t="shared" si="7"/>
         <v>3403.5633802816928</v>
       </c>
       <c r="T21" s="21">
-        <f>ROUND(O21+S21,0)</f>
+        <f t="shared" si="8"/>
         <v>6238</v>
       </c>
       <c r="U21" s="21"/>
@@ -5679,14 +5693,14 @@
         <v>22.9</v>
       </c>
       <c r="G22" s="21">
-        <f>+E22-C22</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H22" s="21">
         <v>10</v>
       </c>
       <c r="I22" s="21">
-        <f>B22+G22*H22</f>
+        <f t="shared" si="1"/>
         <v>902</v>
       </c>
       <c r="J22" s="21"/>
@@ -5695,37 +5709,37 @@
         <v>10.899999999999999</v>
       </c>
       <c r="L22" s="21">
-        <f>902+K22*10</f>
+        <f t="shared" si="9"/>
         <v>1011</v>
       </c>
       <c r="M22" s="21">
-        <f>I22+L22</f>
+        <f t="shared" si="3"/>
         <v>1913</v>
       </c>
       <c r="N22" s="21">
         <v>1913</v>
       </c>
       <c r="O22" s="21">
-        <f>M22-N22</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q22" s="21">
         <v>31.5</v>
       </c>
       <c r="R22" s="21">
-        <f>Q22-F22</f>
+        <f t="shared" si="6"/>
         <v>8.6000000000000014</v>
       </c>
       <c r="S22" s="21">
-        <f>P22+(R22*10)</f>
+        <f t="shared" si="7"/>
         <v>832.56338028169012</v>
       </c>
       <c r="T22" s="21">
-        <f>ROUND(O22+S22,0)</f>
+        <f t="shared" si="8"/>
         <v>833</v>
       </c>
       <c r="U22" s="21"/>
@@ -5750,14 +5764,14 @@
         <v>882</v>
       </c>
       <c r="G23" s="21">
-        <f>+E23-C23</f>
+        <f t="shared" si="10"/>
         <v>115</v>
       </c>
       <c r="H23" s="21">
         <v>10</v>
       </c>
       <c r="I23" s="21">
-        <f>B23+G23*H23</f>
+        <f t="shared" si="1"/>
         <v>2052</v>
       </c>
       <c r="J23" s="21"/>
@@ -5766,35 +5780,35 @@
         <v>102</v>
       </c>
       <c r="L23" s="21">
-        <f>902+K23*10</f>
+        <f t="shared" si="9"/>
         <v>1922</v>
       </c>
       <c r="M23" s="21">
-        <f>I23+L23</f>
+        <f t="shared" si="3"/>
         <v>3974</v>
       </c>
       <c r="N23" s="21"/>
       <c r="O23" s="21">
-        <f>M23-N23</f>
+        <f t="shared" si="4"/>
         <v>3974</v>
       </c>
       <c r="P23" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q23" s="21">
         <v>1054.3</v>
       </c>
       <c r="R23" s="21">
-        <f>Q23-F23</f>
+        <f t="shared" si="6"/>
         <v>172.29999999999995</v>
       </c>
       <c r="S23" s="21">
-        <f>P23+(R23*10)</f>
+        <f t="shared" si="7"/>
         <v>2469.5633802816897</v>
       </c>
       <c r="T23" s="21">
-        <f>ROUND(O23+S23,0)</f>
+        <f t="shared" si="8"/>
         <v>6444</v>
       </c>
       <c r="U23" s="21"/>
@@ -5819,14 +5833,14 @@
         <v>24.1</v>
       </c>
       <c r="G24" s="21">
-        <f>+E24-C24</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H24" s="21">
         <v>10</v>
       </c>
       <c r="I24" s="21">
-        <f>B24+G24*H24</f>
+        <f t="shared" si="1"/>
         <v>902</v>
       </c>
       <c r="J24" s="21"/>
@@ -5834,35 +5848,35 @@
         <v>0</v>
       </c>
       <c r="L24" s="21">
-        <f>902+K24*10</f>
+        <f t="shared" si="9"/>
         <v>902</v>
       </c>
       <c r="M24" s="21">
-        <f>I24+L24</f>
+        <f t="shared" si="3"/>
         <v>1804</v>
       </c>
       <c r="N24" s="21"/>
       <c r="O24" s="21">
-        <f>M24-N24</f>
+        <f t="shared" si="4"/>
         <v>1804</v>
       </c>
       <c r="P24" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q24" s="21">
         <v>25.6</v>
       </c>
       <c r="R24" s="21">
-        <f>Q24-F24</f>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="S24" s="21">
-        <f>P24+(R24*10)</f>
+        <f t="shared" si="7"/>
         <v>761.56338028169012</v>
       </c>
       <c r="T24" s="21">
-        <f>ROUND(O24+S24,0)</f>
+        <f t="shared" si="8"/>
         <v>2566</v>
       </c>
       <c r="U24" s="21"/>
@@ -5887,53 +5901,53 @@
         <v>4859.6000000000004</v>
       </c>
       <c r="G25" s="21">
-        <f>+E25-C25</f>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="H25" s="21">
         <v>10</v>
       </c>
       <c r="I25" s="21">
-        <f>B25+G25*H25</f>
+        <f t="shared" si="1"/>
         <v>3302</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="21">
-        <f>F25-E25</f>
+        <f t="shared" ref="K25:K30" si="11">F25-E25</f>
         <v>259.60000000000036</v>
       </c>
       <c r="L25" s="21">
-        <f>902+K25*10</f>
+        <f t="shared" si="9"/>
         <v>3498.0000000000036</v>
       </c>
       <c r="M25" s="21">
-        <f>I25+L25</f>
+        <f t="shared" si="3"/>
         <v>6800.0000000000036</v>
       </c>
       <c r="N25" s="21">
         <v>6800</v>
       </c>
       <c r="O25" s="21">
-        <f>M25-N25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P25" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q25" s="21">
         <v>5314.8</v>
       </c>
       <c r="R25" s="21">
-        <f>Q25-F25</f>
+        <f t="shared" si="6"/>
         <v>455.19999999999982</v>
       </c>
       <c r="S25" s="21">
-        <f>P25+(R25*10)</f>
+        <f t="shared" si="7"/>
         <v>5298.5633802816883</v>
       </c>
       <c r="T25" s="21">
-        <f>ROUND(O25+S25,0)</f>
+        <f t="shared" si="8"/>
         <v>5299</v>
       </c>
       <c r="U25" s="21">
@@ -5960,51 +5974,51 @@
         <v>34</v>
       </c>
       <c r="G26" s="21">
-        <f>+E26-C26</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H26" s="21">
         <v>10</v>
       </c>
       <c r="I26" s="21">
-        <f>B26+G26*H26</f>
+        <f t="shared" si="1"/>
         <v>902</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="21">
-        <f>F26-E26</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="L26" s="21">
-        <f>902+K26*10</f>
+        <f t="shared" si="9"/>
         <v>922</v>
       </c>
       <c r="M26" s="21">
-        <f>I26+L26</f>
+        <f t="shared" si="3"/>
         <v>1824</v>
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="21">
-        <f>M26-N26</f>
+        <f t="shared" si="4"/>
         <v>1824</v>
       </c>
       <c r="P26" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q26" s="21">
         <v>29.9</v>
       </c>
       <c r="R26" s="21">
-        <f>Q26-F26</f>
+        <f t="shared" si="6"/>
         <v>-4.1000000000000014</v>
       </c>
       <c r="S26" s="21">
-        <f>P26+(R26*10)</f>
+        <f t="shared" si="7"/>
         <v>705.56338028169012</v>
       </c>
       <c r="T26" s="21">
-        <f>ROUND(O26+S26,0)</f>
+        <f t="shared" si="8"/>
         <v>2530</v>
       </c>
       <c r="U26" s="21"/>
@@ -6029,53 +6043,53 @@
         <v>30.2</v>
       </c>
       <c r="G27" s="21">
-        <f>+E27-C27</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H27" s="21">
         <v>10</v>
       </c>
       <c r="I27" s="21">
-        <f>B27+G27*H27</f>
+        <f t="shared" si="1"/>
         <v>962</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="21">
-        <f>F27-E27</f>
+        <f t="shared" si="11"/>
         <v>10.199999999999999</v>
       </c>
       <c r="L27" s="21">
-        <f>902+K27*10</f>
+        <f t="shared" si="9"/>
         <v>1004</v>
       </c>
       <c r="M27" s="21">
-        <f>I27+L27</f>
+        <f t="shared" si="3"/>
         <v>1966</v>
       </c>
       <c r="N27" s="21">
         <v>1966</v>
       </c>
       <c r="O27" s="21">
-        <f>M27-N27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P27" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q27" s="21">
         <v>35.200000000000003</v>
       </c>
       <c r="R27" s="21">
-        <f>Q27-F27</f>
+        <f t="shared" si="6"/>
         <v>5.0000000000000036</v>
       </c>
       <c r="S27" s="21">
-        <f>P27+(R27*10)</f>
+        <f t="shared" si="7"/>
         <v>796.56338028169012</v>
       </c>
       <c r="T27" s="21">
-        <f>ROUND(O27+S27,0)</f>
+        <f t="shared" si="8"/>
         <v>797</v>
       </c>
       <c r="U27" s="21">
@@ -6102,51 +6116,51 @@
         <v>1028.5999999999999</v>
       </c>
       <c r="G28" s="21">
-        <f>+E28-C28</f>
+        <f t="shared" si="10"/>
         <v>275</v>
       </c>
       <c r="H28" s="21">
         <v>10</v>
       </c>
       <c r="I28" s="21">
-        <f>B28+G28*H28</f>
+        <f t="shared" si="1"/>
         <v>3652</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="21">
-        <f>F28-E28</f>
+        <f t="shared" si="11"/>
         <v>203.59999999999991</v>
       </c>
       <c r="L28" s="21">
-        <f>902+K28*10</f>
+        <f t="shared" si="9"/>
         <v>2937.9999999999991</v>
       </c>
       <c r="M28" s="21">
-        <f>I28+L28</f>
+        <f t="shared" si="3"/>
         <v>6589.9999999999991</v>
       </c>
       <c r="N28" s="21"/>
       <c r="O28" s="21">
-        <f>M28-N28</f>
+        <f t="shared" si="4"/>
         <v>6589.9999999999991</v>
       </c>
       <c r="P28" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q28" s="21">
         <v>1400.5</v>
       </c>
       <c r="R28" s="21">
-        <f>Q28-F28</f>
+        <f t="shared" si="6"/>
         <v>371.90000000000009</v>
       </c>
       <c r="S28" s="21">
-        <f>P28+(R28*10)</f>
+        <f t="shared" si="7"/>
         <v>4465.563380281691</v>
       </c>
       <c r="T28" s="21">
-        <f>ROUND(O28+S28,0)</f>
+        <f t="shared" si="8"/>
         <v>11056</v>
       </c>
       <c r="U28" s="21"/>
@@ -6171,53 +6185,53 @@
         <v>194.8</v>
       </c>
       <c r="G29" s="21">
-        <f>+E29-C29</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="H29" s="21">
         <v>10</v>
       </c>
       <c r="I29" s="21">
-        <f>B29+G29*H29</f>
+        <f t="shared" si="1"/>
         <v>1012</v>
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="21">
-        <f>F29-E29</f>
+        <f t="shared" si="11"/>
         <v>156.80000000000001</v>
       </c>
       <c r="L29" s="21">
-        <f>902+K29*10</f>
+        <f t="shared" si="9"/>
         <v>2470</v>
       </c>
       <c r="M29" s="21">
-        <f>I29+L29</f>
+        <f t="shared" si="3"/>
         <v>3482</v>
       </c>
       <c r="N29" s="21">
         <v>3482</v>
       </c>
       <c r="O29" s="21">
-        <f>M29-N29</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P29" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q29" s="65">
         <v>1228</v>
       </c>
       <c r="R29" s="21">
-        <f>Q29-F29</f>
+        <f t="shared" si="6"/>
         <v>1033.2</v>
       </c>
       <c r="S29" s="21">
-        <f>P29+(R29*10)</f>
+        <f t="shared" si="7"/>
         <v>11078.56338028169</v>
       </c>
       <c r="T29" s="21">
-        <f>ROUND(O29+S29,0)</f>
+        <f t="shared" si="8"/>
         <v>11079</v>
       </c>
       <c r="U29" s="21">
@@ -6244,53 +6258,53 @@
         <v>2600.6</v>
       </c>
       <c r="G30" s="21">
-        <f>+E30-C30</f>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="H30" s="21">
         <v>10</v>
       </c>
       <c r="I30" s="21">
-        <f>B30+G30*H30</f>
+        <f t="shared" si="1"/>
         <v>3152</v>
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="21">
-        <f>F30-E30</f>
+        <f t="shared" si="11"/>
         <v>250.59999999999991</v>
       </c>
       <c r="L30" s="21">
-        <f>902+K30*10</f>
+        <f t="shared" si="9"/>
         <v>3407.9999999999991</v>
       </c>
       <c r="M30" s="21">
-        <f>I30+L30</f>
+        <f t="shared" si="3"/>
         <v>6559.9999999999991</v>
       </c>
       <c r="N30" s="21">
         <v>6560</v>
       </c>
       <c r="O30" s="21">
-        <f>M30-N30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P30" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q30" s="21">
         <v>2885.6</v>
       </c>
       <c r="R30" s="21">
-        <f>Q30-F30</f>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="S30" s="21">
-        <f>P30+(R30*10)</f>
+        <f t="shared" si="7"/>
         <v>3596.5633802816901</v>
       </c>
       <c r="T30" s="21">
-        <f>ROUND(O30+S30,0)</f>
+        <f t="shared" si="8"/>
         <v>3597</v>
       </c>
       <c r="U30" s="21">
@@ -6317,14 +6331,14 @@
         <v>128.9</v>
       </c>
       <c r="G31" s="21">
-        <f>+E31-C31</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H31" s="21">
         <v>10</v>
       </c>
       <c r="I31" s="21">
-        <f>B31+G31*H31</f>
+        <f t="shared" si="1"/>
         <v>902</v>
       </c>
       <c r="J31" s="21"/>
@@ -6332,35 +6346,35 @@
         <v>0</v>
       </c>
       <c r="L31" s="21">
-        <f>902+K31*10</f>
+        <f t="shared" si="9"/>
         <v>902</v>
       </c>
       <c r="M31" s="21">
-        <f>I31+L31</f>
+        <f t="shared" si="3"/>
         <v>1804</v>
       </c>
       <c r="N31" s="21"/>
       <c r="O31" s="21">
-        <f>M31-N31</f>
+        <f t="shared" si="4"/>
         <v>1804</v>
       </c>
       <c r="P31" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q31" s="21">
         <v>128.9</v>
       </c>
       <c r="R31" s="21">
-        <f>Q31-F31</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S31" s="21">
-        <f>P31+(R31*10)</f>
+        <f t="shared" si="7"/>
         <v>746.56338028169012</v>
       </c>
       <c r="T31" s="21">
-        <f>ROUND(O31+S31,0)</f>
+        <f t="shared" si="8"/>
         <v>2551</v>
       </c>
       <c r="U31" s="21">
@@ -6393,7 +6407,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="21">
-        <f>B32+G32*H32</f>
+        <f t="shared" si="1"/>
         <v>902</v>
       </c>
       <c r="J32" s="21"/>
@@ -6402,35 +6416,35 @@
         <v>6.1</v>
       </c>
       <c r="L32" s="21">
-        <f>902+K32*10</f>
+        <f t="shared" si="9"/>
         <v>963</v>
       </c>
       <c r="M32" s="21">
-        <f>I32+L32</f>
+        <f t="shared" si="3"/>
         <v>1865</v>
       </c>
       <c r="N32" s="21"/>
       <c r="O32" s="21">
-        <f>M32-N32</f>
+        <f t="shared" si="4"/>
         <v>1865</v>
       </c>
       <c r="P32" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q32" s="21">
         <v>6.1</v>
       </c>
       <c r="R32" s="21">
-        <f>Q32-F32</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S32" s="21">
-        <f>P32+(R32*10)</f>
+        <f t="shared" si="7"/>
         <v>746.56338028169012</v>
       </c>
       <c r="T32" s="21">
-        <f>ROUND(O32+S32,0)</f>
+        <f t="shared" si="8"/>
         <v>2612</v>
       </c>
       <c r="U32" s="21">
@@ -6463,7 +6477,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="21">
-        <f>B33+G33*H33</f>
+        <f t="shared" si="1"/>
         <v>902</v>
       </c>
       <c r="J33" s="21"/>
@@ -6471,35 +6485,35 @@
         <v>0</v>
       </c>
       <c r="L33" s="21">
-        <f>902+K33*10</f>
+        <f t="shared" si="9"/>
         <v>902</v>
       </c>
       <c r="M33" s="21">
-        <f>I33+L33</f>
+        <f t="shared" si="3"/>
         <v>1804</v>
       </c>
       <c r="N33" s="21"/>
       <c r="O33" s="21">
-        <f>M33-N33</f>
+        <f t="shared" si="4"/>
         <v>1804</v>
       </c>
       <c r="P33" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q33" s="21">
         <v>75.2</v>
       </c>
       <c r="R33" s="21">
-        <f>Q33-F33</f>
+        <f t="shared" si="6"/>
         <v>1.2999999999999972</v>
       </c>
       <c r="S33" s="21">
-        <f>P33+(R33*10)</f>
+        <f t="shared" si="7"/>
         <v>759.56338028169012</v>
       </c>
       <c r="T33" s="21">
-        <f>ROUND(O33+S33,0)</f>
+        <f t="shared" si="8"/>
         <v>2564</v>
       </c>
       <c r="U33" s="21">
@@ -6532,7 +6546,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="21">
-        <f>B34+G34*H34</f>
+        <f t="shared" ref="I34:I65" si="12">B34+G34*H34</f>
         <v>902</v>
       </c>
       <c r="J34" s="21"/>
@@ -6541,38 +6555,40 @@
         <v>0</v>
       </c>
       <c r="L34" s="21">
-        <f>902+K34*10</f>
+        <f t="shared" si="9"/>
         <v>902</v>
       </c>
       <c r="M34" s="21">
-        <f>I34+L34</f>
+        <f t="shared" ref="M34:M65" si="13">I34+L34</f>
         <v>1804</v>
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21">
-        <f>M34-N34</f>
+        <f t="shared" ref="O34:O65" si="14">M34-N34</f>
         <v>1804</v>
       </c>
       <c r="P34" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" ref="P34:P65" si="15">(49275+3731)/71</f>
         <v>746.56338028169012</v>
       </c>
       <c r="Q34" s="21">
         <v>7</v>
       </c>
       <c r="R34" s="21">
-        <f>Q34-F34</f>
+        <f t="shared" ref="R34:R65" si="16">Q34-F34</f>
         <v>-11</v>
       </c>
       <c r="S34" s="21">
-        <f>P34+(R34*10)</f>
+        <f t="shared" ref="S34:S65" si="17">P34+(R34*10)</f>
         <v>636.56338028169012</v>
       </c>
       <c r="T34" s="21">
-        <f>ROUND(O34+S34,0)</f>
+        <f t="shared" ref="T34:T65" si="18">ROUND(O34+S34,0)</f>
         <v>2441</v>
       </c>
-      <c r="U34" s="21"/>
+      <c r="U34" s="21">
+        <v>2441</v>
+      </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
@@ -6594,14 +6610,14 @@
         <v>920.8</v>
       </c>
       <c r="G35" s="21">
-        <f>+E35-C35</f>
+        <f t="shared" ref="G35:G72" si="19">+E35-C35</f>
         <v>210</v>
       </c>
       <c r="H35" s="21">
         <v>10</v>
       </c>
       <c r="I35" s="21">
-        <f>B35+G35*H35</f>
+        <f t="shared" si="12"/>
         <v>3002</v>
       </c>
       <c r="J35" s="21"/>
@@ -6610,37 +6626,37 @@
         <v>220.79999999999995</v>
       </c>
       <c r="L35" s="21">
-        <f>902+K35*10</f>
+        <f t="shared" si="9"/>
         <v>3109.9999999999995</v>
       </c>
       <c r="M35" s="21">
-        <f>I35+L35</f>
+        <f t="shared" si="13"/>
         <v>6112</v>
       </c>
       <c r="N35" s="21">
         <v>6112</v>
       </c>
       <c r="O35" s="21">
-        <f>M35-N35</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P35" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q35" s="21">
         <v>1145.0999999999999</v>
       </c>
       <c r="R35" s="21">
-        <f>Q35-F35</f>
+        <f t="shared" si="16"/>
         <v>224.29999999999995</v>
       </c>
       <c r="S35" s="21">
-        <f>P35+(R35*10)</f>
+        <f t="shared" si="17"/>
         <v>2989.5633802816897</v>
       </c>
       <c r="T35" s="21">
-        <f>ROUND(O35+S35,0)</f>
+        <f t="shared" si="18"/>
         <v>2990</v>
       </c>
       <c r="U35" s="21"/>
@@ -6665,14 +6681,14 @@
         <v>1.5</v>
       </c>
       <c r="G36" s="21">
-        <f>+E36-C36</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H36" s="21">
         <v>10</v>
       </c>
       <c r="I36" s="21">
-        <f>B36+G36*H36</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J36" s="21"/>
@@ -6681,35 +6697,35 @@
         <v>0.5</v>
       </c>
       <c r="L36" s="21">
-        <f>902+K36*10</f>
+        <f t="shared" si="9"/>
         <v>907</v>
       </c>
       <c r="M36" s="21">
-        <f>I36+L36</f>
+        <f t="shared" si="13"/>
         <v>1809</v>
       </c>
       <c r="N36" s="21"/>
       <c r="O36" s="21">
-        <f>M36-N36</f>
+        <f t="shared" si="14"/>
         <v>1809</v>
       </c>
       <c r="P36" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q36" s="21">
         <v>1.5</v>
       </c>
       <c r="R36" s="21">
-        <f>Q36-F36</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S36" s="21">
-        <f>P36+(R36*10)</f>
+        <f t="shared" si="17"/>
         <v>746.56338028169012</v>
       </c>
       <c r="T36" s="21">
-        <f>ROUND(O36+S36,0)</f>
+        <f t="shared" si="18"/>
         <v>2556</v>
       </c>
       <c r="U36" s="21">
@@ -6736,14 +6752,14 @@
         <v>6.3</v>
       </c>
       <c r="G37" s="21">
-        <f>+E37-C37</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H37" s="21">
         <v>10</v>
       </c>
       <c r="I37" s="21">
-        <f>B37+G37*H37</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J37" s="21"/>
@@ -6752,35 +6768,35 @@
         <v>5.3</v>
       </c>
       <c r="L37" s="21">
-        <f>902+K37*10</f>
+        <f t="shared" ref="L37:L68" si="20">902+K37*10</f>
         <v>955</v>
       </c>
       <c r="M37" s="21">
-        <f>I37+L37</f>
+        <f t="shared" si="13"/>
         <v>1857</v>
       </c>
       <c r="N37" s="21"/>
       <c r="O37" s="21">
-        <f>M37-N37</f>
+        <f t="shared" si="14"/>
         <v>1857</v>
       </c>
       <c r="P37" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q37" s="21">
         <v>6.3</v>
       </c>
       <c r="R37" s="21">
-        <f>Q37-F37</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S37" s="21">
-        <f>P37+(R37*10)</f>
+        <f t="shared" si="17"/>
         <v>746.56338028169012</v>
       </c>
       <c r="T37" s="21">
-        <f>ROUND(O37+S37,0)</f>
+        <f t="shared" si="18"/>
         <v>2604</v>
       </c>
       <c r="U37" s="21"/>
@@ -6805,14 +6821,14 @@
         <v>1.2</v>
       </c>
       <c r="G38" s="21">
-        <f>+E38-C38</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H38" s="21">
         <v>10</v>
       </c>
       <c r="I38" s="21">
-        <f>B38+G38*H38</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J38" s="21"/>
@@ -6821,37 +6837,37 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="L38" s="21">
-        <f>902+K38*10</f>
+        <f t="shared" si="20"/>
         <v>904</v>
       </c>
       <c r="M38" s="21">
-        <f>I38+L38</f>
+        <f t="shared" si="13"/>
         <v>1806</v>
       </c>
       <c r="N38" s="21">
         <v>1806</v>
       </c>
       <c r="O38" s="21">
-        <f>M38-N38</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P38" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q38" s="21">
         <v>1.2</v>
       </c>
       <c r="R38" s="21">
-        <f>Q38-F38</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S38" s="21">
-        <f>P38+(R38*10)</f>
+        <f t="shared" si="17"/>
         <v>746.56338028169012</v>
       </c>
       <c r="T38" s="21">
-        <f>ROUND(O38+S38,0)</f>
+        <f t="shared" si="18"/>
         <v>747</v>
       </c>
       <c r="U38" s="21">
@@ -6878,14 +6894,14 @@
         <v>132.6</v>
       </c>
       <c r="G39" s="21">
-        <f>+E39-C39</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H39" s="21">
         <v>10</v>
       </c>
       <c r="I39" s="21">
-        <f>B39+G39*H39</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J39" s="21"/>
@@ -6893,35 +6909,35 @@
         <v>0</v>
       </c>
       <c r="L39" s="21">
-        <f>902+K39*10</f>
+        <f t="shared" si="20"/>
         <v>902</v>
       </c>
       <c r="M39" s="21">
-        <f>I39+L39</f>
+        <f t="shared" si="13"/>
         <v>1804</v>
       </c>
       <c r="N39" s="21"/>
       <c r="O39" s="21">
-        <f>M39-N39</f>
+        <f t="shared" si="14"/>
         <v>1804</v>
       </c>
       <c r="P39" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q39" s="21">
         <v>132.6</v>
       </c>
       <c r="R39" s="21">
-        <f>Q39-F39</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S39" s="21">
-        <f>P39+(R39*10)</f>
+        <f t="shared" si="17"/>
         <v>746.56338028169012</v>
       </c>
       <c r="T39" s="21">
-        <f>ROUND(O39+S39,0)</f>
+        <f t="shared" si="18"/>
         <v>2551</v>
       </c>
       <c r="U39" s="21">
@@ -6948,14 +6964,14 @@
         <v>49.5</v>
       </c>
       <c r="G40" s="21">
-        <f>+E40-C40</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H40" s="21">
         <v>10</v>
       </c>
       <c r="I40" s="21">
-        <f>B40+G40*H40</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J40" s="21"/>
@@ -6963,37 +6979,37 @@
         <v>0</v>
       </c>
       <c r="L40" s="21">
-        <f>902+K40*10</f>
+        <f t="shared" si="20"/>
         <v>902</v>
       </c>
       <c r="M40" s="21">
-        <f>I40+L40</f>
+        <f t="shared" si="13"/>
         <v>1804</v>
       </c>
       <c r="N40" s="21">
         <v>1804</v>
       </c>
       <c r="O40" s="21">
-        <f>M40-N40</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P40" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q40" s="21">
         <v>53.5</v>
       </c>
       <c r="R40" s="21">
-        <f>Q40-F40</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="S40" s="21">
-        <f>P40+(R40*10)</f>
+        <f t="shared" si="17"/>
         <v>786.56338028169012</v>
       </c>
       <c r="T40" s="21">
-        <f>ROUND(O40+S40,0)</f>
+        <f t="shared" si="18"/>
         <v>787</v>
       </c>
       <c r="U40" s="21"/>
@@ -7018,53 +7034,53 @@
         <v>29.5</v>
       </c>
       <c r="G41" s="21">
-        <f>+E41-C41</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H41" s="21">
         <v>10</v>
       </c>
       <c r="I41" s="21">
-        <f>B41+G41*H41</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="21">
-        <f>F41-E41</f>
+        <f t="shared" ref="K41:K57" si="21">F41-E41</f>
         <v>10.5</v>
       </c>
       <c r="L41" s="21">
-        <f>902+K41*10</f>
+        <f t="shared" si="20"/>
         <v>1007</v>
       </c>
       <c r="M41" s="21">
-        <f>I41+L41</f>
+        <f t="shared" si="13"/>
         <v>1909</v>
       </c>
       <c r="N41" s="21">
         <v>1909</v>
       </c>
       <c r="O41" s="21">
-        <f>M41-N41</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P41" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q41" s="21">
         <v>30.8</v>
       </c>
       <c r="R41" s="21">
-        <f>Q41-F41</f>
+        <f t="shared" si="16"/>
         <v>1.3000000000000007</v>
       </c>
       <c r="S41" s="21">
-        <f>P41+(R41*10)</f>
+        <f t="shared" si="17"/>
         <v>759.56338028169012</v>
       </c>
       <c r="T41" s="21">
-        <f>ROUND(O41+S41,0)</f>
+        <f t="shared" si="18"/>
         <v>760</v>
       </c>
       <c r="U41" s="21"/>
@@ -7089,53 +7105,53 @@
         <v>1228.2</v>
       </c>
       <c r="G42" s="21">
-        <f>+E42-C42</f>
+        <f t="shared" si="19"/>
         <v>55</v>
       </c>
       <c r="H42" s="21">
         <v>10</v>
       </c>
       <c r="I42" s="21">
-        <f>B42+G42*H42</f>
+        <f t="shared" si="12"/>
         <v>1452</v>
       </c>
       <c r="J42" s="21"/>
       <c r="K42" s="21">
-        <f>F42-E42</f>
+        <f t="shared" si="21"/>
         <v>128.20000000000005</v>
       </c>
       <c r="L42" s="21">
-        <f>902+K42*10</f>
+        <f t="shared" si="20"/>
         <v>2184.0000000000005</v>
       </c>
       <c r="M42" s="21">
-        <f>I42+L42</f>
+        <f t="shared" si="13"/>
         <v>3636.0000000000005</v>
       </c>
       <c r="N42" s="21">
         <v>3636</v>
       </c>
       <c r="O42" s="21">
-        <f>M42-N42</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P42" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q42" s="21">
         <v>1341.6</v>
       </c>
       <c r="R42" s="21">
-        <f>Q42-F42</f>
+        <f t="shared" si="16"/>
         <v>113.39999999999986</v>
       </c>
       <c r="S42" s="21">
-        <f>P42+(R42*10)</f>
+        <f t="shared" si="17"/>
         <v>1880.5633802816888</v>
       </c>
       <c r="T42" s="21">
-        <f>ROUND(O42+S42,0)</f>
+        <f t="shared" si="18"/>
         <v>1881</v>
       </c>
       <c r="U42" s="21">
@@ -7162,53 +7178,53 @@
         <v>1121.8</v>
       </c>
       <c r="G43" s="21">
-        <f>+E43-C43</f>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="H43" s="21">
         <v>10</v>
       </c>
       <c r="I43" s="21">
-        <f>B43+G43*H43</f>
+        <f t="shared" si="12"/>
         <v>1552</v>
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="21">
-        <f>F43-E43</f>
+        <f t="shared" si="21"/>
         <v>91.799999999999955</v>
       </c>
       <c r="L43" s="21">
-        <f>902+K43*10</f>
+        <f t="shared" si="20"/>
         <v>1819.9999999999995</v>
       </c>
       <c r="M43" s="21">
-        <f>I43+L43</f>
+        <f t="shared" si="13"/>
         <v>3371.9999999999995</v>
       </c>
       <c r="N43" s="21">
         <v>3372</v>
       </c>
       <c r="O43" s="21">
-        <f>M43-N43</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P43" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q43" s="21">
         <v>1230</v>
       </c>
       <c r="R43" s="21">
-        <f>Q43-F43</f>
+        <f t="shared" si="16"/>
         <v>108.20000000000005</v>
       </c>
       <c r="S43" s="21">
-        <f>P43+(R43*10)</f>
+        <f t="shared" si="17"/>
         <v>1828.5633802816906</v>
       </c>
       <c r="T43" s="21">
-        <f>ROUND(O43+S43,0)</f>
+        <f t="shared" si="18"/>
         <v>1829</v>
       </c>
       <c r="U43" s="21">
@@ -7235,51 +7251,51 @@
         <v>198.6</v>
       </c>
       <c r="G44" s="21">
-        <f>+E44-C44</f>
+        <f t="shared" si="19"/>
         <v>41</v>
       </c>
       <c r="H44" s="21">
         <v>10</v>
       </c>
       <c r="I44" s="21">
-        <f>B44+G44*H44</f>
+        <f t="shared" si="12"/>
         <v>1312</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="21">
-        <f>F44-E44</f>
+        <f t="shared" si="21"/>
         <v>73.599999999999994</v>
       </c>
       <c r="L44" s="21">
-        <f>902+K44*10</f>
+        <f t="shared" si="20"/>
         <v>1638</v>
       </c>
       <c r="M44" s="21">
-        <f>I44+L44</f>
+        <f t="shared" si="13"/>
         <v>2950</v>
       </c>
       <c r="N44" s="21"/>
       <c r="O44" s="21">
-        <f>M44-N44</f>
+        <f t="shared" si="14"/>
         <v>2950</v>
       </c>
       <c r="P44" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q44" s="21">
         <v>346</v>
       </c>
       <c r="R44" s="21">
-        <f>Q44-F44</f>
+        <f t="shared" si="16"/>
         <v>147.4</v>
       </c>
       <c r="S44" s="21">
-        <f>P44+(R44*10)</f>
+        <f t="shared" si="17"/>
         <v>2220.5633802816901</v>
       </c>
       <c r="T44" s="21">
-        <f>ROUND(O44+S44,0)</f>
+        <f t="shared" si="18"/>
         <v>5171</v>
       </c>
       <c r="U44" s="21">
@@ -7306,51 +7322,51 @@
         <v>634.9</v>
       </c>
       <c r="G45" s="21">
-        <f>+E45-C45</f>
+        <f t="shared" si="19"/>
         <v>245</v>
       </c>
       <c r="H45" s="21">
         <v>10</v>
       </c>
       <c r="I45" s="21">
-        <f>B45+G45*H45</f>
+        <f t="shared" si="12"/>
         <v>3352</v>
       </c>
       <c r="J45" s="21"/>
       <c r="K45" s="21">
-        <f>F45-E45</f>
+        <f t="shared" si="21"/>
         <v>334.9</v>
       </c>
       <c r="L45" s="21">
-        <f>902+K45*10</f>
+        <f t="shared" si="20"/>
         <v>4251</v>
       </c>
       <c r="M45" s="21">
-        <f>I45+L45</f>
+        <f t="shared" si="13"/>
         <v>7603</v>
       </c>
       <c r="N45" s="21"/>
       <c r="O45" s="21">
-        <f>M45-N45</f>
+        <f t="shared" si="14"/>
         <v>7603</v>
       </c>
       <c r="P45" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q45" s="21">
         <v>1009</v>
       </c>
       <c r="R45" s="21">
-        <f>Q45-F45</f>
+        <f t="shared" si="16"/>
         <v>374.1</v>
       </c>
       <c r="S45" s="21">
-        <f>P45+(R45*10)</f>
+        <f t="shared" si="17"/>
         <v>4487.5633802816901</v>
       </c>
       <c r="T45" s="21">
-        <f>ROUND(O45+S45,0)</f>
+        <f t="shared" si="18"/>
         <v>12091</v>
       </c>
       <c r="U45" s="21"/>
@@ -7375,51 +7391,51 @@
         <v>510</v>
       </c>
       <c r="G46" s="21">
-        <f>+E46-C46</f>
+        <f t="shared" si="19"/>
         <v>185</v>
       </c>
       <c r="H46" s="21">
         <v>10</v>
       </c>
       <c r="I46" s="21">
-        <f>B46+G46*H46</f>
+        <f t="shared" si="12"/>
         <v>2752</v>
       </c>
       <c r="J46" s="21"/>
       <c r="K46" s="21">
-        <f>F46-E46</f>
+        <f t="shared" si="21"/>
         <v>260</v>
       </c>
       <c r="L46" s="21">
-        <f>902+K46*10</f>
+        <f t="shared" si="20"/>
         <v>3502</v>
       </c>
       <c r="M46" s="21">
-        <f>I46+L46</f>
+        <f t="shared" si="13"/>
         <v>6254</v>
       </c>
       <c r="N46" s="21"/>
       <c r="O46" s="21">
-        <f>M46-N46</f>
+        <f t="shared" si="14"/>
         <v>6254</v>
       </c>
       <c r="P46" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q46" s="21">
         <v>827.9</v>
       </c>
       <c r="R46" s="21">
-        <f>Q46-F46</f>
+        <f t="shared" si="16"/>
         <v>317.89999999999998</v>
       </c>
       <c r="S46" s="21">
-        <f>P46+(R46*10)</f>
+        <f t="shared" si="17"/>
         <v>3925.5633802816901</v>
       </c>
       <c r="T46" s="21">
-        <f>ROUND(O46+S46,0)</f>
+        <f t="shared" si="18"/>
         <v>10180</v>
       </c>
       <c r="U46" s="21"/>
@@ -7444,53 +7460,53 @@
         <v>1684.7</v>
       </c>
       <c r="G47" s="21">
-        <f>+E47-C47</f>
+        <f t="shared" si="19"/>
         <v>130</v>
       </c>
       <c r="H47" s="21">
         <v>10</v>
       </c>
       <c r="I47" s="21">
-        <f>B47+G47*H47</f>
+        <f t="shared" si="12"/>
         <v>2202</v>
       </c>
       <c r="J47" s="21"/>
       <c r="K47" s="21">
-        <f>F47-E47</f>
+        <f t="shared" si="21"/>
         <v>234.70000000000005</v>
       </c>
       <c r="L47" s="21">
-        <f>902+K47*10</f>
+        <f t="shared" si="20"/>
         <v>3249.0000000000005</v>
       </c>
       <c r="M47" s="21">
-        <f>I47+L47</f>
+        <f t="shared" si="13"/>
         <v>5451</v>
       </c>
       <c r="N47" s="22">
         <v>1225</v>
       </c>
       <c r="O47" s="21">
-        <f>M47-N47</f>
+        <f t="shared" si="14"/>
         <v>4226</v>
       </c>
       <c r="P47" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q47" s="21">
         <v>1960</v>
       </c>
       <c r="R47" s="21">
-        <f>Q47-F47</f>
+        <f t="shared" si="16"/>
         <v>275.29999999999995</v>
       </c>
       <c r="S47" s="21">
-        <f>P47+(R47*10)</f>
+        <f t="shared" si="17"/>
         <v>3499.5633802816897</v>
       </c>
       <c r="T47" s="21">
-        <f>ROUND(O47+S47,0)</f>
+        <f t="shared" si="18"/>
         <v>7726</v>
       </c>
       <c r="U47" s="21"/>
@@ -7515,53 +7531,53 @@
         <v>6.7</v>
       </c>
       <c r="G48" s="21">
-        <f>+E48-C48</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="H48" s="21">
         <v>10</v>
       </c>
       <c r="I48" s="21">
-        <f>B48+G48*H48</f>
+        <f t="shared" si="12"/>
         <v>962</v>
       </c>
       <c r="J48" s="21"/>
       <c r="K48" s="21">
-        <f>F48-E48</f>
+        <f t="shared" si="21"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="L48" s="21">
-        <f>902+K48*10</f>
+        <f t="shared" si="20"/>
         <v>909</v>
       </c>
       <c r="M48" s="21">
-        <f>I48+L48</f>
+        <f t="shared" si="13"/>
         <v>1871</v>
       </c>
       <c r="N48" s="21">
         <v>1871</v>
       </c>
       <c r="O48" s="21">
-        <f>M48-N48</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P48" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q48" s="21">
         <v>8.3000000000000007</v>
       </c>
       <c r="R48" s="21">
-        <f>Q48-F48</f>
+        <f t="shared" si="16"/>
         <v>1.6000000000000005</v>
       </c>
       <c r="S48" s="21">
-        <f>P48+(R48*10)</f>
+        <f t="shared" si="17"/>
         <v>762.56338028169012</v>
       </c>
       <c r="T48" s="21">
-        <f>ROUND(O48+S48,0)</f>
+        <f t="shared" si="18"/>
         <v>763</v>
       </c>
       <c r="U48" s="21"/>
@@ -7586,51 +7602,51 @@
         <v>10.5</v>
       </c>
       <c r="G49" s="21">
-        <f>+E49-C49</f>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="H49" s="21">
         <v>10</v>
       </c>
       <c r="I49" s="21">
-        <f>B49+G49*H49</f>
+        <f t="shared" si="12"/>
         <v>992</v>
       </c>
       <c r="J49" s="21"/>
       <c r="K49" s="21">
-        <f>F49-E49</f>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="L49" s="21">
-        <f>902+K49*10</f>
+        <f t="shared" si="20"/>
         <v>917</v>
       </c>
       <c r="M49" s="21">
-        <f>I49+L49</f>
+        <f t="shared" si="13"/>
         <v>1909</v>
       </c>
       <c r="N49" s="21"/>
       <c r="O49" s="21">
-        <f>M49-N49</f>
+        <f t="shared" si="14"/>
         <v>1909</v>
       </c>
       <c r="P49" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q49" s="21">
         <v>12.1</v>
       </c>
       <c r="R49" s="21">
-        <f>Q49-F49</f>
+        <f t="shared" si="16"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="S49" s="21">
-        <f>P49+(R49*10)</f>
+        <f t="shared" si="17"/>
         <v>762.56338028169012</v>
       </c>
       <c r="T49" s="21">
-        <f>ROUND(O49+S49,0)</f>
+        <f t="shared" si="18"/>
         <v>2672</v>
       </c>
       <c r="U49" s="21"/>
@@ -7655,53 +7671,53 @@
         <v>7</v>
       </c>
       <c r="G50" s="21">
-        <f>+E50-C50</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H50" s="21">
         <v>10</v>
       </c>
       <c r="I50" s="21">
-        <f>B50+G50*H50</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="21">
-        <f>F50-E50</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="L50" s="21">
-        <f>902+K50*10</f>
+        <f t="shared" si="20"/>
         <v>972</v>
       </c>
       <c r="M50" s="21">
-        <f>I50+L50</f>
+        <f t="shared" si="13"/>
         <v>1874</v>
       </c>
       <c r="N50" s="21">
         <v>1874</v>
       </c>
       <c r="O50" s="21">
-        <f>M50-N50</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P50" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q50" s="21">
         <v>8.6999999999999993</v>
       </c>
       <c r="R50" s="21">
-        <f>Q50-F50</f>
+        <f t="shared" si="16"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="S50" s="21">
-        <f>P50+(R50*10)</f>
+        <f t="shared" si="17"/>
         <v>763.56338028169012</v>
       </c>
       <c r="T50" s="21">
-        <f>ROUND(O50+S50,0)</f>
+        <f t="shared" si="18"/>
         <v>764</v>
       </c>
       <c r="U50" s="21">
@@ -7728,51 +7744,51 @@
         <v>61.6</v>
       </c>
       <c r="G51" s="21">
-        <f>+E51-C51</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H51" s="21">
         <v>10</v>
       </c>
       <c r="I51" s="21">
-        <f>B51+G51*H51</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21">
-        <f>F51-E51</f>
+        <f t="shared" si="21"/>
         <v>8.6000000000000014</v>
       </c>
       <c r="L51" s="21">
-        <f>902+K51*10</f>
+        <f t="shared" si="20"/>
         <v>988</v>
       </c>
       <c r="M51" s="21">
-        <f>I51+L51</f>
+        <f t="shared" si="13"/>
         <v>1890</v>
       </c>
       <c r="N51" s="21"/>
       <c r="O51" s="21">
-        <f>M51-N51</f>
+        <f t="shared" si="14"/>
         <v>1890</v>
       </c>
       <c r="P51" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q51" s="21">
         <v>66.099999999999994</v>
       </c>
       <c r="R51" s="21">
-        <f>Q51-F51</f>
+        <f t="shared" si="16"/>
         <v>4.4999999999999929</v>
       </c>
       <c r="S51" s="21">
-        <f>P51+(R51*10)</f>
+        <f t="shared" si="17"/>
         <v>791.56338028169</v>
       </c>
       <c r="T51" s="21">
-        <f>ROUND(O51+S51,0)</f>
+        <f t="shared" si="18"/>
         <v>2682</v>
       </c>
       <c r="U51" s="21"/>
@@ -7797,51 +7813,51 @@
         <v>48</v>
       </c>
       <c r="G52" s="21">
-        <f>+E52-C52</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H52" s="21">
         <v>10</v>
       </c>
       <c r="I52" s="21">
-        <f>B52+G52*H52</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J52" s="21"/>
       <c r="K52" s="21">
-        <f>F52-E52</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="L52" s="21">
-        <f>902+K52*10</f>
+        <f t="shared" si="20"/>
         <v>972</v>
       </c>
       <c r="M52" s="21">
-        <f>I52+L52</f>
+        <f t="shared" si="13"/>
         <v>1874</v>
       </c>
       <c r="N52" s="21"/>
       <c r="O52" s="21">
-        <f>M52-N52</f>
+        <f t="shared" si="14"/>
         <v>1874</v>
       </c>
       <c r="P52" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q52" s="21">
         <v>52.1</v>
       </c>
       <c r="R52" s="21">
-        <f>Q52-F52</f>
+        <f t="shared" si="16"/>
         <v>4.1000000000000014</v>
       </c>
       <c r="S52" s="21">
-        <f>P52+(R52*10)</f>
+        <f t="shared" si="17"/>
         <v>787.56338028169012</v>
       </c>
       <c r="T52" s="21">
-        <f>ROUND(O52+S52,0)</f>
+        <f t="shared" si="18"/>
         <v>2662</v>
       </c>
       <c r="U52" s="21">
@@ -7868,53 +7884,53 @@
         <v>8.4</v>
       </c>
       <c r="G53" s="21">
-        <f>+E53-C53</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H53" s="21">
         <v>10</v>
       </c>
       <c r="I53" s="21">
-        <f>B53+G53*H53</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="21">
-        <f>F53-E53</f>
+        <f t="shared" si="21"/>
         <v>8.4</v>
       </c>
       <c r="L53" s="21">
-        <f>902+K53*10</f>
+        <f t="shared" si="20"/>
         <v>986</v>
       </c>
       <c r="M53" s="21">
-        <f>I53+L53</f>
+        <f t="shared" si="13"/>
         <v>1888</v>
       </c>
       <c r="N53" s="21">
         <v>1888</v>
       </c>
       <c r="O53" s="21">
-        <f>M53-N53</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P53" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q53" s="21">
         <v>10.1</v>
       </c>
       <c r="R53" s="21">
-        <f>Q53-F53</f>
+        <f t="shared" si="16"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="S53" s="21">
-        <f>P53+(R53*10)</f>
+        <f t="shared" si="17"/>
         <v>763.56338028169012</v>
       </c>
       <c r="T53" s="21">
-        <f>ROUND(O53+S53,0)</f>
+        <f t="shared" si="18"/>
         <v>764</v>
       </c>
       <c r="U53" s="21">
@@ -7941,51 +7957,51 @@
         <v>7.1</v>
       </c>
       <c r="G54" s="21">
-        <f>+E54-C54</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H54" s="21">
         <v>10</v>
       </c>
       <c r="I54" s="21">
-        <f>B54+G54*H54</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J54" s="21"/>
       <c r="K54" s="21">
-        <f>F54-E54</f>
+        <f t="shared" si="21"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="L54" s="21">
-        <f>902+K54*10</f>
+        <f t="shared" si="20"/>
         <v>913</v>
       </c>
       <c r="M54" s="21">
-        <f>I54+L54</f>
+        <f t="shared" si="13"/>
         <v>1815</v>
       </c>
       <c r="N54" s="21"/>
       <c r="O54" s="21">
-        <f>M54-N54</f>
+        <f t="shared" si="14"/>
         <v>1815</v>
       </c>
       <c r="P54" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q54" s="21">
         <v>8.6999999999999993</v>
       </c>
       <c r="R54" s="21">
-        <f>Q54-F54</f>
+        <f t="shared" si="16"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="S54" s="21">
-        <f>P54+(R54*10)</f>
+        <f t="shared" si="17"/>
         <v>762.56338028169012</v>
       </c>
       <c r="T54" s="21">
-        <f>ROUND(O54+S54,0)</f>
+        <f t="shared" si="18"/>
         <v>2578</v>
       </c>
       <c r="U54" s="21"/>
@@ -8010,53 +8026,53 @@
         <v>7.5</v>
       </c>
       <c r="G55" s="21">
-        <f>+E55-C55</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H55" s="21">
         <v>10</v>
       </c>
       <c r="I55" s="21">
-        <f>B55+G55*H55</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21">
-        <f>F55-E55</f>
+        <f t="shared" si="21"/>
         <v>4.5</v>
       </c>
       <c r="L55" s="21">
-        <f>902+K55*10</f>
+        <f t="shared" si="20"/>
         <v>947</v>
       </c>
       <c r="M55" s="21">
-        <f>I55+L55</f>
+        <f t="shared" si="13"/>
         <v>1849</v>
       </c>
       <c r="N55" s="21">
         <v>1849</v>
       </c>
       <c r="O55" s="21">
-        <f>M55-N55</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P55" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q55" s="21">
         <v>9.1999999999999993</v>
       </c>
       <c r="R55" s="21">
-        <f>Q55-F55</f>
+        <f t="shared" si="16"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="S55" s="21">
-        <f>P55+(R55*10)</f>
+        <f t="shared" si="17"/>
         <v>763.56338028169012</v>
       </c>
       <c r="T55" s="21">
-        <f>ROUND(O55+S55,0)</f>
+        <f t="shared" si="18"/>
         <v>764</v>
       </c>
       <c r="U55" s="21">
@@ -8083,51 +8099,51 @@
         <v>15.5</v>
       </c>
       <c r="G56" s="21">
-        <f>+E56-C56</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H56" s="21">
         <v>10</v>
       </c>
       <c r="I56" s="21">
-        <f>B56+G56*H56</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21">
-        <f>F56-E56</f>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="L56" s="21">
-        <f>902+K56*10</f>
+        <f t="shared" si="20"/>
         <v>917</v>
       </c>
       <c r="M56" s="21">
-        <f>I56+L56</f>
+        <f t="shared" si="13"/>
         <v>1819</v>
       </c>
       <c r="N56" s="21"/>
       <c r="O56" s="21">
-        <f>M56-N56</f>
+        <f t="shared" si="14"/>
         <v>1819</v>
       </c>
       <c r="P56" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q56" s="21">
         <v>17</v>
       </c>
       <c r="R56" s="21">
-        <f>Q56-F56</f>
+        <f t="shared" si="16"/>
         <v>1.5</v>
       </c>
       <c r="S56" s="21">
-        <f>P56+(R56*10)</f>
+        <f t="shared" si="17"/>
         <v>761.56338028169012</v>
       </c>
       <c r="T56" s="21">
-        <f>ROUND(O56+S56,0)</f>
+        <f t="shared" si="18"/>
         <v>2581</v>
       </c>
       <c r="U56" s="21"/>
@@ -8152,51 +8168,51 @@
         <v>56.9</v>
       </c>
       <c r="G57" s="21">
-        <f>+E57-C57</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="H57" s="21">
         <v>10</v>
       </c>
       <c r="I57" s="21">
-        <f>B57+G57*H57</f>
+        <f t="shared" si="12"/>
         <v>932</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21">
-        <f>F57-E57</f>
+        <f t="shared" si="21"/>
         <v>10.899999999999999</v>
       </c>
       <c r="L57" s="21">
-        <f>902+K57*10</f>
+        <f t="shared" si="20"/>
         <v>1011</v>
       </c>
       <c r="M57" s="21">
-        <f>I57+L57</f>
+        <f t="shared" si="13"/>
         <v>1943</v>
       </c>
       <c r="N57" s="21"/>
       <c r="O57" s="21">
-        <f>M57-N57</f>
+        <f t="shared" si="14"/>
         <v>1943</v>
       </c>
       <c r="P57" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q57" s="21">
         <v>58.6</v>
       </c>
       <c r="R57" s="21">
-        <f>Q57-F57</f>
+        <f t="shared" si="16"/>
         <v>1.7000000000000028</v>
       </c>
       <c r="S57" s="21">
-        <f>P57+(R57*10)</f>
+        <f t="shared" si="17"/>
         <v>763.56338028169012</v>
       </c>
       <c r="T57" s="21">
-        <f>ROUND(O57+S57,0)</f>
+        <f t="shared" si="18"/>
         <v>2707</v>
       </c>
       <c r="U57" s="21">
@@ -8223,14 +8239,14 @@
         <v>42.5</v>
       </c>
       <c r="G58" s="21">
-        <f>+E58-C58</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="H58" s="21">
         <v>10</v>
       </c>
       <c r="I58" s="21">
-        <f>B58+G58*H58</f>
+        <f t="shared" si="12"/>
         <v>1122</v>
       </c>
       <c r="J58" s="21"/>
@@ -8238,35 +8254,35 @@
         <v>0</v>
       </c>
       <c r="L58" s="21">
-        <f>902+K58*10</f>
+        <f t="shared" si="20"/>
         <v>902</v>
       </c>
       <c r="M58" s="21">
-        <f>I58+L58</f>
+        <f t="shared" si="13"/>
         <v>2024</v>
       </c>
       <c r="N58" s="21"/>
       <c r="O58" s="21">
-        <f>M58-N58</f>
+        <f t="shared" si="14"/>
         <v>2024</v>
       </c>
       <c r="P58" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q58" s="21">
         <v>44</v>
       </c>
       <c r="R58" s="21">
-        <f>Q58-F58</f>
+        <f t="shared" si="16"/>
         <v>1.5</v>
       </c>
       <c r="S58" s="21">
-        <f>P58+(R58*10)</f>
+        <f t="shared" si="17"/>
         <v>761.56338028169012</v>
       </c>
       <c r="T58" s="21">
-        <f>ROUND(O58+S58,0)</f>
+        <f t="shared" si="18"/>
         <v>2786</v>
       </c>
       <c r="U58" s="21"/>
@@ -8291,53 +8307,53 @@
         <v>13.4</v>
       </c>
       <c r="G59" s="21">
-        <f>+E59-C59</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="H59" s="21">
         <v>10</v>
       </c>
       <c r="I59" s="21">
-        <f>B59+G59*H59</f>
+        <f t="shared" si="12"/>
         <v>962</v>
       </c>
       <c r="J59" s="21"/>
       <c r="K59" s="21">
-        <f>F59-E59</f>
+        <f t="shared" ref="K59:K71" si="22">F59-E59</f>
         <v>7.4</v>
       </c>
       <c r="L59" s="21">
-        <f>902+K59*10</f>
+        <f t="shared" si="20"/>
         <v>976</v>
       </c>
       <c r="M59" s="21">
-        <f>I59+L59</f>
+        <f t="shared" si="13"/>
         <v>1938</v>
       </c>
       <c r="N59" s="21">
         <v>1938</v>
       </c>
       <c r="O59" s="21">
-        <f>M59-N59</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P59" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q59" s="21">
         <v>16.100000000000001</v>
       </c>
       <c r="R59" s="21">
-        <f>Q59-F59</f>
+        <f t="shared" si="16"/>
         <v>2.7000000000000011</v>
       </c>
       <c r="S59" s="21">
-        <f>P59+(R59*10)</f>
+        <f t="shared" si="17"/>
         <v>773.56338028169012</v>
       </c>
       <c r="T59" s="21">
-        <f>ROUND(O59+S59,0)</f>
+        <f t="shared" si="18"/>
         <v>774</v>
       </c>
       <c r="U59" s="21">
@@ -8364,53 +8380,53 @@
         <v>85.7</v>
       </c>
       <c r="G60" s="21">
-        <f>+E60-C60</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="H60" s="21">
         <v>10</v>
       </c>
       <c r="I60" s="21">
-        <f>B60+G60*H60</f>
+        <f t="shared" si="12"/>
         <v>982</v>
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="21">
-        <f>F60-E60</f>
+        <f t="shared" si="22"/>
         <v>15.700000000000003</v>
       </c>
       <c r="L60" s="21">
-        <f>902+K60*10</f>
+        <f t="shared" si="20"/>
         <v>1059</v>
       </c>
       <c r="M60" s="21">
-        <f>I60+L60</f>
+        <f t="shared" si="13"/>
         <v>2041</v>
       </c>
       <c r="N60" s="21">
         <v>2041</v>
       </c>
       <c r="O60" s="21">
-        <f>M60-N60</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P60" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q60" s="21">
         <v>112.5</v>
       </c>
       <c r="R60" s="21">
-        <f>Q60-F60</f>
+        <f t="shared" si="16"/>
         <v>26.799999999999997</v>
       </c>
       <c r="S60" s="21">
-        <f>P60+(R60*10)</f>
+        <f t="shared" si="17"/>
         <v>1014.5633802816901</v>
       </c>
       <c r="T60" s="21">
-        <f>ROUND(O60+S60,0)</f>
+        <f t="shared" si="18"/>
         <v>1015</v>
       </c>
       <c r="U60" s="21">
@@ -8437,51 +8453,51 @@
         <v>6.3</v>
       </c>
       <c r="G61" s="21">
-        <f>+E61-C61</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H61" s="21">
         <v>10</v>
       </c>
       <c r="I61" s="21">
-        <f>B61+G61*H61</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="21">
-        <f>F61-E61</f>
+        <f t="shared" si="22"/>
         <v>5.3</v>
       </c>
       <c r="L61" s="21">
-        <f>902+K61*10</f>
+        <f t="shared" si="20"/>
         <v>955</v>
       </c>
       <c r="M61" s="21">
-        <f>I61+L61</f>
+        <f t="shared" si="13"/>
         <v>1857</v>
       </c>
       <c r="N61" s="21"/>
       <c r="O61" s="21">
-        <f>M61-N61</f>
+        <f t="shared" si="14"/>
         <v>1857</v>
       </c>
       <c r="P61" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q61" s="21">
         <v>7.9</v>
       </c>
       <c r="R61" s="21">
-        <f>Q61-F61</f>
+        <f t="shared" si="16"/>
         <v>1.6000000000000005</v>
       </c>
       <c r="S61" s="21">
-        <f>P61+(R61*10)</f>
+        <f t="shared" si="17"/>
         <v>762.56338028169012</v>
       </c>
       <c r="T61" s="21">
-        <f>ROUND(O61+S61,0)</f>
+        <f t="shared" si="18"/>
         <v>2620</v>
       </c>
       <c r="U61" s="21"/>
@@ -8506,51 +8522,51 @@
         <v>3.4</v>
       </c>
       <c r="G62" s="21">
-        <f>+E62-C62</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H62" s="21">
         <v>10</v>
       </c>
       <c r="I62" s="21">
-        <f>B62+G62*H62</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="21">
-        <f>F62-E62</f>
+        <f t="shared" si="22"/>
         <v>2.4</v>
       </c>
       <c r="L62" s="21">
-        <f>902+K62*10</f>
+        <f t="shared" si="20"/>
         <v>926</v>
       </c>
       <c r="M62" s="21">
-        <f>I62+L62</f>
+        <f t="shared" si="13"/>
         <v>1828</v>
       </c>
       <c r="N62" s="21"/>
       <c r="O62" s="21">
-        <f>M62-N62</f>
+        <f t="shared" si="14"/>
         <v>1828</v>
       </c>
       <c r="P62" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q62" s="21">
         <v>4.2</v>
       </c>
       <c r="R62" s="21">
-        <f>Q62-F62</f>
+        <f t="shared" si="16"/>
         <v>0.80000000000000027</v>
       </c>
       <c r="S62" s="21">
-        <f>P62+(R62*10)</f>
+        <f t="shared" si="17"/>
         <v>754.56338028169012</v>
       </c>
       <c r="T62" s="21">
-        <f>ROUND(O62+S62,0)</f>
+        <f t="shared" si="18"/>
         <v>2583</v>
       </c>
       <c r="U62" s="21"/>
@@ -8575,51 +8591,51 @@
         <v>37.200000000000003</v>
       </c>
       <c r="G63" s="21">
-        <f>+E63-C63</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H63" s="21">
         <v>10</v>
       </c>
       <c r="I63" s="21">
-        <f>B63+G63*H63</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="21">
-        <f>F63-E63</f>
+        <f t="shared" si="22"/>
         <v>7.2000000000000028</v>
       </c>
       <c r="L63" s="21">
-        <f>902+K63*10</f>
+        <f t="shared" si="20"/>
         <v>974</v>
       </c>
       <c r="M63" s="21">
-        <f>I63+L63</f>
+        <f t="shared" si="13"/>
         <v>1876</v>
       </c>
       <c r="N63" s="21"/>
       <c r="O63" s="21">
-        <f>M63-N63</f>
+        <f t="shared" si="14"/>
         <v>1876</v>
       </c>
       <c r="P63" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q63" s="21">
         <v>39.799999999999997</v>
       </c>
       <c r="R63" s="21">
-        <f>Q63-F63</f>
+        <f t="shared" si="16"/>
         <v>2.5999999999999943</v>
       </c>
       <c r="S63" s="21">
-        <f>P63+(R63*10)</f>
+        <f t="shared" si="17"/>
         <v>772.56338028169012</v>
       </c>
       <c r="T63" s="21">
-        <f>ROUND(O63+S63,0)</f>
+        <f t="shared" si="18"/>
         <v>2649</v>
       </c>
       <c r="U63" s="21"/>
@@ -8644,53 +8660,53 @@
         <v>217.1</v>
       </c>
       <c r="G64" s="21">
-        <f>+E64-C64</f>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="H64" s="21">
         <v>10</v>
       </c>
       <c r="I64" s="21">
-        <f>B64+G64*H64</f>
+        <f t="shared" si="12"/>
         <v>1012</v>
       </c>
       <c r="J64" s="21"/>
       <c r="K64" s="21">
-        <f>F64-E64</f>
+        <f t="shared" si="22"/>
         <v>7.0999999999999943</v>
       </c>
       <c r="L64" s="21">
-        <f>902+K64*10</f>
+        <f t="shared" si="20"/>
         <v>973</v>
       </c>
       <c r="M64" s="21">
-        <f>I64+L64</f>
+        <f t="shared" si="13"/>
         <v>1985</v>
       </c>
       <c r="N64" s="21">
         <v>1985</v>
       </c>
       <c r="O64" s="21">
-        <f>M64-N64</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P64" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q64" s="21">
         <v>228.9</v>
       </c>
       <c r="R64" s="21">
-        <f>Q64-F64</f>
+        <f t="shared" si="16"/>
         <v>11.800000000000011</v>
       </c>
       <c r="S64" s="21">
-        <f>P64+(R64*10)</f>
+        <f t="shared" si="17"/>
         <v>864.56338028169023</v>
       </c>
       <c r="T64" s="21">
-        <f>ROUND(O64+S64,0)</f>
+        <f t="shared" si="18"/>
         <v>865</v>
       </c>
       <c r="U64" s="21">
@@ -8717,51 +8733,51 @@
         <v>0.6</v>
       </c>
       <c r="G65" s="21">
-        <f>+E65-C65</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H65" s="21">
         <v>10</v>
       </c>
       <c r="I65" s="21">
-        <f>B65+G65*H65</f>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="J65" s="21"/>
       <c r="K65" s="21">
-        <f>F65-E65</f>
+        <f t="shared" si="22"/>
         <v>0.6</v>
       </c>
       <c r="L65" s="21">
-        <f>902+K65*10</f>
+        <f t="shared" si="20"/>
         <v>908</v>
       </c>
       <c r="M65" s="21">
-        <f>I65+L65</f>
+        <f t="shared" si="13"/>
         <v>1810</v>
       </c>
       <c r="N65" s="21"/>
       <c r="O65" s="21">
-        <f>M65-N65</f>
+        <f t="shared" si="14"/>
         <v>1810</v>
       </c>
       <c r="P65" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="15"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q65" s="21">
         <v>0.6</v>
       </c>
       <c r="R65" s="21">
-        <f>Q65-F65</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S65" s="21">
-        <f>P65+(R65*10)</f>
+        <f t="shared" si="17"/>
         <v>746.56338028169012</v>
       </c>
       <c r="T65" s="21">
-        <f>ROUND(O65+S65,0)</f>
+        <f t="shared" si="18"/>
         <v>2557</v>
       </c>
       <c r="U65" s="21">
@@ -8788,51 +8804,51 @@
         <v>31.3</v>
       </c>
       <c r="G66" s="21">
-        <f>+E66-C66</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H66" s="21">
         <v>10</v>
       </c>
       <c r="I66" s="21">
-        <f>B66+G66*H66</f>
+        <f t="shared" ref="I66:I97" si="23">B66+G66*H66</f>
         <v>902</v>
       </c>
       <c r="J66" s="21"/>
       <c r="K66" s="21">
-        <f>F66-E66</f>
+        <f t="shared" si="22"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="L66" s="21">
-        <f>902+K66*10</f>
+        <f t="shared" si="20"/>
         <v>985</v>
       </c>
       <c r="M66" s="21">
-        <f>I66+L66</f>
+        <f t="shared" ref="M66:M97" si="24">I66+L66</f>
         <v>1887</v>
       </c>
       <c r="N66" s="21"/>
       <c r="O66" s="21">
-        <f>M66-N66</f>
+        <f t="shared" ref="O66:O97" si="25">M66-N66</f>
         <v>1887</v>
       </c>
       <c r="P66" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" ref="P66:P72" si="26">(49275+3731)/71</f>
         <v>746.56338028169012</v>
       </c>
       <c r="Q66" s="21">
         <v>31.3</v>
       </c>
       <c r="R66" s="21">
-        <f>Q66-F66</f>
+        <f t="shared" ref="R66:R97" si="27">Q66-F66</f>
         <v>0</v>
       </c>
       <c r="S66" s="21">
-        <f>P66+(R66*10)</f>
+        <f t="shared" ref="S66:S97" si="28">P66+(R66*10)</f>
         <v>746.56338028169012</v>
       </c>
       <c r="T66" s="21">
-        <f>ROUND(O66+S66,0)</f>
+        <f t="shared" ref="T66:T97" si="29">ROUND(O66+S66,0)</f>
         <v>2634</v>
       </c>
       <c r="U66" s="21"/>
@@ -8857,53 +8873,53 @@
         <v>0.2</v>
       </c>
       <c r="G67" s="21">
-        <f>+E67-C67</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H67" s="21">
         <v>10</v>
       </c>
       <c r="I67" s="21">
-        <f>B67+G67*H67</f>
+        <f t="shared" si="23"/>
         <v>902</v>
       </c>
       <c r="J67" s="21"/>
       <c r="K67" s="21">
-        <f>F67-E67</f>
+        <f t="shared" si="22"/>
         <v>0.2</v>
       </c>
       <c r="L67" s="21">
-        <f>902+K67*10</f>
+        <f t="shared" si="20"/>
         <v>904</v>
       </c>
       <c r="M67" s="21">
-        <f>I67+L67</f>
+        <f t="shared" si="24"/>
         <v>1806</v>
       </c>
       <c r="N67" s="21">
         <v>1806</v>
       </c>
       <c r="O67" s="21">
-        <f>M67-N67</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P67" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="26"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q67" s="21">
         <v>1.9</v>
       </c>
       <c r="R67" s="21">
-        <f>Q67-F67</f>
+        <f t="shared" si="27"/>
         <v>1.7</v>
       </c>
       <c r="S67" s="21">
-        <f>P67+(R67*10)</f>
+        <f t="shared" si="28"/>
         <v>763.56338028169012</v>
       </c>
       <c r="T67" s="21">
-        <f>ROUND(O67+S67,0)</f>
+        <f t="shared" si="29"/>
         <v>764</v>
       </c>
       <c r="U67" s="21"/>
@@ -8928,53 +8944,53 @@
         <v>1444.1</v>
       </c>
       <c r="G68" s="21">
-        <f>+E68-C68</f>
+        <f t="shared" si="19"/>
         <v>215</v>
       </c>
       <c r="H68" s="21">
         <v>10</v>
       </c>
       <c r="I68" s="21">
-        <f>B68+G68*H68</f>
+        <f t="shared" si="23"/>
         <v>3052</v>
       </c>
       <c r="J68" s="21"/>
       <c r="K68" s="21">
-        <f>F68-E68</f>
+        <f t="shared" si="22"/>
         <v>264.09999999999991</v>
       </c>
       <c r="L68" s="21">
-        <f>902+K68*10</f>
+        <f t="shared" si="20"/>
         <v>3542.9999999999991</v>
       </c>
       <c r="M68" s="21">
-        <f>I68+L68</f>
+        <f t="shared" si="24"/>
         <v>6594.9999999999991</v>
       </c>
       <c r="N68" s="21">
         <v>6595</v>
       </c>
       <c r="O68" s="21">
-        <f>M68-N68</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P68" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="26"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q68" s="21">
         <v>2038.5</v>
       </c>
       <c r="R68" s="21">
-        <f>Q68-F68</f>
+        <f t="shared" si="27"/>
         <v>594.40000000000009</v>
       </c>
       <c r="S68" s="21">
-        <f>P68+(R68*10)</f>
+        <f t="shared" si="28"/>
         <v>6690.563380281691</v>
       </c>
       <c r="T68" s="21">
-        <f>ROUND(O68+S68,0)</f>
+        <f t="shared" si="29"/>
         <v>6691</v>
       </c>
       <c r="U68" s="21"/>
@@ -8999,53 +9015,53 @@
         <v>5858.5119999999997</v>
       </c>
       <c r="G69" s="21">
-        <f>+E69-C69</f>
+        <f t="shared" si="19"/>
         <v>1540</v>
       </c>
       <c r="H69" s="21">
         <v>10</v>
       </c>
       <c r="I69" s="21">
-        <f>B69+G69*H69</f>
+        <f t="shared" si="23"/>
         <v>16302</v>
       </c>
       <c r="J69" s="21"/>
       <c r="K69" s="21">
-        <f>F69-E69</f>
+        <f t="shared" si="22"/>
         <v>1018.5119999999997</v>
       </c>
       <c r="L69" s="21">
-        <f>902+K69*10</f>
+        <f t="shared" ref="L69:L100" si="30">902+K69*10</f>
         <v>11087.119999999997</v>
       </c>
       <c r="M69" s="21">
-        <f>I69+L69</f>
+        <f t="shared" si="24"/>
         <v>27389.119999999995</v>
       </c>
       <c r="N69" s="21">
         <v>27389</v>
       </c>
       <c r="O69" s="21">
-        <f>M69-N69</f>
+        <f t="shared" si="25"/>
         <v>0.11999999999534339</v>
       </c>
       <c r="P69" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="26"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q69" s="21">
         <v>7385.2</v>
       </c>
       <c r="R69" s="21">
-        <f>Q69-F69</f>
+        <f t="shared" si="27"/>
         <v>1526.6880000000001</v>
       </c>
       <c r="S69" s="21">
-        <f>P69+(R69*10)</f>
+        <f t="shared" si="28"/>
         <v>16013.443380281691</v>
       </c>
       <c r="T69" s="21">
-        <f>ROUND(O69+S69,0)</f>
+        <f t="shared" si="29"/>
         <v>16014</v>
       </c>
       <c r="U69" s="21"/>
@@ -9070,53 +9086,53 @@
         <v>43</v>
       </c>
       <c r="G70" s="21">
-        <f>+E70-C70</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="H70" s="21">
         <v>10</v>
       </c>
       <c r="I70" s="21">
-        <f>B70+G70*H70</f>
+        <f t="shared" si="23"/>
         <v>1122</v>
       </c>
       <c r="J70" s="21"/>
       <c r="K70" s="21">
-        <f>F70-E70</f>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="L70" s="21">
-        <f>902+K70*10</f>
+        <f t="shared" si="30"/>
         <v>1032</v>
       </c>
       <c r="M70" s="21">
-        <f>I70+L70</f>
+        <f t="shared" si="24"/>
         <v>2154</v>
       </c>
       <c r="N70" s="21">
         <v>2154</v>
       </c>
       <c r="O70" s="21">
-        <f>M70-N70</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P70" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="26"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q70" s="21">
         <v>53.1</v>
       </c>
       <c r="R70" s="21">
-        <f>Q70-F70</f>
+        <f t="shared" si="27"/>
         <v>10.100000000000001</v>
       </c>
       <c r="S70" s="21">
-        <f>P70+(R70*10)</f>
+        <f t="shared" si="28"/>
         <v>847.56338028169012</v>
       </c>
       <c r="T70" s="21">
-        <f>ROUND(O70+S70,0)</f>
+        <f t="shared" si="29"/>
         <v>848</v>
       </c>
       <c r="U70" s="21"/>
@@ -9141,53 +9157,53 @@
         <v>16.100000000000001</v>
       </c>
       <c r="G71" s="21">
-        <f>+E71-C71</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H71" s="21">
         <v>10</v>
       </c>
       <c r="I71" s="21">
-        <f>B71+G71*H71</f>
+        <f t="shared" si="23"/>
         <v>912</v>
       </c>
       <c r="J71" s="21"/>
       <c r="K71" s="21">
-        <f>F71-E71</f>
+        <f t="shared" si="22"/>
         <v>1.1000000000000014</v>
       </c>
       <c r="L71" s="21">
-        <f>902+K71*10</f>
+        <f t="shared" si="30"/>
         <v>913</v>
       </c>
       <c r="M71" s="21">
-        <f>I71+L71</f>
+        <f t="shared" si="24"/>
         <v>1825</v>
       </c>
       <c r="N71" s="21">
         <v>1825</v>
       </c>
       <c r="O71" s="21">
-        <f>M71-N71</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P71" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="26"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q71" s="21">
         <v>18.3</v>
       </c>
       <c r="R71" s="21">
-        <f>Q71-F71</f>
+        <f t="shared" si="27"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="S71" s="21">
-        <f>P71+(R71*10)</f>
+        <f t="shared" si="28"/>
         <v>768.56338028169012</v>
       </c>
       <c r="T71" s="21">
-        <f>ROUND(O71+S71,0)</f>
+        <f t="shared" si="29"/>
         <v>769</v>
       </c>
       <c r="U71" s="21"/>
@@ -9212,14 +9228,14 @@
         <v>39.6</v>
       </c>
       <c r="G72" s="21">
-        <f>+E72-C72</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H72" s="21">
         <v>10</v>
       </c>
       <c r="I72" s="21">
-        <f>B72+G72*H72</f>
+        <f t="shared" si="23"/>
         <v>902</v>
       </c>
       <c r="J72" s="21"/>
@@ -9227,35 +9243,35 @@
         <v>16</v>
       </c>
       <c r="L72" s="21">
-        <f>902+K72*10</f>
+        <f t="shared" si="30"/>
         <v>1062</v>
       </c>
       <c r="M72" s="21">
-        <f>I72+L72</f>
+        <f t="shared" si="24"/>
         <v>1964</v>
       </c>
       <c r="N72" s="21"/>
       <c r="O72" s="21">
-        <f>M72-N72</f>
+        <f t="shared" si="25"/>
         <v>1964</v>
       </c>
       <c r="P72" s="21">
-        <f>(49275+3731)/71</f>
+        <f t="shared" si="26"/>
         <v>746.56338028169012</v>
       </c>
       <c r="Q72" s="21">
         <v>42.1</v>
       </c>
       <c r="R72" s="21">
-        <f>Q72-F72</f>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="S72" s="21">
-        <f>P72+(R72*10)</f>
+        <f t="shared" si="28"/>
         <v>771.56338028169012</v>
       </c>
       <c r="T72" s="21">
-        <f>ROUND(O72+S72,0)</f>
+        <f t="shared" si="29"/>
         <v>2736</v>
       </c>
       <c r="U72" s="21">
@@ -9304,7 +9320,7 @@
       <c r="T73" s="21"/>
       <c r="U73" s="20">
         <f>SUM(U2:U72)</f>
-        <v>125738</v>
+        <v>128179</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9380,10 +9396,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9395,7 +9411,7 @@
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>197</v>
       </c>
@@ -9412,13 +9428,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>210</v>
       </c>
       <c r="C2" s="3">
         <f>'Maintenance_01-Apr-2025_Onwards'!K74</f>
-        <v>223288</v>
+        <v>245270</v>
       </c>
       <c r="D2" s="62">
         <v>45686</v>
@@ -9429,14 +9445,17 @@
       <c r="F2">
         <v>18043</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>211</v>
       </c>
       <c r="C3" s="3">
         <f>EB!U73</f>
-        <v>125738</v>
+        <v>128179</v>
       </c>
       <c r="D3" s="62">
         <v>45706</v>
@@ -9448,7 +9467,7 @@
         <v>182204</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D4" s="62">
         <v>45733</v>
       </c>
@@ -9458,8 +9477,11 @@
       <c r="F4">
         <v>182412</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D5" s="62">
         <v>45727</v>
       </c>
@@ -9470,7 +9492,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D6" s="62">
         <v>111491</v>
       </c>
@@ -9480,14 +9502,17 @@
       <c r="F6">
         <v>3630</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>196</v>
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>991444</v>
+        <v>1015867</v>
       </c>
       <c r="D7" s="62">
         <v>45757</v>
@@ -9499,8 +9524,25 @@
         <f>4602+1480</f>
         <v>6082</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="62">
+        <v>45761</v>
+      </c>
+      <c r="E8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8">
+        <v>245778</v>
+      </c>
+      <c r="G8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>186</v>
       </c>
@@ -9509,25 +9551,23 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>174</v>
       </c>
       <c r="C10" s="3">
-        <f>withWhom!B26</f>
-        <v>177120</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>219027</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="3">
-        <f>withWhom!D26</f>
-        <v>249598</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>179</v>
       </c>
@@ -9536,7 +9576,7 @@
         <v>125283</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>213</v>
       </c>
@@ -9545,26 +9585,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>552289</v>
+        <v>348419</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
       </c>
       <c r="F15">
         <f>SUM(F2:F14)</f>
-        <v>422182</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>667960</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9573,7 +9613,7 @@
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>569262</v>
+        <v>347907</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9592,7 +9632,7 @@
       </c>
       <c r="C20" s="3">
         <f>C17-C15</f>
-        <v>16973</v>
+        <v>-512</v>
       </c>
       <c r="E20" s="38"/>
     </row>

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B9C896-1215-4B3E-B20C-16EC4BF41873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2868607-9B71-4EF9-9C41-A02475D93E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="90" yWindow="270" windowWidth="21600" windowHeight="14190" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="230">
   <si>
     <t xml:space="preserve">S.no </t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t>vishal</t>
+  </si>
+  <si>
+    <t>lift amc installment</t>
   </si>
 </sst>
 </file>
@@ -8811,7 +8814,7 @@
         <v>10</v>
       </c>
       <c r="I66" s="21">
-        <f t="shared" ref="I66:I97" si="23">B66+G66*H66</f>
+        <f t="shared" ref="I66:I72" si="23">B66+G66*H66</f>
         <v>902</v>
       </c>
       <c r="J66" s="21"/>
@@ -8824,12 +8827,12 @@
         <v>985</v>
       </c>
       <c r="M66" s="21">
-        <f t="shared" ref="M66:M97" si="24">I66+L66</f>
+        <f t="shared" ref="M66:M72" si="24">I66+L66</f>
         <v>1887</v>
       </c>
       <c r="N66" s="21"/>
       <c r="O66" s="21">
-        <f t="shared" ref="O66:O97" si="25">M66-N66</f>
+        <f t="shared" ref="O66:O72" si="25">M66-N66</f>
         <v>1887</v>
       </c>
       <c r="P66" s="21">
@@ -8840,15 +8843,15 @@
         <v>31.3</v>
       </c>
       <c r="R66" s="21">
-        <f t="shared" ref="R66:R97" si="27">Q66-F66</f>
+        <f t="shared" ref="R66:R72" si="27">Q66-F66</f>
         <v>0</v>
       </c>
       <c r="S66" s="21">
-        <f t="shared" ref="S66:S97" si="28">P66+(R66*10)</f>
+        <f t="shared" ref="S66:S72" si="28">P66+(R66*10)</f>
         <v>746.56338028169012</v>
       </c>
       <c r="T66" s="21">
-        <f t="shared" ref="T66:T97" si="29">ROUND(O66+S66,0)</f>
+        <f t="shared" ref="T66:T72" si="29">ROUND(O66+S66,0)</f>
         <v>2634</v>
       </c>
       <c r="U66" s="21"/>
@@ -9031,7 +9034,7 @@
         <v>1018.5119999999997</v>
       </c>
       <c r="L69" s="21">
-        <f t="shared" ref="L69:L100" si="30">902+K69*10</f>
+        <f t="shared" ref="L69:L72" si="30">902+K69*10</f>
         <v>11087.119999999997</v>
       </c>
       <c r="M69" s="21">
@@ -9399,7 +9402,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9550,6 +9553,15 @@
         <f>withWhom!I26</f>
         <v>288</v>
       </c>
+      <c r="E9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9">
+        <v>32745</v>
+      </c>
+      <c r="G9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -9572,8 +9584,7 @@
         <v>179</v>
       </c>
       <c r="C12" s="3">
-        <f>withWhom!F26</f>
-        <v>125283</v>
+        <v>92538</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -9594,14 +9605,14 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>348419</v>
+        <v>315674</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
       </c>
       <c r="F15">
         <f>SUM(F2:F14)</f>
-        <v>667960</v>
+        <v>700705</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -9613,7 +9624,7 @@
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>347907</v>
+        <v>315162</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2868607-9B71-4EF9-9C41-A02475D93E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453E1A54-6ACB-4E7F-90B0-27DE2538DDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="270" windowWidth="21600" windowHeight="14190" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="231">
   <si>
     <t xml:space="preserve">S.no </t>
   </si>
@@ -797,6 +797,9 @@
   </si>
   <si>
     <t>lift amc installment</t>
+  </si>
+  <si>
+    <t>by amit</t>
   </si>
 </sst>
 </file>
@@ -9402,7 +9405,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9560,7 +9563,7 @@
         <v>32745</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453E1A54-6ACB-4E7F-90B0-27DE2538DDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FBD540-250C-4DA7-8F04-DA1836D2C1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="270" windowWidth="21600" windowHeight="14190" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="232">
   <si>
     <t xml:space="preserve">S.no </t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>by amit</t>
+  </si>
+  <si>
+    <t>sandeep</t>
   </si>
 </sst>
 </file>
@@ -9405,7 +9408,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9472,6 +9475,9 @@
       <c r="F3">
         <v>182204</v>
       </c>
+      <c r="G3" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D4" s="62">
@@ -9496,6 +9502,9 @@
       </c>
       <c r="F5">
         <v>29811</v>
+      </c>
+      <c r="G5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FBD540-250C-4DA7-8F04-DA1836D2C1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA11908-25EE-4B7E-A0F9-AC1A1987F0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="236">
   <si>
     <t xml:space="preserve">S.no </t>
   </si>
@@ -711,9 +711,6 @@
     <t xml:space="preserve">Amount </t>
   </si>
   <si>
-    <t>EB</t>
-  </si>
-  <si>
     <t>House Keeping materials</t>
   </si>
   <si>
@@ -803,6 +800,22 @@
   </si>
   <si>
     <t>sandeep</t>
+  </si>
+  <si>
+    <t>EB jan</t>
+  </si>
+  <si>
+    <t>EB feb</t>
+  </si>
+  <si>
+    <t>EB march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9632052634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maint. chunk handed over to residential </t>
   </si>
 </sst>
 </file>
@@ -1485,9 +1498,9 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,7 +2308,9 @@
         <f t="shared" si="0"/>
         <v>3146</v>
       </c>
-      <c r="K22" s="21"/>
+      <c r="K22" s="21">
+        <v>3146</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
@@ -3785,7 +3800,7 @@
         <v>69</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="E64" s="15">
         <v>694</v>
@@ -3961,7 +3976,7 @@
         <v>48</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="34"/>
       <c r="E69" s="34">
@@ -4141,7 +4156,7 @@
       </c>
       <c r="K74">
         <f>SUM(K2:K73)</f>
-        <v>245270</v>
+        <v>248416</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4185,7 +4200,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="U73" sqref="U73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4240,19 +4255,19 @@
         <v>192</v>
       </c>
       <c r="P1" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q1" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="R1" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="S1" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="T1" s="43" t="s">
         <v>208</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>209</v>
       </c>
       <c r="U1" s="43" t="s">
         <v>141</v>
@@ -5751,7 +5766,9 @@
         <f t="shared" si="8"/>
         <v>833</v>
       </c>
-      <c r="U22" s="21"/>
+      <c r="U22" s="21">
+        <v>833</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
@@ -9329,7 +9346,7 @@
       <c r="T73" s="21"/>
       <c r="U73" s="20">
         <f>SUM(U2:U72)</f>
-        <v>128179</v>
+        <v>129012</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9408,7 +9425,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9439,11 +9456,11 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="3">
         <f>'Maintenance_01-Apr-2025_Onwards'!K74</f>
-        <v>245270</v>
+        <v>248416</v>
       </c>
       <c r="D2" s="62">
         <v>45686</v>
@@ -9455,28 +9472,28 @@
         <v>18043</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="3">
         <f>EB!U73</f>
-        <v>128179</v>
+        <v>129012</v>
       </c>
       <c r="D3" s="62">
         <v>45706</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F3">
         <v>182204</v>
       </c>
       <c r="G3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -9484,13 +9501,13 @@
         <v>45733</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F4">
         <v>182412</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -9504,7 +9521,7 @@
         <v>29811</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -9512,13 +9529,13 @@
         <v>111491</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6">
         <v>3630</v>
       </c>
       <c r="G6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -9527,20 +9544,20 @@
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>1015867</v>
+        <v>1019846</v>
       </c>
       <c r="D7" s="62">
         <v>45757</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7">
         <f>4602+1480</f>
         <v>6082</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -9548,13 +9565,13 @@
         <v>45761</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="F8">
         <v>245778</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -9565,14 +9582,17 @@
         <f>withWhom!I26</f>
         <v>288</v>
       </c>
+      <c r="D9" s="62">
+        <v>45761</v>
+      </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F9">
         <v>32745</v>
       </c>
       <c r="G9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -9580,7 +9600,19 @@
         <v>174</v>
       </c>
       <c r="C10" s="3">
-        <v>219027</v>
+        <v>80651</v>
+      </c>
+      <c r="D10" s="62">
+        <v>45761</v>
+      </c>
+      <c r="E10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10">
+        <v>142355</v>
+      </c>
+      <c r="G10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -9601,7 +9633,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="3">
         <f>withWhom!H26</f>
@@ -9617,14 +9649,14 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>315674</v>
+        <v>177298</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
       </c>
       <c r="F15">
         <f>SUM(F2:F14)</f>
-        <v>700705</v>
+        <v>843060</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -9632,11 +9664,11 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>315162</v>
+        <v>176786</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9651,7 +9683,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="3">
         <f>C17-C15</f>
@@ -13606,7 +13638,7 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -13615,31 +13647,31 @@
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="11">
         <v>117636</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" s="11">
         <v>67347</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F4" s="11">
         <v>40543</v>
@@ -13650,7 +13682,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="11">
         <v>9984</v>
@@ -13690,7 +13722,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="11">
         <v>5299</v>
@@ -13716,7 +13748,7 @@
         <v>14500</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" s="11">
         <v>13912</v>
@@ -13736,7 +13768,7 @@
         <v>8550</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" s="11">
         <v>13916</v>
@@ -13770,7 +13802,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="11">
         <v>11079</v>
@@ -13830,7 +13862,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" s="11">
         <v>8100</v>
@@ -13858,7 +13890,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" s="11">
         <v>-53000</v>
@@ -13894,7 +13926,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA11908-25EE-4B7E-A0F9-AC1A1987F0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03966E8-5349-4E1A-A81A-A81E653FEB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
@@ -741,10 +741,6 @@
     <t>Total EB Collection from 08-Apr-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Confident Group
-</t>
-  </si>
-  <si>
     <t>With Sandeep</t>
   </si>
   <si>
@@ -816,6 +812,10 @@
   </si>
   <si>
     <t xml:space="preserve">maint. chunk handed over to residential </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayur
+</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1157,6 +1157,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1498,9 +1501,9 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2380,7 +2383,9 @@
         <f t="shared" si="0"/>
         <v>7770</v>
       </c>
-      <c r="K24" s="21"/>
+      <c r="K24" s="21">
+        <v>7770</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -2851,7 +2856,9 @@
         <f t="shared" si="0"/>
         <v>6077</v>
       </c>
-      <c r="K37" s="21"/>
+      <c r="K37" s="21">
+        <v>6077</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
@@ -3800,7 +3807,7 @@
         <v>69</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E64" s="15">
         <v>694</v>
@@ -3966,7 +3973,9 @@
         <f t="shared" si="2"/>
         <v>7459</v>
       </c>
-      <c r="K68" s="21"/>
+      <c r="K68" s="21">
+        <v>7459</v>
+      </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
@@ -3975,8 +3984,8 @@
       <c r="B69" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="37" t="s">
-        <v>211</v>
+      <c r="C69" s="69" t="s">
+        <v>235</v>
       </c>
       <c r="D69" s="34"/>
       <c r="E69" s="34">
@@ -3999,7 +4008,9 @@
         <f t="shared" si="2"/>
         <v>3641</v>
       </c>
-      <c r="K69" s="21"/>
+      <c r="K69" s="21">
+        <v>3641</v>
+      </c>
     </row>
     <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
@@ -4156,7 +4167,7 @@
       </c>
       <c r="K74">
         <f>SUM(K2:K73)</f>
-        <v>248416</v>
+        <v>273363</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4199,8 +4210,8 @@
   <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U73" sqref="U73"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9425,7 +9436,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9460,7 +9471,7 @@
       </c>
       <c r="C2" s="3">
         <f>'Maintenance_01-Apr-2025_Onwards'!K74</f>
-        <v>248416</v>
+        <v>273363</v>
       </c>
       <c r="D2" s="62">
         <v>45686</v>
@@ -9472,7 +9483,7 @@
         <v>18043</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -9487,13 +9498,13 @@
         <v>45706</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F3">
         <v>182204</v>
       </c>
       <c r="G3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -9501,13 +9512,13 @@
         <v>45733</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F4">
         <v>182412</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -9521,7 +9532,7 @@
         <v>29811</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -9535,7 +9546,7 @@
         <v>3630</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -9544,7 +9555,7 @@
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>1019846</v>
+        <v>1044793</v>
       </c>
       <c r="D7" s="62">
         <v>45757</v>
@@ -9557,7 +9568,7 @@
         <v>6082</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -9565,13 +9576,13 @@
         <v>45761</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F8">
         <v>245778</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -9586,13 +9597,13 @@
         <v>45761</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F9">
         <v>32745</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -9600,19 +9611,19 @@
         <v>174</v>
       </c>
       <c r="C10" s="3">
-        <v>80651</v>
+        <v>91651</v>
       </c>
       <c r="D10" s="62">
         <v>45761</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F10">
         <v>142355</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -9620,7 +9631,7 @@
         <v>175</v>
       </c>
       <c r="C11" s="3">
-        <v>3821</v>
+        <v>17668</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -9633,7 +9644,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="3">
         <f>withWhom!H26</f>
@@ -9649,7 +9660,7 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>177298</v>
+        <v>202145</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -9668,7 +9679,7 @@
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>176786</v>
+        <v>201733</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9687,7 +9698,7 @@
       </c>
       <c r="C20" s="3">
         <f>C17-C15</f>
-        <v>-512</v>
+        <v>-412</v>
       </c>
       <c r="E20" s="38"/>
     </row>
@@ -13638,7 +13649,7 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -13647,31 +13658,31 @@
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" s="11">
         <v>117636</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="11">
         <v>67347</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F4" s="11">
         <v>40543</v>
@@ -13682,7 +13693,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="11">
         <v>9984</v>
@@ -13722,7 +13733,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="11">
         <v>5299</v>
@@ -13748,7 +13759,7 @@
         <v>14500</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" s="11">
         <v>13912</v>
@@ -13768,7 +13779,7 @@
         <v>8550</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="11">
         <v>13916</v>
@@ -13802,7 +13813,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11" s="11">
         <v>11079</v>
@@ -13862,7 +13873,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" s="11">
         <v>8100</v>
@@ -13890,7 +13901,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16" s="11">
         <v>-53000</v>
@@ -13926,7 +13937,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03966E8-5349-4E1A-A81A-A81E653FEB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0B5279-5E72-4DAD-AE50-EA0E1F25EBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -1500,10 +1500,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E3C748-2165-4E26-87D0-2D40C997FFD8}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,7 +3002,9 @@
         <f t="shared" si="0"/>
         <v>3455</v>
       </c>
-      <c r="K41" s="21"/>
+      <c r="K41" s="21">
+        <v>3455</v>
+      </c>
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
@@ -4167,7 +4169,7 @@
       </c>
       <c r="K74">
         <f>SUM(K2:K73)</f>
-        <v>273363</v>
+        <v>276818</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4210,8 +4212,8 @@
   <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7120,7 +7122,9 @@
         <f t="shared" si="18"/>
         <v>760</v>
       </c>
-      <c r="U41" s="21"/>
+      <c r="U41" s="21">
+        <v>760</v>
+      </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
@@ -9357,7 +9361,7 @@
       <c r="T73" s="21"/>
       <c r="U73" s="20">
         <f>SUM(U2:U72)</f>
-        <v>129012</v>
+        <v>129772</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9435,8 +9439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9471,7 +9475,7 @@
       </c>
       <c r="C2" s="3">
         <f>'Maintenance_01-Apr-2025_Onwards'!K74</f>
-        <v>273363</v>
+        <v>276818</v>
       </c>
       <c r="D2" s="62">
         <v>45686</v>
@@ -9492,7 +9496,7 @@
       </c>
       <c r="C3" s="3">
         <f>EB!U73</f>
-        <v>129012</v>
+        <v>129772</v>
       </c>
       <c r="D3" s="62">
         <v>45706</v>
@@ -9555,7 +9559,7 @@
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>1044793</v>
+        <v>1049008</v>
       </c>
       <c r="D7" s="62">
         <v>45757</v>
@@ -9639,7 +9643,8 @@
         <v>179</v>
       </c>
       <c r="C12" s="3">
-        <v>92538</v>
+        <f>92538+4215</f>
+        <v>96753</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -9660,7 +9665,7 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>202145</v>
+        <v>206360</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -9679,7 +9684,7 @@
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>201733</v>
+        <v>205948</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0B5279-5E72-4DAD-AE50-EA0E1F25EBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CFBC57-3AA5-4E65-8643-C3ACBC65053D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -1500,10 +1500,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E3C748-2165-4E26-87D0-2D40C997FFD8}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1626,9 @@
         <f t="shared" ref="J3:J66" si="0">(H3+I3)</f>
         <v>6687</v>
       </c>
-      <c r="K3" s="21"/>
+      <c r="K3" s="21">
+        <v>6687</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -4169,7 +4171,7 @@
       </c>
       <c r="K74">
         <f>SUM(K2:K73)</f>
-        <v>276818</v>
+        <v>283505</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4212,8 +4214,8 @@
   <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9439,8 +9441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9475,7 +9477,7 @@
       </c>
       <c r="C2" s="3">
         <f>'Maintenance_01-Apr-2025_Onwards'!K74</f>
-        <v>276818</v>
+        <v>283505</v>
       </c>
       <c r="D2" s="62">
         <v>45686</v>
@@ -9559,7 +9561,7 @@
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>1049008</v>
+        <v>1055695</v>
       </c>
       <c r="D7" s="62">
         <v>45757</v>
@@ -9615,7 +9617,8 @@
         <v>174</v>
       </c>
       <c r="C10" s="3">
-        <v>91651</v>
+        <f>91651+6687</f>
+        <v>98338</v>
       </c>
       <c r="D10" s="62">
         <v>45761</v>
@@ -9665,7 +9668,7 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>206360</v>
+        <v>213047</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -9684,7 +9687,7 @@
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>205948</v>
+        <v>212635</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CFBC57-3AA5-4E65-8643-C3ACBC65053D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4160ED-4EED-4BF8-B136-0F5E546B1261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="237">
   <si>
     <t xml:space="preserve">S.no </t>
   </si>
@@ -816,6 +816,9 @@
   <si>
     <t xml:space="preserve">Mayur
 </t>
+  </si>
+  <si>
+    <t>garbage pickup march</t>
   </si>
 </sst>
 </file>
@@ -1506,22 +1509,22 @@
       <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="54" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="54" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="54" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="54" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="54" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="54" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="54" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="54" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="54" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>6414</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>26599</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1739,7 +1742,7 @@
       </c>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1774,7 +1777,7 @@
       </c>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1809,7 +1812,7 @@
       </c>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1844,7 +1847,7 @@
       </c>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1877,7 +1880,7 @@
       </c>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>5163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2023,7 +2026,7 @@
       </c>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2169,7 +2172,7 @@
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2352,7 +2355,7 @@
       </c>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>7770</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2461,7 +2464,7 @@
       </c>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2533,7 +2536,7 @@
       </c>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2568,7 +2571,7 @@
       </c>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>7297</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>7044</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>21982</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2788,7 +2791,7 @@
       </c>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>14858</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>13087</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2971,7 +2974,7 @@
       </c>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>24798</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -3154,7 +3157,7 @@
       </c>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -3189,7 +3192,7 @@
       </c>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -3226,7 +3229,7 @@
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -3261,7 +3264,7 @@
       </c>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -3296,7 +3299,7 @@
       </c>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -3368,7 +3371,7 @@
       </c>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>7836</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>4576</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -3477,7 +3480,7 @@
       </c>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -3549,7 +3552,7 @@
       </c>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>10113</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -3621,7 +3624,7 @@
       </c>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3730,7 +3733,7 @@
       </c>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3765,7 +3768,7 @@
       </c>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3800,7 +3803,7 @@
       </c>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -3874,7 +3877,7 @@
         <v>11827</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3909,7 +3912,7 @@
       </c>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3944,7 +3947,7 @@
       </c>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>7459</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -4051,7 +4054,7 @@
       </c>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -4086,7 +4089,7 @@
       </c>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -4121,7 +4124,7 @@
       </c>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -4158,7 +4161,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E74" s="2">
         <f>SUM(E2:E73)</f>
         <v>57993</v>
@@ -4174,32 +4177,32 @@
         <v>283505</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C77"/>
       <c r="E77" s="54"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D84"/>
       <c r="E84" s="54"/>
       <c r="F84" s="57"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D85"/>
       <c r="E85" s="54"/>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D86" s="38"/>
       <c r="E86" s="54"/>
       <c r="F86" s="57"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D87"/>
       <c r="E87" s="54"/>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D88"/>
       <c r="E88" s="54"/>
     </row>
@@ -4213,17 +4216,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0520B335-6D30-4762-9C4F-D400EB1F105F}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
@@ -4430,7 +4433,7 @@
       </c>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>8354</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
@@ -4644,7 +4647,7 @@
       </c>
       <c r="U6" s="21"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
@@ -4713,7 +4716,7 @@
       </c>
       <c r="U7" s="21"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
@@ -4782,7 +4785,7 @@
       </c>
       <c r="U8" s="21"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>9</v>
       </c>
@@ -4851,7 +4854,7 @@
       </c>
       <c r="U9" s="21"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>10</v>
       </c>
@@ -4920,7 +4923,7 @@
       </c>
       <c r="U10" s="21"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>12321</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>12</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>16777</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
@@ -5139,7 +5142,7 @@
         <v>18135</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
@@ -5210,7 +5213,7 @@
       </c>
       <c r="U14" s="21"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
@@ -5354,7 +5357,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>17</v>
       </c>
@@ -5427,7 +5430,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
@@ -5498,7 +5501,7 @@
       </c>
       <c r="U18" s="21"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>19</v>
       </c>
@@ -5569,7 +5572,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>20</v>
       </c>
@@ -5641,7 +5644,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>21</v>
       </c>
@@ -5712,7 +5715,7 @@
       </c>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>22</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>23</v>
       </c>
@@ -5854,7 +5857,7 @@
       </c>
       <c r="U23" s="21"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>24</v>
       </c>
@@ -5922,7 +5925,7 @@
       </c>
       <c r="U24" s="21"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>25</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>26</v>
       </c>
@@ -6064,7 +6067,7 @@
       </c>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>27</v>
       </c>
@@ -6137,7 +6140,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>28</v>
       </c>
@@ -6206,7 +6209,7 @@
       </c>
       <c r="U28" s="21"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>29</v>
       </c>
@@ -6279,7 +6282,7 @@
         <v>11079</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>30</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>31</v>
       </c>
@@ -6422,7 +6425,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>32</v>
       </c>
@@ -6492,7 +6495,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>33</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>34</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>35</v>
       </c>
@@ -6702,7 +6705,7 @@
       </c>
       <c r="U35" s="21"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>36</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>37</v>
       </c>
@@ -6842,7 +6845,7 @@
       </c>
       <c r="U37" s="21"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>38</v>
       </c>
@@ -6915,7 +6918,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>39</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>40</v>
       </c>
@@ -7055,7 +7058,7 @@
       </c>
       <c r="U40" s="21"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
         <v>41</v>
       </c>
@@ -7128,7 +7131,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="45">
         <v>101</v>
       </c>
@@ -7201,7 +7204,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>42</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="45">
         <v>102</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="45">
         <v>103</v>
       </c>
@@ -7414,7 +7417,7 @@
       </c>
       <c r="U45" s="21"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="45">
         <v>104</v>
       </c>
@@ -7483,7 +7486,7 @@
       </c>
       <c r="U46" s="21"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="45">
         <v>105</v>
       </c>
@@ -7554,7 +7557,7 @@
       </c>
       <c r="U47" s="21"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="45">
         <v>106</v>
       </c>
@@ -7625,7 +7628,7 @@
       </c>
       <c r="U48" s="21"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
         <v>43</v>
       </c>
@@ -7694,7 +7697,7 @@
       </c>
       <c r="U49" s="21"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="45">
         <v>107</v>
       </c>
@@ -7767,7 +7770,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="45">
         <v>108</v>
       </c>
@@ -7836,7 +7839,7 @@
       </c>
       <c r="U51" s="21"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
         <v>44</v>
       </c>
@@ -7907,7 +7910,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="45">
         <v>109</v>
       </c>
@@ -7980,7 +7983,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="45">
         <v>110</v>
       </c>
@@ -8049,7 +8052,7 @@
       </c>
       <c r="U54" s="21"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="45">
         <v>111</v>
       </c>
@@ -8122,7 +8125,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="45">
         <v>112</v>
       </c>
@@ -8191,7 +8194,7 @@
       </c>
       <c r="U56" s="21"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
         <v>45</v>
       </c>
@@ -8262,7 +8265,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="45">
         <v>114</v>
       </c>
@@ -8330,7 +8333,7 @@
       </c>
       <c r="U58" s="21"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
         <v>46</v>
       </c>
@@ -8403,7 +8406,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="45" t="s">
         <v>47</v>
       </c>
@@ -8476,7 +8479,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="45">
         <v>115</v>
       </c>
@@ -8545,7 +8548,7 @@
       </c>
       <c r="U61" s="21"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="45">
         <v>116</v>
       </c>
@@ -8614,7 +8617,7 @@
       </c>
       <c r="U62" s="21"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="45">
         <v>117</v>
       </c>
@@ -8683,7 +8686,7 @@
       </c>
       <c r="U63" s="21"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="45">
         <v>118</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="45">
         <v>119</v>
       </c>
@@ -8827,7 +8830,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="45">
         <v>120</v>
       </c>
@@ -8896,7 +8899,7 @@
       </c>
       <c r="U66" s="21"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="45">
         <v>121</v>
       </c>
@@ -8967,7 +8970,7 @@
       </c>
       <c r="U67" s="21"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="45" t="s">
         <v>158</v>
       </c>
@@ -9038,7 +9041,7 @@
       </c>
       <c r="U68" s="21"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="45">
         <v>123</v>
       </c>
@@ -9109,7 +9112,7 @@
       </c>
       <c r="U69" s="21"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="45">
         <v>124</v>
       </c>
@@ -9180,7 +9183,7 @@
       </c>
       <c r="U70" s="21"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="45">
         <v>125</v>
       </c>
@@ -9251,7 +9254,7 @@
       </c>
       <c r="U71" s="21"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="45">
         <v>126</v>
       </c>
@@ -9321,7 +9324,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -9366,7 +9369,7 @@
         <v>129772</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -9398,7 +9401,7 @@
       <c r="T74" s="21"/>
       <c r="U74" s="21"/>
     </row>
-    <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -9441,20 +9444,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>197</v>
       </c>
@@ -9471,7 +9474,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>209</v>
       </c>
@@ -9492,7 +9495,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>210</v>
       </c>
@@ -9513,7 +9516,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D4" s="62">
         <v>45733</v>
       </c>
@@ -9527,7 +9530,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D5" s="62">
         <v>45727</v>
       </c>
@@ -9541,7 +9544,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D6" s="62">
         <v>111491</v>
       </c>
@@ -9555,7 +9558,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>196</v>
       </c>
@@ -9577,7 +9580,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D8" s="62">
         <v>45761</v>
       </c>
@@ -9591,7 +9594,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>186</v>
       </c>
@@ -9612,13 +9615,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>174</v>
       </c>
       <c r="C10" s="3">
-        <f>91651+6687</f>
-        <v>98338</v>
+        <f>91651+6687-10000</f>
+        <v>88338</v>
       </c>
       <c r="D10" s="62">
         <v>45761</v>
@@ -9633,15 +9636,24 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="3">
         <v>17668</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11">
+        <v>10000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>179</v>
       </c>
@@ -9650,7 +9662,7 @@
         <v>96753</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>211</v>
       </c>
@@ -9659,47 +9671,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>213047</v>
+        <v>203047</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
       </c>
       <c r="F15">
         <f>SUM(F2:F14)</f>
-        <v>843060</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>853060</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>202</v>
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>212635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>202635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="48"/>
       <c r="B20" s="3" t="s">
         <v>203</v>
@@ -9710,15 +9722,15 @@
       </c>
       <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="48"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
     </row>
   </sheetData>
@@ -9736,24 +9748,24 @@
       <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="11" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9801,7 +9813,7 @@
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -9852,7 +9864,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -9901,7 +9913,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -9948,7 +9960,7 @@
       <c r="O4" s="21"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -9997,7 +10009,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -10048,7 +10060,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -10097,7 +10109,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -10144,7 +10156,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -10191,7 +10203,7 @@
       <c r="O9" s="21"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -10236,7 +10248,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -10285,7 +10297,7 @@
       <c r="O11" s="21"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -10336,7 +10348,7 @@
       <c r="O12" s="21"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -10387,7 +10399,7 @@
       <c r="O13" s="21"/>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -10438,7 +10450,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -10489,7 +10501,7 @@
       <c r="O15" s="21"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -10540,7 +10552,7 @@
       <c r="O16" s="21"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -10591,7 +10603,7 @@
       <c r="O17" s="21"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -10642,7 +10654,7 @@
       <c r="O18" s="21"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -10689,7 +10701,7 @@
       <c r="O19" s="21"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -10740,7 +10752,7 @@
       <c r="O20" s="21"/>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -10791,7 +10803,7 @@
       <c r="O21" s="21"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -10842,7 +10854,7 @@
       <c r="O22" s="21"/>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -10891,7 +10903,7 @@
       </c>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -10938,7 +10950,7 @@
       <c r="O24" s="21"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -10989,7 +11001,7 @@
       <c r="O25" s="21"/>
       <c r="P25" s="17"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -11036,7 +11048,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -11087,7 +11099,7 @@
       <c r="O27" s="21"/>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -11134,7 +11146,7 @@
       <c r="O28" s="21"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -11181,7 +11193,7 @@
       <c r="O29" s="21"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -11230,7 +11242,7 @@
       <c r="O30" s="21"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -11281,7 +11293,7 @@
       <c r="O31" s="21"/>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -11330,7 +11342,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -11379,7 +11391,7 @@
       <c r="O33" s="21"/>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -11426,7 +11438,7 @@
       <c r="O34" s="21"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -11475,7 +11487,7 @@
       <c r="O35" s="21"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -11522,7 +11534,7 @@
       <c r="O36" s="22"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -11571,7 +11583,7 @@
       <c r="O37" s="21"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -11622,7 +11634,7 @@
       <c r="O38" s="21"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -11669,7 +11681,7 @@
       <c r="O39" s="21"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -11720,7 +11732,7 @@
       <c r="O40" s="21"/>
       <c r="P40" s="17"/>
     </row>
-    <row r="41" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -11771,7 +11783,7 @@
       <c r="O41" s="21"/>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -11824,7 +11836,7 @@
       </c>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -11877,7 +11889,7 @@
       </c>
       <c r="P43" s="17"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -11924,7 +11936,7 @@
       <c r="O44" s="21"/>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -11973,7 +11985,7 @@
       <c r="O45" s="21"/>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -12022,7 +12034,7 @@
       <c r="O46" s="21"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -12074,7 +12086,7 @@
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -12125,7 +12137,7 @@
       <c r="O48" s="22"/>
       <c r="P48" s="17"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -12172,7 +12184,7 @@
       <c r="O49" s="21"/>
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -12223,7 +12235,7 @@
       <c r="O50" s="21"/>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -12272,7 +12284,7 @@
       <c r="O51" s="21"/>
       <c r="P51" s="17"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -12321,7 +12333,7 @@
       <c r="O52" s="21"/>
       <c r="P52" s="17"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -12372,7 +12384,7 @@
       <c r="O53" s="21"/>
       <c r="P53" s="8"/>
     </row>
-    <row r="54" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -12421,7 +12433,7 @@
       <c r="O54" s="22"/>
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -12471,7 +12483,7 @@
       <c r="O55" s="22"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -12520,7 +12532,7 @@
       <c r="O56" s="22"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -12567,7 +12579,7 @@
       <c r="O57" s="22"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -12616,7 +12628,7 @@
       </c>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -12665,7 +12677,7 @@
       <c r="O59" s="21"/>
       <c r="P59" s="17"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -12714,7 +12726,7 @@
       <c r="O60" s="21"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -12761,7 +12773,7 @@
       <c r="O61" s="21"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -12808,7 +12820,7 @@
       <c r="O62" s="21"/>
       <c r="P62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -12855,7 +12867,7 @@
       <c r="O63" s="21"/>
       <c r="P63" s="8"/>
     </row>
-    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -12906,7 +12918,7 @@
       <c r="O64" s="21"/>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -12953,7 +12965,7 @@
       <c r="O65" s="21"/>
       <c r="P65" s="8"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -13000,7 +13012,7 @@
       <c r="O66" s="21"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -13049,7 +13061,7 @@
       <c r="O67" s="21"/>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -13100,7 +13112,7 @@
       <c r="O68" s="22"/>
       <c r="P68" s="8"/>
     </row>
-    <row r="69" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -13149,7 +13161,7 @@
       <c r="O69" s="22"/>
       <c r="P69" s="8"/>
     </row>
-    <row r="70" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -13200,7 +13212,7 @@
       <c r="O70" s="22"/>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -13251,7 +13263,7 @@
       <c r="O71" s="21"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -13300,7 +13312,7 @@
       <c r="O72" s="21"/>
       <c r="P72" s="8"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -13347,7 +13359,7 @@
       <c r="O73" s="21"/>
       <c r="P73" s="8"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E74" s="3">
         <f>SUM(E2:E73)</f>
         <v>57993</v>
@@ -13377,7 +13389,7 @@
       </c>
       <c r="N74" s="19"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>163</v>
       </c>
@@ -13386,7 +13398,7 @@
         <v>719150</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D78" s="2" t="s">
         <v>164</v>
       </c>
@@ -13395,28 +13407,28 @@
         <v>430473</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" s="42"/>
       <c r="H84" s="23"/>
       <c r="I84" s="19"/>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D85"/>
       <c r="E85"/>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D86" s="38"/>
       <c r="E86"/>
       <c r="F86" s="42"/>
       <c r="H86" s="38"/>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D87"/>
       <c r="E87"/>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D88"/>
       <c r="E88"/>
     </row>
@@ -13435,15 +13447,15 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>165</v>
       </c>
@@ -13459,7 +13471,7 @@
         <v>312867.11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>161</v>
       </c>
@@ -13475,7 +13487,7 @@
         <v>211945</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>166</v>
       </c>
@@ -13491,7 +13503,7 @@
         <v>100922.10999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>168</v>
       </c>
@@ -13500,12 +13512,12 @@
         <v>642418</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>176</v>
       </c>
@@ -13513,7 +13525,7 @@
         <v>18043</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>170</v>
       </c>
@@ -13524,7 +13536,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="48">
         <v>45733</v>
       </c>
@@ -13538,7 +13550,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="48">
         <v>45727</v>
       </c>
@@ -13549,7 +13561,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="48">
         <v>45748</v>
       </c>
@@ -13560,7 +13572,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>172</v>
       </c>
@@ -13569,7 +13581,7 @@
         <v>416100</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>173</v>
       </c>
@@ -13578,7 +13590,7 @@
         <v>226318</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>186</v>
       </c>
@@ -13586,7 +13598,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>174</v>
       </c>
@@ -13595,7 +13607,7 @@
         <v>117636</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>175</v>
       </c>
@@ -13604,7 +13616,7 @@
         <v>67347</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>179</v>
       </c>
@@ -13613,7 +13625,7 @@
         <v>40543</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>146</v>
       </c>
@@ -13622,7 +13634,7 @@
         <v>226896</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>180</v>
       </c>
@@ -13644,18 +13656,18 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="11"/>
-    <col min="3" max="3" width="10.7109375" style="11" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" style="11" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="11"/>
+    <col min="3" max="3" width="10.6640625" style="11" customWidth="1"/>
+    <col min="4" max="5" width="12.109375" style="11" customWidth="1"/>
+    <col min="6" max="7" width="13.88671875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>212</v>
       </c>
@@ -13676,7 +13688,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
         <v>218</v>
       </c>
@@ -13699,7 +13711,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>215</v>
       </c>
@@ -13719,7 +13731,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>111</v>
       </c>
@@ -13739,7 +13751,7 @@
         <v>7086</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>216</v>
       </c>
@@ -13759,7 +13771,7 @@
         <v>22063</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>39</v>
       </c>
@@ -13779,7 +13791,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
@@ -13799,7 +13811,7 @@
         <v>24798</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>45</v>
       </c>
@@ -13819,7 +13831,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>217</v>
       </c>
@@ -13839,7 +13851,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>126</v>
       </c>
@@ -13859,7 +13871,7 @@
         <v>14384</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -13879,7 +13891,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>219</v>
       </c>
@@ -13893,7 +13905,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
@@ -13907,7 +13919,7 @@
         <v>21772</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>222</v>
       </c>
@@ -13921,7 +13933,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C17" s="11" t="s">
         <v>47</v>
       </c>
@@ -13930,7 +13942,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C18" s="11" t="s">
         <v>5</v>
       </c>
@@ -13938,17 +13950,17 @@
         <v>11114</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D19" s="11">
         <v>53000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C20" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>140</v>
       </c>

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4160ED-4EED-4BF8-B136-0F5E546B1261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A008F9A3-E10F-430C-B49D-376EBAF2EA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -1509,22 +1509,22 @@
       <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" style="54" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="54" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="54" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="54" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="54" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="54" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>6414</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>26599</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>5163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>7770</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>7297</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>7044</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>21982</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>14858</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>13087</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>24798</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>7836</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>4576</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>10113</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>11827</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>7459</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E74" s="2">
         <f>SUM(E2:E73)</f>
         <v>57993</v>
@@ -4177,32 +4177,32 @@
         <v>283505</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C77"/>
       <c r="E77" s="54"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D84"/>
       <c r="E84" s="54"/>
       <c r="F84" s="57"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D85"/>
       <c r="E85" s="54"/>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D86" s="38"/>
       <c r="E86" s="54"/>
       <c r="F86" s="57"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D87"/>
       <c r="E87" s="54"/>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D88"/>
       <c r="E88" s="54"/>
     </row>
@@ -4216,17 +4216,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0520B335-6D30-4762-9C4F-D400EB1F105F}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>8354</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="U6" s="21"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="U7" s="21"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="U8" s="21"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>9</v>
       </c>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="U9" s="21"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>10</v>
       </c>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="U10" s="21"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>12321</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>12</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>16777</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>18135</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="U14" s="21"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>17</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="U18" s="21"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>19</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>20</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>21</v>
       </c>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>22</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>23</v>
       </c>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="U23" s="21"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>24</v>
       </c>
@@ -5923,9 +5923,11 @@
         <f t="shared" si="8"/>
         <v>2566</v>
       </c>
-      <c r="U24" s="21"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U24" s="21">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>25</v>
       </c>
@@ -5998,7 +6000,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>26</v>
       </c>
@@ -6067,7 +6069,7 @@
       </c>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>27</v>
       </c>
@@ -6140,7 +6142,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>28</v>
       </c>
@@ -6209,7 +6211,7 @@
       </c>
       <c r="U28" s="21"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>29</v>
       </c>
@@ -6282,7 +6284,7 @@
         <v>11079</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>30</v>
       </c>
@@ -6355,7 +6357,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>31</v>
       </c>
@@ -6425,7 +6427,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>32</v>
       </c>
@@ -6495,7 +6497,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>33</v>
       </c>
@@ -6564,7 +6566,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>34</v>
       </c>
@@ -6634,7 +6636,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>35</v>
       </c>
@@ -6705,7 +6707,7 @@
       </c>
       <c r="U35" s="21"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>36</v>
       </c>
@@ -6776,7 +6778,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>37</v>
       </c>
@@ -6845,7 +6847,7 @@
       </c>
       <c r="U37" s="21"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>38</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>39</v>
       </c>
@@ -6988,7 +6990,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>40</v>
       </c>
@@ -7058,7 +7060,7 @@
       </c>
       <c r="U40" s="21"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>41</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>101</v>
       </c>
@@ -7204,7 +7206,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>42</v>
       </c>
@@ -7277,7 +7279,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>102</v>
       </c>
@@ -7348,7 +7350,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
         <v>103</v>
       </c>
@@ -7417,7 +7419,7 @@
       </c>
       <c r="U45" s="21"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>104</v>
       </c>
@@ -7486,7 +7488,7 @@
       </c>
       <c r="U46" s="21"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>105</v>
       </c>
@@ -7557,7 +7559,7 @@
       </c>
       <c r="U47" s="21"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>106</v>
       </c>
@@ -7628,7 +7630,7 @@
       </c>
       <c r="U48" s="21"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>43</v>
       </c>
@@ -7697,7 +7699,7 @@
       </c>
       <c r="U49" s="21"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>107</v>
       </c>
@@ -7770,7 +7772,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>108</v>
       </c>
@@ -7839,7 +7841,7 @@
       </c>
       <c r="U51" s="21"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
         <v>44</v>
       </c>
@@ -7910,7 +7912,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="45">
         <v>109</v>
       </c>
@@ -7983,7 +7985,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>110</v>
       </c>
@@ -8052,7 +8054,7 @@
       </c>
       <c r="U54" s="21"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>111</v>
       </c>
@@ -8125,7 +8127,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>112</v>
       </c>
@@ -8194,7 +8196,7 @@
       </c>
       <c r="U56" s="21"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
         <v>45</v>
       </c>
@@ -8265,7 +8267,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>114</v>
       </c>
@@ -8333,7 +8335,7 @@
       </c>
       <c r="U58" s="21"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
         <v>46</v>
       </c>
@@ -8406,7 +8408,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="45" t="s">
         <v>47</v>
       </c>
@@ -8479,7 +8481,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
         <v>115</v>
       </c>
@@ -8548,7 +8550,7 @@
       </c>
       <c r="U61" s="21"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <v>116</v>
       </c>
@@ -8617,7 +8619,7 @@
       </c>
       <c r="U62" s="21"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="45">
         <v>117</v>
       </c>
@@ -8686,7 +8688,7 @@
       </c>
       <c r="U63" s="21"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="45">
         <v>118</v>
       </c>
@@ -8759,7 +8761,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="45">
         <v>119</v>
       </c>
@@ -8830,7 +8832,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="45">
         <v>120</v>
       </c>
@@ -8899,7 +8901,7 @@
       </c>
       <c r="U66" s="21"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
         <v>121</v>
       </c>
@@ -8970,7 +8972,7 @@
       </c>
       <c r="U67" s="21"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="45" t="s">
         <v>158</v>
       </c>
@@ -9041,7 +9043,7 @@
       </c>
       <c r="U68" s="21"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="45">
         <v>123</v>
       </c>
@@ -9112,7 +9114,7 @@
       </c>
       <c r="U69" s="21"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="45">
         <v>124</v>
       </c>
@@ -9183,7 +9185,7 @@
       </c>
       <c r="U70" s="21"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>125</v>
       </c>
@@ -9254,7 +9256,7 @@
       </c>
       <c r="U71" s="21"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="45">
         <v>126</v>
       </c>
@@ -9324,7 +9326,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -9366,10 +9368,10 @@
       <c r="T73" s="21"/>
       <c r="U73" s="20">
         <f>SUM(U2:U72)</f>
-        <v>129772</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>132338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -9401,7 +9403,7 @@
       <c r="T74" s="21"/>
       <c r="U74" s="21"/>
     </row>
-    <row r="75" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -9444,20 +9446,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>197</v>
       </c>
@@ -9474,7 +9476,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>209</v>
       </c>
@@ -9495,13 +9497,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>210</v>
       </c>
       <c r="C3" s="3">
         <f>EB!U73</f>
-        <v>129772</v>
+        <v>132338</v>
       </c>
       <c r="D3" s="62">
         <v>45706</v>
@@ -9516,7 +9518,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D4" s="62">
         <v>45733</v>
       </c>
@@ -9530,7 +9532,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D5" s="62">
         <v>45727</v>
       </c>
@@ -9544,7 +9546,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D6" s="62">
         <v>111491</v>
       </c>
@@ -9558,13 +9560,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>196</v>
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>1055695</v>
+        <v>1058261</v>
       </c>
       <c r="D7" s="62">
         <v>45757</v>
@@ -9580,7 +9582,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D8" s="62">
         <v>45761</v>
       </c>
@@ -9594,7 +9596,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>186</v>
       </c>
@@ -9615,7 +9617,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -9636,12 +9638,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="3">
-        <v>17668</v>
+        <f>17668+2566</f>
+        <v>20234</v>
       </c>
       <c r="E11" t="s">
         <v>236</v>
@@ -9653,7 +9656,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>179</v>
       </c>
@@ -9662,7 +9665,7 @@
         <v>96753</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>211</v>
       </c>
@@ -9671,16 +9674,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>203047</v>
+        <v>205613</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -9690,28 +9693,28 @@
         <v>853060</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>202</v>
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>202635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>205201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="3" t="s">
         <v>203</v>
@@ -9722,15 +9725,15 @@
       </c>
       <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
     </row>
   </sheetData>
@@ -9748,24 +9751,24 @@
       <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="11" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
-    <col min="15" max="15" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9813,7 +9816,7 @@
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -9864,7 +9867,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -9913,7 +9916,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -9960,7 +9963,7 @@
       <c r="O4" s="21"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -10009,7 +10012,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -10060,7 +10063,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -10109,7 +10112,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -10156,7 +10159,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -10203,7 +10206,7 @@
       <c r="O9" s="21"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -10248,7 +10251,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -10297,7 +10300,7 @@
       <c r="O11" s="21"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -10348,7 +10351,7 @@
       <c r="O12" s="21"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -10399,7 +10402,7 @@
       <c r="O13" s="21"/>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -10450,7 +10453,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -10501,7 +10504,7 @@
       <c r="O15" s="21"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -10552,7 +10555,7 @@
       <c r="O16" s="21"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -10603,7 +10606,7 @@
       <c r="O17" s="21"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -10654,7 +10657,7 @@
       <c r="O18" s="21"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -10701,7 +10704,7 @@
       <c r="O19" s="21"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -10752,7 +10755,7 @@
       <c r="O20" s="21"/>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -10803,7 +10806,7 @@
       <c r="O21" s="21"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -10854,7 +10857,7 @@
       <c r="O22" s="21"/>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -10903,7 +10906,7 @@
       </c>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -10950,7 +10953,7 @@
       <c r="O24" s="21"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -11001,7 +11004,7 @@
       <c r="O25" s="21"/>
       <c r="P25" s="17"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -11048,7 +11051,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -11099,7 +11102,7 @@
       <c r="O27" s="21"/>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -11146,7 +11149,7 @@
       <c r="O28" s="21"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -11193,7 +11196,7 @@
       <c r="O29" s="21"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -11242,7 +11245,7 @@
       <c r="O30" s="21"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -11293,7 +11296,7 @@
       <c r="O31" s="21"/>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -11342,7 +11345,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -11391,7 +11394,7 @@
       <c r="O33" s="21"/>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -11438,7 +11441,7 @@
       <c r="O34" s="21"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -11487,7 +11490,7 @@
       <c r="O35" s="21"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -11534,7 +11537,7 @@
       <c r="O36" s="22"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -11583,7 +11586,7 @@
       <c r="O37" s="21"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -11634,7 +11637,7 @@
       <c r="O38" s="21"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -11681,7 +11684,7 @@
       <c r="O39" s="21"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -11732,7 +11735,7 @@
       <c r="O40" s="21"/>
       <c r="P40" s="17"/>
     </row>
-    <row r="41" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -11783,7 +11786,7 @@
       <c r="O41" s="21"/>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -11836,7 +11839,7 @@
       </c>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -11889,7 +11892,7 @@
       </c>
       <c r="P43" s="17"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -11936,7 +11939,7 @@
       <c r="O44" s="21"/>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -11985,7 +11988,7 @@
       <c r="O45" s="21"/>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -12034,7 +12037,7 @@
       <c r="O46" s="21"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -12086,7 +12089,7 @@
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -12137,7 +12140,7 @@
       <c r="O48" s="22"/>
       <c r="P48" s="17"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -12184,7 +12187,7 @@
       <c r="O49" s="21"/>
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -12235,7 +12238,7 @@
       <c r="O50" s="21"/>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -12284,7 +12287,7 @@
       <c r="O51" s="21"/>
       <c r="P51" s="17"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -12333,7 +12336,7 @@
       <c r="O52" s="21"/>
       <c r="P52" s="17"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -12384,7 +12387,7 @@
       <c r="O53" s="21"/>
       <c r="P53" s="8"/>
     </row>
-    <row r="54" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -12433,7 +12436,7 @@
       <c r="O54" s="22"/>
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -12483,7 +12486,7 @@
       <c r="O55" s="22"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -12532,7 +12535,7 @@
       <c r="O56" s="22"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -12579,7 +12582,7 @@
       <c r="O57" s="22"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -12628,7 +12631,7 @@
       </c>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -12677,7 +12680,7 @@
       <c r="O59" s="21"/>
       <c r="P59" s="17"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -12726,7 +12729,7 @@
       <c r="O60" s="21"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -12773,7 +12776,7 @@
       <c r="O61" s="21"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -12820,7 +12823,7 @@
       <c r="O62" s="21"/>
       <c r="P62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -12867,7 +12870,7 @@
       <c r="O63" s="21"/>
       <c r="P63" s="8"/>
     </row>
-    <row r="64" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -12918,7 +12921,7 @@
       <c r="O64" s="21"/>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -12965,7 +12968,7 @@
       <c r="O65" s="21"/>
       <c r="P65" s="8"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -13012,7 +13015,7 @@
       <c r="O66" s="21"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -13061,7 +13064,7 @@
       <c r="O67" s="21"/>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -13112,7 +13115,7 @@
       <c r="O68" s="22"/>
       <c r="P68" s="8"/>
     </row>
-    <row r="69" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -13161,7 +13164,7 @@
       <c r="O69" s="22"/>
       <c r="P69" s="8"/>
     </row>
-    <row r="70" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -13212,7 +13215,7 @@
       <c r="O70" s="22"/>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -13263,7 +13266,7 @@
       <c r="O71" s="21"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -13312,7 +13315,7 @@
       <c r="O72" s="21"/>
       <c r="P72" s="8"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -13359,7 +13362,7 @@
       <c r="O73" s="21"/>
       <c r="P73" s="8"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E74" s="3">
         <f>SUM(E2:E73)</f>
         <v>57993</v>
@@ -13389,7 +13392,7 @@
       </c>
       <c r="N74" s="19"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>163</v>
       </c>
@@ -13398,7 +13401,7 @@
         <v>719150</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D78" s="2" t="s">
         <v>164</v>
       </c>
@@ -13407,28 +13410,28 @@
         <v>430473</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" s="42"/>
       <c r="H84" s="23"/>
       <c r="I84" s="19"/>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D85"/>
       <c r="E85"/>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D86" s="38"/>
       <c r="E86"/>
       <c r="F86" s="42"/>
       <c r="H86" s="38"/>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D87"/>
       <c r="E87"/>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D88"/>
       <c r="E88"/>
     </row>
@@ -13447,15 +13450,15 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>165</v>
       </c>
@@ -13471,7 +13474,7 @@
         <v>312867.11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>161</v>
       </c>
@@ -13487,7 +13490,7 @@
         <v>211945</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>166</v>
       </c>
@@ -13503,7 +13506,7 @@
         <v>100922.10999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>168</v>
       </c>
@@ -13512,12 +13515,12 @@
         <v>642418</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>176</v>
       </c>
@@ -13525,7 +13528,7 @@
         <v>18043</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>170</v>
       </c>
@@ -13536,7 +13539,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="48">
         <v>45733</v>
       </c>
@@ -13550,7 +13553,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="48">
         <v>45727</v>
       </c>
@@ -13561,7 +13564,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="48">
         <v>45748</v>
       </c>
@@ -13572,7 +13575,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>172</v>
       </c>
@@ -13581,7 +13584,7 @@
         <v>416100</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>173</v>
       </c>
@@ -13590,7 +13593,7 @@
         <v>226318</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>186</v>
       </c>
@@ -13598,7 +13601,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>174</v>
       </c>
@@ -13607,7 +13610,7 @@
         <v>117636</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>175</v>
       </c>
@@ -13616,7 +13619,7 @@
         <v>67347</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>179</v>
       </c>
@@ -13625,7 +13628,7 @@
         <v>40543</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>146</v>
       </c>
@@ -13634,7 +13637,7 @@
         <v>226896</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>180</v>
       </c>
@@ -13656,18 +13659,18 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="11"/>
-    <col min="3" max="3" width="10.6640625" style="11" customWidth="1"/>
-    <col min="4" max="5" width="12.109375" style="11" customWidth="1"/>
-    <col min="6" max="7" width="13.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="11"/>
+    <col min="3" max="3" width="10.7109375" style="11" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="11" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
         <v>212</v>
       </c>
@@ -13688,7 +13691,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>218</v>
       </c>
@@ -13711,7 +13714,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>215</v>
       </c>
@@ -13731,7 +13734,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>111</v>
       </c>
@@ -13751,7 +13754,7 @@
         <v>7086</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>216</v>
       </c>
@@ -13771,7 +13774,7 @@
         <v>22063</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>39</v>
       </c>
@@ -13791,7 +13794,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
@@ -13811,7 +13814,7 @@
         <v>24798</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>45</v>
       </c>
@@ -13831,7 +13834,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>217</v>
       </c>
@@ -13851,7 +13854,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>126</v>
       </c>
@@ -13871,7 +13874,7 @@
         <v>14384</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -13891,7 +13894,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>219</v>
       </c>
@@ -13905,7 +13908,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
@@ -13919,7 +13922,7 @@
         <v>21772</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>222</v>
       </c>
@@ -13933,7 +13936,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C17" s="11" t="s">
         <v>47</v>
       </c>
@@ -13942,7 +13945,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" s="11" t="s">
         <v>5</v>
       </c>
@@ -13950,17 +13953,17 @@
         <v>11114</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D19" s="11">
         <v>53000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>140</v>
       </c>

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A008F9A3-E10F-430C-B49D-376EBAF2EA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E44680-DF2E-4200-AD96-DC21F9E738EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -1503,10 +1503,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E3C748-2165-4E26-87D0-2D40C997FFD8}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2170,9 @@
         <f t="shared" si="0"/>
         <v>2701</v>
       </c>
-      <c r="K18" s="21"/>
+      <c r="K18" s="21">
+        <v>2700</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -4174,7 +4176,7 @@
       </c>
       <c r="K74">
         <f>SUM(K2:K73)</f>
-        <v>283505</v>
+        <v>286205</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -9446,8 +9448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9482,7 +9484,7 @@
       </c>
       <c r="C2" s="3">
         <f>'Maintenance_01-Apr-2025_Onwards'!K74</f>
-        <v>283505</v>
+        <v>286205</v>
       </c>
       <c r="D2" s="62">
         <v>45686</v>
@@ -9566,7 +9568,7 @@
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>1058261</v>
+        <v>1060961</v>
       </c>
       <c r="D7" s="62">
         <v>45757</v>
@@ -9622,8 +9624,8 @@
         <v>174</v>
       </c>
       <c r="C10" s="3">
-        <f>91651+6687-10000</f>
-        <v>88338</v>
+        <f>91651+6687-10000+2700</f>
+        <v>91038</v>
       </c>
       <c r="D10" s="62">
         <v>45761</v>
@@ -9683,7 +9685,7 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>205613</v>
+        <v>208313</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -9702,7 +9704,7 @@
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>205201</v>
+        <v>207901</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E44680-DF2E-4200-AD96-DC21F9E738EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2631431-D57A-4FF8-A09C-D469DEEDD4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="237">
   <si>
     <t xml:space="preserve">S.no </t>
   </si>
@@ -1503,10 +1503,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E3C748-2165-4E26-87D0-2D40C997FFD8}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,8 +4219,8 @@
   <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U67" sqref="U67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9448,7 +9448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -9624,8 +9624,8 @@
         <v>174</v>
       </c>
       <c r="C10" s="3">
-        <f>91651+6687-10000+2700</f>
-        <v>91038</v>
+        <f>91651+6687-10000+2700-36400</f>
+        <v>54638</v>
       </c>
       <c r="D10" s="62">
         <v>45761</v>
@@ -9648,6 +9648,9 @@
         <f>17668+2566</f>
         <v>20234</v>
       </c>
+      <c r="D11" s="62">
+        <v>45763</v>
+      </c>
       <c r="E11" t="s">
         <v>236</v>
       </c>
@@ -9666,6 +9669,18 @@
         <f>92538+4215</f>
         <v>96753</v>
       </c>
+      <c r="D12" s="62">
+        <v>45756</v>
+      </c>
+      <c r="E12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12">
+        <v>18198</v>
+      </c>
+      <c r="G12" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -9675,6 +9690,18 @@
         <f>withWhom!H26</f>
         <v>0</v>
       </c>
+      <c r="D13" s="62">
+        <v>45763</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13">
+        <v>18198</v>
+      </c>
+      <c r="G13" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -9685,14 +9712,14 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>208313</v>
+        <v>171913</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
       </c>
       <c r="F15">
         <f>SUM(F2:F14)</f>
-        <v>853060</v>
+        <v>889456</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -9704,7 +9731,7 @@
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>207901</v>
+        <v>171505</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9723,7 +9750,7 @@
       </c>
       <c r="C20" s="3">
         <f>C17-C15</f>
-        <v>-412</v>
+        <v>-408</v>
       </c>
       <c r="E20" s="38"/>
     </row>

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2631431-D57A-4FF8-A09C-D469DEEDD4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7358DEF-F900-4463-8BBA-5EFE280729F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -1504,27 +1504,27 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
+      <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="54" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="54" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="54" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="54" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="54" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="54" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="54" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="54" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="54" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>6414</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>26599</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>5163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>7770</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>7297</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>7044</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>21982</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>14858</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>13087</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>24798</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>7836</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>4576</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>10113</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>11827</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>7459</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -4089,9 +4089,11 @@
         <f t="shared" si="2"/>
         <v>2629</v>
       </c>
-      <c r="K71" s="21"/>
-    </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K71" s="21">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -4126,7 +4128,7 @@
       </c>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E74" s="2">
         <f>SUM(E2:E73)</f>
         <v>57993</v>
@@ -4176,35 +4178,35 @@
       </c>
       <c r="K74">
         <f>SUM(K2:K73)</f>
-        <v>286205</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>288834</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C77"/>
       <c r="E77" s="54"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D84"/>
       <c r="E84" s="54"/>
       <c r="F84" s="57"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D85"/>
       <c r="E85" s="54"/>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D86" s="38"/>
       <c r="E86" s="54"/>
       <c r="F86" s="57"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D87"/>
       <c r="E87" s="54"/>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D88"/>
       <c r="E88" s="54"/>
     </row>
@@ -4219,16 +4221,16 @@
   <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U67" sqref="U67"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -4366,7 +4368,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
@@ -4435,7 +4437,7 @@
       </c>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -4505,7 +4507,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
@@ -4578,7 +4580,7 @@
         <v>8354</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
@@ -4649,7 +4651,7 @@
       </c>
       <c r="U6" s="21"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
@@ -4718,7 +4720,7 @@
       </c>
       <c r="U7" s="21"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
@@ -4787,7 +4789,7 @@
       </c>
       <c r="U8" s="21"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>9</v>
       </c>
@@ -4856,7 +4858,7 @@
       </c>
       <c r="U9" s="21"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>10</v>
       </c>
@@ -4925,7 +4927,7 @@
       </c>
       <c r="U10" s="21"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
@@ -4998,7 +5000,7 @@
         <v>12321</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>12</v>
       </c>
@@ -5071,7 +5073,7 @@
         <v>16777</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
@@ -5144,7 +5146,7 @@
         <v>18135</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
@@ -5215,7 +5217,7 @@
       </c>
       <c r="U14" s="21"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
@@ -5288,7 +5290,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
@@ -5359,7 +5361,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>17</v>
       </c>
@@ -5432,7 +5434,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
@@ -5503,7 +5505,7 @@
       </c>
       <c r="U18" s="21"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>19</v>
       </c>
@@ -5574,7 +5576,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>20</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>21</v>
       </c>
@@ -5717,7 +5719,7 @@
       </c>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>22</v>
       </c>
@@ -5790,7 +5792,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>23</v>
       </c>
@@ -5859,7 +5861,7 @@
       </c>
       <c r="U23" s="21"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>24</v>
       </c>
@@ -5929,7 +5931,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>25</v>
       </c>
@@ -6002,7 +6004,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>26</v>
       </c>
@@ -6071,7 +6073,7 @@
       </c>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>27</v>
       </c>
@@ -6144,7 +6146,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>28</v>
       </c>
@@ -6213,7 +6215,7 @@
       </c>
       <c r="U28" s="21"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>29</v>
       </c>
@@ -6286,7 +6288,7 @@
         <v>11079</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>30</v>
       </c>
@@ -6359,7 +6361,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>31</v>
       </c>
@@ -6429,7 +6431,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>32</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>33</v>
       </c>
@@ -6568,7 +6570,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>34</v>
       </c>
@@ -6638,7 +6640,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>35</v>
       </c>
@@ -6709,7 +6711,7 @@
       </c>
       <c r="U35" s="21"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>36</v>
       </c>
@@ -6780,7 +6782,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>37</v>
       </c>
@@ -6849,7 +6851,7 @@
       </c>
       <c r="U37" s="21"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>38</v>
       </c>
@@ -6922,7 +6924,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>39</v>
       </c>
@@ -6992,7 +6994,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>40</v>
       </c>
@@ -7062,7 +7064,7 @@
       </c>
       <c r="U40" s="21"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
         <v>41</v>
       </c>
@@ -7135,7 +7137,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="45">
         <v>101</v>
       </c>
@@ -7208,7 +7210,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>42</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="45">
         <v>102</v>
       </c>
@@ -7352,7 +7354,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="45">
         <v>103</v>
       </c>
@@ -7421,7 +7423,7 @@
       </c>
       <c r="U45" s="21"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="45">
         <v>104</v>
       </c>
@@ -7490,7 +7492,7 @@
       </c>
       <c r="U46" s="21"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="45">
         <v>105</v>
       </c>
@@ -7561,7 +7563,7 @@
       </c>
       <c r="U47" s="21"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="45">
         <v>106</v>
       </c>
@@ -7632,7 +7634,7 @@
       </c>
       <c r="U48" s="21"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
         <v>43</v>
       </c>
@@ -7701,7 +7703,7 @@
       </c>
       <c r="U49" s="21"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="45">
         <v>107</v>
       </c>
@@ -7774,7 +7776,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="45">
         <v>108</v>
       </c>
@@ -7843,7 +7845,7 @@
       </c>
       <c r="U51" s="21"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
         <v>44</v>
       </c>
@@ -7914,7 +7916,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="45">
         <v>109</v>
       </c>
@@ -7987,7 +7989,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="45">
         <v>110</v>
       </c>
@@ -8056,7 +8058,7 @@
       </c>
       <c r="U54" s="21"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="45">
         <v>111</v>
       </c>
@@ -8129,7 +8131,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="45">
         <v>112</v>
       </c>
@@ -8198,7 +8200,7 @@
       </c>
       <c r="U56" s="21"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
         <v>45</v>
       </c>
@@ -8269,7 +8271,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="45">
         <v>114</v>
       </c>
@@ -8337,7 +8339,7 @@
       </c>
       <c r="U58" s="21"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
         <v>46</v>
       </c>
@@ -8410,7 +8412,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="45" t="s">
         <v>47</v>
       </c>
@@ -8483,7 +8485,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="45">
         <v>115</v>
       </c>
@@ -8552,7 +8554,7 @@
       </c>
       <c r="U61" s="21"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="45">
         <v>116</v>
       </c>
@@ -8621,7 +8623,7 @@
       </c>
       <c r="U62" s="21"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="45">
         <v>117</v>
       </c>
@@ -8690,7 +8692,7 @@
       </c>
       <c r="U63" s="21"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="45">
         <v>118</v>
       </c>
@@ -8763,7 +8765,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="45">
         <v>119</v>
       </c>
@@ -8834,7 +8836,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="45">
         <v>120</v>
       </c>
@@ -8903,7 +8905,7 @@
       </c>
       <c r="U66" s="21"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="45">
         <v>121</v>
       </c>
@@ -8974,7 +8976,7 @@
       </c>
       <c r="U67" s="21"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="45" t="s">
         <v>158</v>
       </c>
@@ -9045,7 +9047,7 @@
       </c>
       <c r="U68" s="21"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="45">
         <v>123</v>
       </c>
@@ -9116,7 +9118,7 @@
       </c>
       <c r="U69" s="21"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="45">
         <v>124</v>
       </c>
@@ -9185,9 +9187,11 @@
         <f t="shared" si="29"/>
         <v>848</v>
       </c>
-      <c r="U70" s="21"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U70" s="21">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="45">
         <v>125</v>
       </c>
@@ -9258,7 +9262,7 @@
       </c>
       <c r="U71" s="21"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="45">
         <v>126</v>
       </c>
@@ -9328,7 +9332,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -9370,10 +9374,10 @@
       <c r="T73" s="21"/>
       <c r="U73" s="20">
         <f>SUM(U2:U72)</f>
-        <v>132338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>133186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -9405,7 +9409,7 @@
       <c r="T74" s="21"/>
       <c r="U74" s="21"/>
     </row>
-    <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -9448,20 +9452,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>197</v>
       </c>
@@ -9478,13 +9482,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>209</v>
       </c>
       <c r="C2" s="3">
         <f>'Maintenance_01-Apr-2025_Onwards'!K74</f>
-        <v>286205</v>
+        <v>288834</v>
       </c>
       <c r="D2" s="62">
         <v>45686</v>
@@ -9499,13 +9503,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>210</v>
       </c>
       <c r="C3" s="3">
         <f>EB!U73</f>
-        <v>132338</v>
+        <v>133186</v>
       </c>
       <c r="D3" s="62">
         <v>45706</v>
@@ -9520,7 +9524,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D4" s="62">
         <v>45733</v>
       </c>
@@ -9534,7 +9538,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D5" s="62">
         <v>45727</v>
       </c>
@@ -9548,7 +9552,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D6" s="62">
         <v>111491</v>
       </c>
@@ -9562,13 +9566,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>196</v>
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>1060961</v>
+        <v>1064438</v>
       </c>
       <c r="D7" s="62">
         <v>45757</v>
@@ -9584,7 +9588,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D8" s="62">
         <v>45761</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>186</v>
       </c>
@@ -9619,7 +9623,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -9640,13 +9644,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="3">
-        <f>17668+2566</f>
-        <v>20234</v>
+        <f>17668+2566+3477</f>
+        <v>23711</v>
       </c>
       <c r="D11" s="62">
         <v>45763</v>
@@ -9661,7 +9665,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>179</v>
       </c>
@@ -9682,7 +9686,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>211</v>
       </c>
@@ -9703,16 +9707,16 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>171913</v>
+        <v>175390</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -9722,28 +9726,28 @@
         <v>889456</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>202</v>
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>171505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>174982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="48"/>
       <c r="B20" s="3" t="s">
         <v>203</v>
@@ -9754,15 +9758,15 @@
       </c>
       <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="48"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
     </row>
   </sheetData>
@@ -9780,24 +9784,24 @@
       <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="11" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9845,7 +9849,7 @@
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -9896,7 +9900,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -9945,7 +9949,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -9992,7 +9996,7 @@
       <c r="O4" s="21"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -10041,7 +10045,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -10092,7 +10096,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -10141,7 +10145,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -10188,7 +10192,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -10235,7 +10239,7 @@
       <c r="O9" s="21"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -10280,7 +10284,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -10329,7 +10333,7 @@
       <c r="O11" s="21"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -10380,7 +10384,7 @@
       <c r="O12" s="21"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -10431,7 +10435,7 @@
       <c r="O13" s="21"/>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -10482,7 +10486,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -10533,7 +10537,7 @@
       <c r="O15" s="21"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -10584,7 +10588,7 @@
       <c r="O16" s="21"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -10635,7 +10639,7 @@
       <c r="O17" s="21"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -10686,7 +10690,7 @@
       <c r="O18" s="21"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -10733,7 +10737,7 @@
       <c r="O19" s="21"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -10784,7 +10788,7 @@
       <c r="O20" s="21"/>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -10835,7 +10839,7 @@
       <c r="O21" s="21"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -10886,7 +10890,7 @@
       <c r="O22" s="21"/>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -10935,7 +10939,7 @@
       </c>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -10982,7 +10986,7 @@
       <c r="O24" s="21"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -11033,7 +11037,7 @@
       <c r="O25" s="21"/>
       <c r="P25" s="17"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -11080,7 +11084,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -11131,7 +11135,7 @@
       <c r="O27" s="21"/>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -11178,7 +11182,7 @@
       <c r="O28" s="21"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -11225,7 +11229,7 @@
       <c r="O29" s="21"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -11274,7 +11278,7 @@
       <c r="O30" s="21"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -11325,7 +11329,7 @@
       <c r="O31" s="21"/>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -11374,7 +11378,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -11423,7 +11427,7 @@
       <c r="O33" s="21"/>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -11470,7 +11474,7 @@
       <c r="O34" s="21"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -11519,7 +11523,7 @@
       <c r="O35" s="21"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -11566,7 +11570,7 @@
       <c r="O36" s="22"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -11615,7 +11619,7 @@
       <c r="O37" s="21"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -11666,7 +11670,7 @@
       <c r="O38" s="21"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -11713,7 +11717,7 @@
       <c r="O39" s="21"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -11764,7 +11768,7 @@
       <c r="O40" s="21"/>
       <c r="P40" s="17"/>
     </row>
-    <row r="41" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -11815,7 +11819,7 @@
       <c r="O41" s="21"/>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -11868,7 +11872,7 @@
       </c>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -11921,7 +11925,7 @@
       </c>
       <c r="P43" s="17"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -11968,7 +11972,7 @@
       <c r="O44" s="21"/>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -12017,7 +12021,7 @@
       <c r="O45" s="21"/>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -12066,7 +12070,7 @@
       <c r="O46" s="21"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -12118,7 +12122,7 @@
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -12169,7 +12173,7 @@
       <c r="O48" s="22"/>
       <c r="P48" s="17"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -12216,7 +12220,7 @@
       <c r="O49" s="21"/>
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -12267,7 +12271,7 @@
       <c r="O50" s="21"/>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -12316,7 +12320,7 @@
       <c r="O51" s="21"/>
       <c r="P51" s="17"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -12365,7 +12369,7 @@
       <c r="O52" s="21"/>
       <c r="P52" s="17"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -12416,7 +12420,7 @@
       <c r="O53" s="21"/>
       <c r="P53" s="8"/>
     </row>
-    <row r="54" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -12465,7 +12469,7 @@
       <c r="O54" s="22"/>
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -12515,7 +12519,7 @@
       <c r="O55" s="22"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -12564,7 +12568,7 @@
       <c r="O56" s="22"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -12611,7 +12615,7 @@
       <c r="O57" s="22"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -12660,7 +12664,7 @@
       </c>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -12709,7 +12713,7 @@
       <c r="O59" s="21"/>
       <c r="P59" s="17"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -12758,7 +12762,7 @@
       <c r="O60" s="21"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -12805,7 +12809,7 @@
       <c r="O61" s="21"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -12852,7 +12856,7 @@
       <c r="O62" s="21"/>
       <c r="P62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -12899,7 +12903,7 @@
       <c r="O63" s="21"/>
       <c r="P63" s="8"/>
     </row>
-    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -12950,7 +12954,7 @@
       <c r="O64" s="21"/>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -12997,7 +13001,7 @@
       <c r="O65" s="21"/>
       <c r="P65" s="8"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -13044,7 +13048,7 @@
       <c r="O66" s="21"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -13093,7 +13097,7 @@
       <c r="O67" s="21"/>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -13144,7 +13148,7 @@
       <c r="O68" s="22"/>
       <c r="P68" s="8"/>
     </row>
-    <row r="69" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -13193,7 +13197,7 @@
       <c r="O69" s="22"/>
       <c r="P69" s="8"/>
     </row>
-    <row r="70" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -13244,7 +13248,7 @@
       <c r="O70" s="22"/>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -13295,7 +13299,7 @@
       <c r="O71" s="21"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -13344,7 +13348,7 @@
       <c r="O72" s="21"/>
       <c r="P72" s="8"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -13391,7 +13395,7 @@
       <c r="O73" s="21"/>
       <c r="P73" s="8"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E74" s="3">
         <f>SUM(E2:E73)</f>
         <v>57993</v>
@@ -13421,7 +13425,7 @@
       </c>
       <c r="N74" s="19"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>163</v>
       </c>
@@ -13430,7 +13434,7 @@
         <v>719150</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D78" s="2" t="s">
         <v>164</v>
       </c>
@@ -13439,28 +13443,28 @@
         <v>430473</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" s="42"/>
       <c r="H84" s="23"/>
       <c r="I84" s="19"/>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D85"/>
       <c r="E85"/>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D86" s="38"/>
       <c r="E86"/>
       <c r="F86" s="42"/>
       <c r="H86" s="38"/>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D87"/>
       <c r="E87"/>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D88"/>
       <c r="E88"/>
     </row>
@@ -13479,15 +13483,15 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>165</v>
       </c>
@@ -13503,7 +13507,7 @@
         <v>312867.11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>161</v>
       </c>
@@ -13519,7 +13523,7 @@
         <v>211945</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>166</v>
       </c>
@@ -13535,7 +13539,7 @@
         <v>100922.10999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>168</v>
       </c>
@@ -13544,12 +13548,12 @@
         <v>642418</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>176</v>
       </c>
@@ -13557,7 +13561,7 @@
         <v>18043</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>170</v>
       </c>
@@ -13568,7 +13572,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="48">
         <v>45733</v>
       </c>
@@ -13582,7 +13586,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="48">
         <v>45727</v>
       </c>
@@ -13593,7 +13597,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="48">
         <v>45748</v>
       </c>
@@ -13604,7 +13608,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>172</v>
       </c>
@@ -13613,7 +13617,7 @@
         <v>416100</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>173</v>
       </c>
@@ -13622,7 +13626,7 @@
         <v>226318</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>186</v>
       </c>
@@ -13630,7 +13634,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>174</v>
       </c>
@@ -13639,7 +13643,7 @@
         <v>117636</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>175</v>
       </c>
@@ -13648,7 +13652,7 @@
         <v>67347</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>179</v>
       </c>
@@ -13657,7 +13661,7 @@
         <v>40543</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>146</v>
       </c>
@@ -13666,7 +13670,7 @@
         <v>226896</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>180</v>
       </c>
@@ -13688,18 +13692,18 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="11"/>
-    <col min="3" max="3" width="10.7109375" style="11" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" style="11" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="11"/>
+    <col min="3" max="3" width="10.6640625" style="11" customWidth="1"/>
+    <col min="4" max="5" width="12.109375" style="11" customWidth="1"/>
+    <col min="6" max="7" width="13.88671875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>212</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
         <v>218</v>
       </c>
@@ -13743,7 +13747,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>215</v>
       </c>
@@ -13763,7 +13767,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>111</v>
       </c>
@@ -13783,7 +13787,7 @@
         <v>7086</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>216</v>
       </c>
@@ -13803,7 +13807,7 @@
         <v>22063</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>39</v>
       </c>
@@ -13823,7 +13827,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
@@ -13843,7 +13847,7 @@
         <v>24798</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>45</v>
       </c>
@@ -13863,7 +13867,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>217</v>
       </c>
@@ -13883,7 +13887,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>126</v>
       </c>
@@ -13903,7 +13907,7 @@
         <v>14384</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -13923,7 +13927,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>219</v>
       </c>
@@ -13937,7 +13941,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
@@ -13951,7 +13955,7 @@
         <v>21772</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>222</v>
       </c>
@@ -13965,7 +13969,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C17" s="11" t="s">
         <v>47</v>
       </c>
@@ -13974,7 +13978,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C18" s="11" t="s">
         <v>5</v>
       </c>
@@ -13982,17 +13986,17 @@
         <v>11114</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D19" s="11">
         <v>53000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C20" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>140</v>
       </c>

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7358DEF-F900-4463-8BBA-5EFE280729F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C324720C-63E8-449F-AE6D-EE52BC3D9F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -1509,22 +1509,22 @@
       <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" style="54" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="54" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="54" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="54" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="54" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="54" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>6414</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>26599</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>5163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>7770</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>7297</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>7044</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>21982</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>14858</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>13087</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>24798</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>7836</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>4576</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>10113</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>11827</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>7459</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E74" s="2">
         <f>SUM(E2:E73)</f>
         <v>57993</v>
@@ -4181,32 +4181,32 @@
         <v>288834</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C77"/>
       <c r="E77" s="54"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D84"/>
       <c r="E84" s="54"/>
       <c r="F84" s="57"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D85"/>
       <c r="E85" s="54"/>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D86" s="38"/>
       <c r="E86" s="54"/>
       <c r="F86" s="57"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D87"/>
       <c r="E87" s="54"/>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D88"/>
       <c r="E88" s="54"/>
     </row>
@@ -4220,17 +4220,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0520B335-6D30-4762-9C4F-D400EB1F105F}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U70" sqref="U70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>8354</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="U6" s="21"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="U7" s="21"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="U8" s="21"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>9</v>
       </c>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="U9" s="21"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>10</v>
       </c>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="U10" s="21"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>12321</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>12</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>16777</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>18135</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="U14" s="21"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>17</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="U18" s="21"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>19</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>20</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>21</v>
       </c>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>22</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>23</v>
       </c>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="U23" s="21"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>24</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>25</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>26</v>
       </c>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>27</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>28</v>
       </c>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="U28" s="21"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>29</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>11079</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>30</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>31</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>32</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>33</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>34</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>35</v>
       </c>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="U35" s="21"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>36</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>37</v>
       </c>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="U37" s="21"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>38</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>39</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>40</v>
       </c>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="U40" s="21"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>41</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>101</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>42</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>102</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
         <v>103</v>
       </c>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="U45" s="21"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>104</v>
       </c>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="U46" s="21"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>105</v>
       </c>
@@ -7561,9 +7561,11 @@
         <f t="shared" si="18"/>
         <v>7726</v>
       </c>
-      <c r="U47" s="21"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U47" s="21">
+        <v>7726</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>106</v>
       </c>
@@ -7634,7 +7636,7 @@
       </c>
       <c r="U48" s="21"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>43</v>
       </c>
@@ -7703,7 +7705,7 @@
       </c>
       <c r="U49" s="21"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>107</v>
       </c>
@@ -7776,7 +7778,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>108</v>
       </c>
@@ -7845,7 +7847,7 @@
       </c>
       <c r="U51" s="21"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
         <v>44</v>
       </c>
@@ -7916,7 +7918,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="45">
         <v>109</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>110</v>
       </c>
@@ -8058,7 +8060,7 @@
       </c>
       <c r="U54" s="21"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>111</v>
       </c>
@@ -8131,7 +8133,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>112</v>
       </c>
@@ -8200,7 +8202,7 @@
       </c>
       <c r="U56" s="21"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
         <v>45</v>
       </c>
@@ -8271,7 +8273,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>114</v>
       </c>
@@ -8339,7 +8341,7 @@
       </c>
       <c r="U58" s="21"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
         <v>46</v>
       </c>
@@ -8412,7 +8414,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="45" t="s">
         <v>47</v>
       </c>
@@ -8485,7 +8487,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
         <v>115</v>
       </c>
@@ -8554,7 +8556,7 @@
       </c>
       <c r="U61" s="21"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <v>116</v>
       </c>
@@ -8623,7 +8625,7 @@
       </c>
       <c r="U62" s="21"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="45">
         <v>117</v>
       </c>
@@ -8692,7 +8694,7 @@
       </c>
       <c r="U63" s="21"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="45">
         <v>118</v>
       </c>
@@ -8765,7 +8767,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="45">
         <v>119</v>
       </c>
@@ -8836,7 +8838,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="45">
         <v>120</v>
       </c>
@@ -8905,7 +8907,7 @@
       </c>
       <c r="U66" s="21"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
         <v>121</v>
       </c>
@@ -8976,7 +8978,7 @@
       </c>
       <c r="U67" s="21"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="45" t="s">
         <v>158</v>
       </c>
@@ -9047,7 +9049,7 @@
       </c>
       <c r="U68" s="21"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="45">
         <v>123</v>
       </c>
@@ -9118,7 +9120,7 @@
       </c>
       <c r="U69" s="21"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="45">
         <v>124</v>
       </c>
@@ -9191,7 +9193,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>125</v>
       </c>
@@ -9262,7 +9264,7 @@
       </c>
       <c r="U71" s="21"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="45">
         <v>126</v>
       </c>
@@ -9332,7 +9334,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -9374,10 +9376,10 @@
       <c r="T73" s="21"/>
       <c r="U73" s="20">
         <f>SUM(U2:U72)</f>
-        <v>133186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>140912</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -9409,7 +9411,7 @@
       <c r="T74" s="21"/>
       <c r="U74" s="21"/>
     </row>
-    <row r="75" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -9452,20 +9454,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="134" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="134" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>197</v>
       </c>
@@ -9482,7 +9484,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>209</v>
       </c>
@@ -9503,13 +9505,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>210</v>
       </c>
       <c r="C3" s="3">
         <f>EB!U73</f>
-        <v>133186</v>
+        <v>140912</v>
       </c>
       <c r="D3" s="62">
         <v>45706</v>
@@ -9524,7 +9526,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D4" s="62">
         <v>45733</v>
       </c>
@@ -9538,7 +9540,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D5" s="62">
         <v>45727</v>
       </c>
@@ -9552,7 +9554,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D6" s="62">
         <v>111491</v>
       </c>
@@ -9566,13 +9568,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>196</v>
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>1064438</v>
+        <v>1072164</v>
       </c>
       <c r="D7" s="62">
         <v>45757</v>
@@ -9588,7 +9590,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D8" s="62">
         <v>45761</v>
       </c>
@@ -9602,7 +9604,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>186</v>
       </c>
@@ -9623,7 +9625,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -9644,13 +9646,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="3">
-        <f>17668+2566+3477</f>
-        <v>23711</v>
+        <f>17668+2566+3477+7726</f>
+        <v>31437</v>
       </c>
       <c r="D11" s="62">
         <v>45763</v>
@@ -9665,7 +9667,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>179</v>
       </c>
@@ -9686,7 +9688,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>211</v>
       </c>
@@ -9707,16 +9709,16 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>175390</v>
+        <v>183116</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -9726,28 +9728,28 @@
         <v>889456</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>202</v>
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>174982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>182708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="3" t="s">
         <v>203</v>
@@ -9758,15 +9760,15 @@
       </c>
       <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
     </row>
   </sheetData>
@@ -9784,24 +9786,24 @@
       <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="11" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
-    <col min="15" max="15" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9849,7 +9851,7 @@
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -9900,7 +9902,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -9949,7 +9951,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -9996,7 +9998,7 @@
       <c r="O4" s="21"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -10045,7 +10047,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -10096,7 +10098,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -10145,7 +10147,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -10192,7 +10194,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -10239,7 +10241,7 @@
       <c r="O9" s="21"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -10284,7 +10286,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -10333,7 +10335,7 @@
       <c r="O11" s="21"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -10384,7 +10386,7 @@
       <c r="O12" s="21"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -10435,7 +10437,7 @@
       <c r="O13" s="21"/>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -10486,7 +10488,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -10537,7 +10539,7 @@
       <c r="O15" s="21"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -10588,7 +10590,7 @@
       <c r="O16" s="21"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -10639,7 +10641,7 @@
       <c r="O17" s="21"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -10690,7 +10692,7 @@
       <c r="O18" s="21"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -10737,7 +10739,7 @@
       <c r="O19" s="21"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -10788,7 +10790,7 @@
       <c r="O20" s="21"/>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -10839,7 +10841,7 @@
       <c r="O21" s="21"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -10890,7 +10892,7 @@
       <c r="O22" s="21"/>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -10939,7 +10941,7 @@
       </c>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -10986,7 +10988,7 @@
       <c r="O24" s="21"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -11037,7 +11039,7 @@
       <c r="O25" s="21"/>
       <c r="P25" s="17"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -11084,7 +11086,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -11135,7 +11137,7 @@
       <c r="O27" s="21"/>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -11182,7 +11184,7 @@
       <c r="O28" s="21"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -11229,7 +11231,7 @@
       <c r="O29" s="21"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -11278,7 +11280,7 @@
       <c r="O30" s="21"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -11329,7 +11331,7 @@
       <c r="O31" s="21"/>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -11378,7 +11380,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -11427,7 +11429,7 @@
       <c r="O33" s="21"/>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -11474,7 +11476,7 @@
       <c r="O34" s="21"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -11523,7 +11525,7 @@
       <c r="O35" s="21"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -11570,7 +11572,7 @@
       <c r="O36" s="22"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -11619,7 +11621,7 @@
       <c r="O37" s="21"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -11670,7 +11672,7 @@
       <c r="O38" s="21"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -11717,7 +11719,7 @@
       <c r="O39" s="21"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -11768,7 +11770,7 @@
       <c r="O40" s="21"/>
       <c r="P40" s="17"/>
     </row>
-    <row r="41" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -11819,7 +11821,7 @@
       <c r="O41" s="21"/>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -11872,7 +11874,7 @@
       </c>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -11925,7 +11927,7 @@
       </c>
       <c r="P43" s="17"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -11972,7 +11974,7 @@
       <c r="O44" s="21"/>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -12021,7 +12023,7 @@
       <c r="O45" s="21"/>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -12070,7 +12072,7 @@
       <c r="O46" s="21"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -12122,7 +12124,7 @@
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -12173,7 +12175,7 @@
       <c r="O48" s="22"/>
       <c r="P48" s="17"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -12220,7 +12222,7 @@
       <c r="O49" s="21"/>
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -12271,7 +12273,7 @@
       <c r="O50" s="21"/>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -12320,7 +12322,7 @@
       <c r="O51" s="21"/>
       <c r="P51" s="17"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -12369,7 +12371,7 @@
       <c r="O52" s="21"/>
       <c r="P52" s="17"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -12420,7 +12422,7 @@
       <c r="O53" s="21"/>
       <c r="P53" s="8"/>
     </row>
-    <row r="54" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -12469,7 +12471,7 @@
       <c r="O54" s="22"/>
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -12519,7 +12521,7 @@
       <c r="O55" s="22"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -12568,7 +12570,7 @@
       <c r="O56" s="22"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -12615,7 +12617,7 @@
       <c r="O57" s="22"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -12664,7 +12666,7 @@
       </c>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -12713,7 +12715,7 @@
       <c r="O59" s="21"/>
       <c r="P59" s="17"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -12762,7 +12764,7 @@
       <c r="O60" s="21"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -12809,7 +12811,7 @@
       <c r="O61" s="21"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -12856,7 +12858,7 @@
       <c r="O62" s="21"/>
       <c r="P62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -12903,7 +12905,7 @@
       <c r="O63" s="21"/>
       <c r="P63" s="8"/>
     </row>
-    <row r="64" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -12954,7 +12956,7 @@
       <c r="O64" s="21"/>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -13001,7 +13003,7 @@
       <c r="O65" s="21"/>
       <c r="P65" s="8"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -13048,7 +13050,7 @@
       <c r="O66" s="21"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -13097,7 +13099,7 @@
       <c r="O67" s="21"/>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -13148,7 +13150,7 @@
       <c r="O68" s="22"/>
       <c r="P68" s="8"/>
     </row>
-    <row r="69" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -13197,7 +13199,7 @@
       <c r="O69" s="22"/>
       <c r="P69" s="8"/>
     </row>
-    <row r="70" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -13248,7 +13250,7 @@
       <c r="O70" s="22"/>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -13299,7 +13301,7 @@
       <c r="O71" s="21"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -13348,7 +13350,7 @@
       <c r="O72" s="21"/>
       <c r="P72" s="8"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -13395,7 +13397,7 @@
       <c r="O73" s="21"/>
       <c r="P73" s="8"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E74" s="3">
         <f>SUM(E2:E73)</f>
         <v>57993</v>
@@ -13425,7 +13427,7 @@
       </c>
       <c r="N74" s="19"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>163</v>
       </c>
@@ -13434,7 +13436,7 @@
         <v>719150</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D78" s="2" t="s">
         <v>164</v>
       </c>
@@ -13443,28 +13445,28 @@
         <v>430473</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" s="42"/>
       <c r="H84" s="23"/>
       <c r="I84" s="19"/>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D85"/>
       <c r="E85"/>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D86" s="38"/>
       <c r="E86"/>
       <c r="F86" s="42"/>
       <c r="H86" s="38"/>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D87"/>
       <c r="E87"/>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D88"/>
       <c r="E88"/>
     </row>
@@ -13483,15 +13485,15 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>165</v>
       </c>
@@ -13507,7 +13509,7 @@
         <v>312867.11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>161</v>
       </c>
@@ -13523,7 +13525,7 @@
         <v>211945</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>166</v>
       </c>
@@ -13539,7 +13541,7 @@
         <v>100922.10999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>168</v>
       </c>
@@ -13548,12 +13550,12 @@
         <v>642418</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>176</v>
       </c>
@@ -13561,7 +13563,7 @@
         <v>18043</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>170</v>
       </c>
@@ -13572,7 +13574,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="48">
         <v>45733</v>
       </c>
@@ -13586,7 +13588,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="48">
         <v>45727</v>
       </c>
@@ -13597,7 +13599,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="48">
         <v>45748</v>
       </c>
@@ -13608,7 +13610,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>172</v>
       </c>
@@ -13617,7 +13619,7 @@
         <v>416100</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>173</v>
       </c>
@@ -13626,7 +13628,7 @@
         <v>226318</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>186</v>
       </c>
@@ -13634,7 +13636,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>174</v>
       </c>
@@ -13643,7 +13645,7 @@
         <v>117636</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>175</v>
       </c>
@@ -13652,7 +13654,7 @@
         <v>67347</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>179</v>
       </c>
@@ -13661,7 +13663,7 @@
         <v>40543</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>146</v>
       </c>
@@ -13670,7 +13672,7 @@
         <v>226896</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>180</v>
       </c>
@@ -13692,18 +13694,18 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="11"/>
-    <col min="3" max="3" width="10.6640625" style="11" customWidth="1"/>
-    <col min="4" max="5" width="12.109375" style="11" customWidth="1"/>
-    <col min="6" max="7" width="13.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="11"/>
+    <col min="3" max="3" width="10.7109375" style="11" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="11" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
         <v>212</v>
       </c>
@@ -13724,7 +13726,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>218</v>
       </c>
@@ -13747,7 +13749,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>215</v>
       </c>
@@ -13767,7 +13769,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>111</v>
       </c>
@@ -13787,7 +13789,7 @@
         <v>7086</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>216</v>
       </c>
@@ -13807,7 +13809,7 @@
         <v>22063</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>39</v>
       </c>
@@ -13827,7 +13829,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
@@ -13847,7 +13849,7 @@
         <v>24798</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>45</v>
       </c>
@@ -13867,7 +13869,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>217</v>
       </c>
@@ -13887,7 +13889,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>126</v>
       </c>
@@ -13907,7 +13909,7 @@
         <v>14384</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -13927,7 +13929,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>219</v>
       </c>
@@ -13941,7 +13943,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
@@ -13955,7 +13957,7 @@
         <v>21772</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>222</v>
       </c>
@@ -13969,7 +13971,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C17" s="11" t="s">
         <v>47</v>
       </c>
@@ -13978,7 +13980,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" s="11" t="s">
         <v>5</v>
       </c>
@@ -13986,17 +13988,17 @@
         <v>11114</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D19" s="11">
         <v>53000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>140</v>
       </c>

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C324720C-63E8-449F-AE6D-EE52BC3D9F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30426273-72ED-403C-9D0F-69810250C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="238">
   <si>
     <t xml:space="preserve">S.no </t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>garbage pickup march</t>
+  </si>
+  <si>
+    <t>garbage pickup feb</t>
   </si>
 </sst>
 </file>
@@ -977,7 +980,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1119,9 +1122,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1163,6 +1163,23 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1504,9 +1521,9 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,11 +1533,11 @@
     <col min="3" max="3" width="25.5703125" style="14" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="54" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="54" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="54" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="54" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="53" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="53" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="53" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1528,22 +1545,22 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>195</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>190</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="55" t="s">
         <v>191</v>
       </c>
       <c r="H1" s="49" t="s">
@@ -1552,10 +1569,10 @@
       <c r="I1" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="58" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1816,13 +1833,13 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <v>9880217710</v>
       </c>
       <c r="E9" s="15">
@@ -2017,7 +2034,7 @@
       <c r="H14" s="26">
         <v>0</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="52">
         <v>2456</v>
       </c>
       <c r="J14" s="26">
@@ -2322,40 +2339,40 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="26">
         <v>9739176074</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="26">
         <v>788</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="71">
         <v>4.54</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="70">
         <f t="shared" si="1"/>
         <v>3578</v>
       </c>
       <c r="H23" s="26">
         <v>9849</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="52">
         <v>3578</v>
       </c>
       <c r="J23" s="26">
         <f t="shared" si="0"/>
         <v>13427</v>
       </c>
-      <c r="K23" s="21"/>
+      <c r="K23" s="72"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
@@ -2793,40 +2810,40 @@
       </c>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="73" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="26">
         <v>9916425350</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="26">
         <v>872</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="71">
         <v>4.54</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="70">
         <f t="shared" si="1"/>
         <v>3959</v>
       </c>
       <c r="H36" s="26">
         <v>10899</v>
       </c>
-      <c r="I36" s="51">
+      <c r="I36" s="52">
         <v>3959</v>
       </c>
       <c r="J36" s="26">
         <f t="shared" si="0"/>
         <v>14858</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="72">
         <v>14858</v>
       </c>
     </row>
@@ -3039,7 +3056,7 @@
       <c r="H42" s="26">
         <v>0</v>
       </c>
-      <c r="I42" s="51">
+      <c r="I42" s="52">
         <v>2034</v>
       </c>
       <c r="J42" s="26">
@@ -3076,7 +3093,7 @@
       <c r="H43" s="26">
         <v>0</v>
       </c>
-      <c r="I43" s="51">
+      <c r="I43" s="52">
         <v>4240</v>
       </c>
       <c r="J43" s="26">
@@ -3257,7 +3274,7 @@
       <c r="H48" s="26">
         <v>0</v>
       </c>
-      <c r="I48" s="51">
+      <c r="I48" s="52">
         <v>3183</v>
       </c>
       <c r="J48" s="26">
@@ -3473,7 +3490,7 @@
       <c r="H54" s="26">
         <v>4454</v>
       </c>
-      <c r="I54" s="51">
+      <c r="I54" s="52">
         <v>4853</v>
       </c>
       <c r="J54" s="26">
@@ -3508,7 +3525,7 @@
       <c r="H55" s="26">
         <v>0</v>
       </c>
-      <c r="I55" s="51">
+      <c r="I55" s="52">
         <v>3614</v>
       </c>
       <c r="J55" s="26">
@@ -3545,7 +3562,7 @@
       <c r="H56" s="26">
         <v>5387</v>
       </c>
-      <c r="I56" s="51">
+      <c r="I56" s="52">
         <v>5870</v>
       </c>
       <c r="J56" s="26">
@@ -3580,7 +3597,7 @@
       <c r="H57" s="26">
         <v>9399</v>
       </c>
-      <c r="I57" s="51">
+      <c r="I57" s="52">
         <v>3414</v>
       </c>
       <c r="J57" s="26">
@@ -3595,16 +3612,16 @@
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="25">
         <v>114</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="28">
+      <c r="D58" s="26">
         <v>782906001</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="26">
         <v>785</v>
       </c>
       <c r="F58" s="50">
@@ -3617,7 +3634,7 @@
       <c r="H58" s="26">
         <v>9813</v>
       </c>
-      <c r="I58" s="53">
+      <c r="I58" s="75">
         <v>3564</v>
       </c>
       <c r="J58" s="26">
@@ -3768,7 +3785,9 @@
         <f t="shared" si="0"/>
         <v>6389</v>
       </c>
-      <c r="K62" s="21"/>
+      <c r="K62" s="21">
+        <v>6389</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
@@ -3975,7 +3994,7 @@
       <c r="H68" s="26">
         <v>0</v>
       </c>
-      <c r="I68" s="51">
+      <c r="I68" s="52">
         <v>7459</v>
       </c>
       <c r="J68" s="26">
@@ -3990,27 +4009,27 @@
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="69" t="s">
+      <c r="C69" s="68" t="s">
         <v>235</v>
       </c>
       <c r="D69" s="34"/>
-      <c r="E69" s="34">
+      <c r="E69" s="70">
         <v>802</v>
       </c>
       <c r="F69" s="50">
         <v>4.54</v>
       </c>
-      <c r="G69" s="34">
+      <c r="G69" s="70">
         <f t="shared" si="3"/>
         <v>3641</v>
       </c>
       <c r="H69" s="26">
         <v>0</v>
       </c>
-      <c r="I69" s="51">
+      <c r="I69" s="52">
         <v>3641</v>
       </c>
       <c r="J69" s="26">
@@ -4170,45 +4189,45 @@
         <f>SUM(E2:E73)</f>
         <v>57993</v>
       </c>
-      <c r="G74" s="63"/>
-      <c r="H74" s="58"/>
-      <c r="J74" s="58">
+      <c r="G74" s="62"/>
+      <c r="H74" s="57"/>
+      <c r="J74" s="57">
         <f>SUM(J2:J73)</f>
         <v>551967</v>
       </c>
       <c r="K74">
         <f>SUM(K2:K73)</f>
-        <v>288834</v>
+        <v>295223</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C77"/>
-      <c r="E77" s="54"/>
+      <c r="E77" s="53"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D84"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="57"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="56"/>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D85"/>
-      <c r="E85" s="54"/>
+      <c r="E85" s="53"/>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D86" s="38"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="57"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="56"/>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D87"/>
-      <c r="E87" s="54"/>
+      <c r="E87" s="53"/>
     </row>
     <row r="88" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D88"/>
-      <c r="E88" s="54"/>
+      <c r="E88" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4220,9 +4239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0520B335-6D30-4762-9C4F-D400EB1F105F}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U70" sqref="U70"/>
+      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5054,7 +5073,7 @@
         <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
-      <c r="Q12" s="64">
+      <c r="Q12" s="63">
         <v>12400</v>
       </c>
       <c r="R12" s="21">
@@ -6269,7 +6288,7 @@
         <f t="shared" si="5"/>
         <v>746.56338028169012</v>
       </c>
-      <c r="Q29" s="65">
+      <c r="Q29" s="64">
         <v>1228</v>
       </c>
       <c r="R29" s="21">
@@ -7535,7 +7554,7 @@
         <f t="shared" si="13"/>
         <v>5451</v>
       </c>
-      <c r="N47" s="22">
+      <c r="N47" s="20">
         <v>1225</v>
       </c>
       <c r="O47" s="21">
@@ -9454,8 +9473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9474,13 +9493,13 @@
       <c r="C1" s="3">
         <v>642418</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>200</v>
       </c>
     </row>
@@ -9490,9 +9509,9 @@
       </c>
       <c r="C2" s="3">
         <f>'Maintenance_01-Apr-2025_Onwards'!K74</f>
-        <v>288834</v>
-      </c>
-      <c r="D2" s="62">
+        <v>295223</v>
+      </c>
+      <c r="D2" s="61">
         <v>45686</v>
       </c>
       <c r="E2" t="s">
@@ -9513,7 +9532,7 @@
         <f>EB!U73</f>
         <v>140912</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="61">
         <v>45706</v>
       </c>
       <c r="E3" t="s">
@@ -9527,7 +9546,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="62">
+      <c r="D4" s="61">
         <v>45733</v>
       </c>
       <c r="E4" t="s">
@@ -9541,7 +9560,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="62">
+      <c r="D5" s="61">
         <v>45727</v>
       </c>
       <c r="E5" t="s">
@@ -9555,7 +9574,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="62">
+      <c r="D6" s="61">
         <v>111491</v>
       </c>
       <c r="E6" s="38" t="s">
@@ -9574,9 +9593,9 @@
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>1072164</v>
-      </c>
-      <c r="D7" s="62">
+        <v>1078553</v>
+      </c>
+      <c r="D7" s="61">
         <v>45757</v>
       </c>
       <c r="E7" t="s">
@@ -9591,7 +9610,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="62">
+      <c r="D8" s="61">
         <v>45761</v>
       </c>
       <c r="E8" t="s">
@@ -9612,7 +9631,7 @@
         <f>withWhom!I26</f>
         <v>288</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="61">
         <v>45761</v>
       </c>
       <c r="E9" t="s">
@@ -9630,10 +9649,10 @@
         <v>174</v>
       </c>
       <c r="C10" s="3">
-        <f>91651+6687-10000+2700-36400</f>
-        <v>54638</v>
-      </c>
-      <c r="D10" s="62">
+        <f>91651+6687-10000+2700-36400-10000</f>
+        <v>44638</v>
+      </c>
+      <c r="D10" s="61">
         <v>45761</v>
       </c>
       <c r="E10" t="s">
@@ -9651,14 +9670,14 @@
         <v>175</v>
       </c>
       <c r="C11" s="3">
-        <f>17668+2566+3477+7726</f>
-        <v>31437</v>
-      </c>
-      <c r="D11" s="62">
+        <f>17668+2566+3477+7726+6389</f>
+        <v>37826</v>
+      </c>
+      <c r="D11" s="61">
         <v>45763</v>
       </c>
       <c r="E11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F11">
         <v>10000</v>
@@ -9675,7 +9694,7 @@
         <f>92538+4215</f>
         <v>96753</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="61">
         <v>45756</v>
       </c>
       <c r="E12" t="s">
@@ -9696,7 +9715,7 @@
         <f>withWhom!H26</f>
         <v>0</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="61">
         <v>45763</v>
       </c>
       <c r="E13" t="s">
@@ -9711,6 +9730,18 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
+      <c r="D14" s="61">
+        <v>45769</v>
+      </c>
+      <c r="E14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14">
+        <v>10000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -9718,14 +9749,14 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>183116</v>
+        <v>179505</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
       </c>
       <c r="F15">
         <f>SUM(F2:F14)</f>
-        <v>889456</v>
+        <v>899456</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -9737,7 +9768,7 @@
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>182708</v>
+        <v>179097</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -13706,40 +13737,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67" t="s">
+      <c r="G3" s="65"/>
+      <c r="H3" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="65" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="67" t="s">
         <v>218</v>
       </c>
       <c r="B4" s="11">
         <v>117636</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="67" t="s">
         <v>218</v>
       </c>
       <c r="D4" s="11">
         <v>67347</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="67" t="s">
         <v>218</v>
       </c>
       <c r="F4" s="11">

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30426273-72ED-403C-9D0F-69810250C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BB22FB-CFF4-4D92-B670-4BFE48E77739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -980,7 +980,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1164,17 +1164,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1523,7 +1512,7 @@
     <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1746,9 @@
         <f t="shared" si="0"/>
         <v>2774</v>
       </c>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21">
+        <v>2774</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -2041,7 +2032,9 @@
         <f t="shared" si="0"/>
         <v>2456</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="21">
+        <v>2456</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -2339,7 +2332,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2355,10 +2348,10 @@
       <c r="E23" s="26">
         <v>788</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F23" s="50">
         <v>4.54</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="15">
         <f t="shared" si="1"/>
         <v>3578</v>
       </c>
@@ -2372,7 +2365,7 @@
         <f t="shared" si="0"/>
         <v>13427</v>
       </c>
-      <c r="K23" s="72"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
@@ -2810,14 +2803,14 @@
       </c>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:13" s="73" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="69" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="26">
@@ -2826,10 +2819,10 @@
       <c r="E36" s="26">
         <v>872</v>
       </c>
-      <c r="F36" s="71">
+      <c r="F36" s="50">
         <v>4.54</v>
       </c>
-      <c r="G36" s="70">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>3959</v>
       </c>
@@ -2843,7 +2836,7 @@
         <f t="shared" si="0"/>
         <v>14858</v>
       </c>
-      <c r="K36" s="72">
+      <c r="K36" s="21">
         <v>14858</v>
       </c>
     </row>
@@ -3244,7 +3237,9 @@
         <f t="shared" si="0"/>
         <v>3187</v>
       </c>
-      <c r="K47" s="20"/>
+      <c r="K47" s="20">
+        <v>3187</v>
+      </c>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
     </row>
@@ -3634,7 +3629,7 @@
       <c r="H58" s="26">
         <v>9813</v>
       </c>
-      <c r="I58" s="75">
+      <c r="I58" s="70">
         <v>3564</v>
       </c>
       <c r="J58" s="26">
@@ -4009,20 +4004,20 @@
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="69" t="s">
+      <c r="B69" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C69" s="68" t="s">
         <v>235</v>
       </c>
       <c r="D69" s="34"/>
-      <c r="E69" s="70">
+      <c r="E69" s="15">
         <v>802</v>
       </c>
       <c r="F69" s="50">
         <v>4.54</v>
       </c>
-      <c r="G69" s="70">
+      <c r="G69" s="15">
         <f t="shared" si="3"/>
         <v>3641</v>
       </c>
@@ -4197,7 +4192,7 @@
       </c>
       <c r="K74">
         <f>SUM(K2:K73)</f>
-        <v>295223</v>
+        <v>303640</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4240,8 +4235,8 @@
   <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5234,7 +5229,9 @@
         <f t="shared" si="8"/>
         <v>7799</v>
       </c>
-      <c r="U14" s="21"/>
+      <c r="U14" s="21">
+        <v>7799</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
@@ -9395,7 +9392,7 @@
       <c r="T73" s="21"/>
       <c r="U73" s="20">
         <f>SUM(U2:U72)</f>
-        <v>140912</v>
+        <v>148711</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9473,7 +9470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="134" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -9509,7 +9506,7 @@
       </c>
       <c r="C2" s="3">
         <f>'Maintenance_01-Apr-2025_Onwards'!K74</f>
-        <v>295223</v>
+        <v>303640</v>
       </c>
       <c r="D2" s="61">
         <v>45686</v>
@@ -9530,7 +9527,7 @@
       </c>
       <c r="C3" s="3">
         <f>EB!U73</f>
-        <v>140912</v>
+        <v>148711</v>
       </c>
       <c r="D3" s="61">
         <v>45706</v>
@@ -9593,7 +9590,7 @@
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>1078553</v>
+        <v>1094769</v>
       </c>
       <c r="D7" s="61">
         <v>45757</v>
@@ -9649,8 +9646,8 @@
         <v>174</v>
       </c>
       <c r="C10" s="3">
-        <f>91651+6687-10000+2700-36400-10000</f>
-        <v>44638</v>
+        <f>91651+6687-10000+2700-36400-10000+2774</f>
+        <v>47412</v>
       </c>
       <c r="D10" s="61">
         <v>45761</v>
@@ -9670,8 +9667,8 @@
         <v>175</v>
       </c>
       <c r="C11" s="3">
-        <f>17668+2566+3477+7726+6389</f>
-        <v>37826</v>
+        <f>17668+2566+3477+7726+6389+3187+10255</f>
+        <v>51268</v>
       </c>
       <c r="D11" s="61">
         <v>45763</v>
@@ -9749,7 +9746,7 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>179505</v>
+        <v>195721</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -9768,7 +9765,7 @@
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>179097</v>
+        <v>195313</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BB22FB-CFF4-4D92-B670-4BFE48E77739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A274FF1C-4BAC-42CF-9E43-047BFEBC5810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -1509,10 +1509,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E3C748-2165-4E26-87D0-2D40C997FFD8}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3926,7 +3926,9 @@
         <f t="shared" si="0"/>
         <v>11893</v>
       </c>
-      <c r="K66" s="21"/>
+      <c r="K66" s="21">
+        <v>11893</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
@@ -4192,7 +4194,7 @@
       </c>
       <c r="K74">
         <f>SUM(K2:K73)</f>
-        <v>303640</v>
+        <v>315533</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4236,7 +4238,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomLeft" activeCell="V66" sqref="V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8921,7 +8923,9 @@
         <f t="shared" ref="T66:T72" si="29">ROUND(O66+S66,0)</f>
         <v>2634</v>
       </c>
-      <c r="U66" s="21"/>
+      <c r="U66" s="21">
+        <v>2634</v>
+      </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
@@ -9392,7 +9396,7 @@
       <c r="T73" s="21"/>
       <c r="U73" s="20">
         <f>SUM(U2:U72)</f>
-        <v>148711</v>
+        <v>151345</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9470,8 +9474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9506,7 +9510,7 @@
       </c>
       <c r="C2" s="3">
         <f>'Maintenance_01-Apr-2025_Onwards'!K74</f>
-        <v>303640</v>
+        <v>315533</v>
       </c>
       <c r="D2" s="61">
         <v>45686</v>
@@ -9527,7 +9531,7 @@
       </c>
       <c r="C3" s="3">
         <f>EB!U73</f>
-        <v>148711</v>
+        <v>151345</v>
       </c>
       <c r="D3" s="61">
         <v>45706</v>
@@ -9590,7 +9594,7 @@
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>1094769</v>
+        <v>1109296</v>
       </c>
       <c r="D7" s="61">
         <v>45757</v>
@@ -9688,8 +9692,8 @@
         <v>179</v>
       </c>
       <c r="C12" s="3">
-        <f>92538+4215</f>
-        <v>96753</v>
+        <f>92538+4215+14527</f>
+        <v>111280</v>
       </c>
       <c r="D12" s="61">
         <v>45756</v>
@@ -9746,7 +9750,7 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>195721</v>
+        <v>210248</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -9765,7 +9769,7 @@
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>195313</v>
+        <v>209840</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">

--- a/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
+++ b/Maintenance_Sheet_01-Apr-2025_Onwards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A274FF1C-4BAC-42CF-9E43-047BFEBC5810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15321823-70EF-4FC8-BAF5-8223D823A6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance_01-Apr-2025_Onwards" sheetId="9" r:id="rId1"/>
@@ -1509,10 +1509,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E3C748-2165-4E26-87D0-2D40C997FFD8}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4237,8 +4237,8 @@
   <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V66" sqref="V66"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4665,7 +4665,9 @@
         <f t="shared" si="8"/>
         <v>10203</v>
       </c>
-      <c r="U6" s="21"/>
+      <c r="U6" s="21">
+        <v>10203</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
@@ -9396,7 +9398,7 @@
       <c r="T73" s="21"/>
       <c r="U73" s="20">
         <f>SUM(U2:U72)</f>
-        <v>151345</v>
+        <v>161548</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -9474,8 +9476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9531,7 +9533,7 @@
       </c>
       <c r="C3" s="3">
         <f>EB!U73</f>
-        <v>151345</v>
+        <v>161548</v>
       </c>
       <c r="D3" s="61">
         <v>45706</v>
@@ -9594,7 +9596,7 @@
       </c>
       <c r="C7" s="3">
         <f>SUM(C1:C6)</f>
-        <v>1109296</v>
+        <v>1119499</v>
       </c>
       <c r="D7" s="61">
         <v>45757</v>
@@ -9650,8 +9652,8 @@
         <v>174</v>
       </c>
       <c r="C10" s="3">
-        <f>91651+6687-10000+2700-36400-10000+2774</f>
-        <v>47412</v>
+        <f>91651+6687-10000+2700-36400-10000+2774+10203</f>
+        <v>57615</v>
       </c>
       <c r="D10" s="61">
         <v>45761</v>
@@ -9750,7 +9752,7 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>210248</v>
+        <v>220451</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -9769,7 +9771,7 @@
       </c>
       <c r="C17" s="3">
         <f>C7-F15</f>
-        <v>209840</v>
+        <v>220043</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
